--- a/Process Results/Unified_Claims_Liability_Summary_0.xlsx
+++ b/Process Results/Unified_Claims_Liability_Summary_0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14571BC0-62D8-4257-849E-685F692EEC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02744288-E0AD-48A8-9F4F-7C189BB94D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
   </bookViews>
@@ -41,6 +41,10 @@
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -91,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Company_Code</t>
   </si>
@@ -214,6 +218,12 @@
   </si>
   <si>
     <t>Patterns calculation difference. Small premium difference. Unified put hardcoded patterns</t>
+  </si>
+  <si>
+    <t>Average Simple 12</t>
+  </si>
+  <si>
+    <t>Unified has an additional reserve for LL of 500k</t>
   </si>
 </sst>
 </file>
@@ -699,19 +709,16 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Completion Factors"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="8">
-          <cell r="C8">
-            <v>1</v>
-          </cell>
-        </row>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>14529.0036</v>
+            <v>121606.77149241716</v>
           </cell>
         </row>
       </sheetData>
@@ -775,6 +782,109 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Summary"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="36">
+          <cell r="E36">
+            <v>628236.15</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>21354.588462176107</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="36">
+          <cell r="E36">
+            <v>21308.7</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="8">
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="H33">
+            <v>14529.0036</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Completion Factors"/>
       <sheetName val="CL_By_LOB"/>
       <sheetName val="EOB Information"/>
@@ -816,7 +926,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -844,7 +954,31 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="33">
+          <cell r="L33">
+            <v>70878.447008958989</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -889,7 +1023,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -913,7 +1047,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -941,30 +1075,6 @@
         <row r="36">
           <cell r="H36">
             <v>777303.67606529</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="33">
-          <cell r="L33">
-            <v>70878.447008958989</v>
           </cell>
         </row>
       </sheetData>
@@ -1533,7 +1643,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -1960,64 +2070,98 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:13" ht="23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10">
+        <f>+[19]Summary!$H$33</f>
+        <v>121606.77149241716</v>
+      </c>
       <c r="C11" s="5">
         <v>0.05</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6080.3385746208587</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+        <v>127687.11006703801</v>
+      </c>
+      <c r="G11" s="10">
+        <f>+[20]Summary!$E$36</f>
+        <v>628236.15</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" ref="H11" si="4">+E11-G11</f>
+        <v>-500549.03993296204</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" ref="I11" si="5">+H11/G11</f>
+        <v>-0.79675300431686724</v>
+      </c>
       <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10">
+        <f>+[21]Summary!$H$33</f>
+        <v>21354.588462176107</v>
+      </c>
       <c r="C12" s="5">
         <v>0.05</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1067.7294231088053</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+        <v>22422.317885284912</v>
+      </c>
+      <c r="G12" s="10">
+        <f>+[22]Summary!$E$36</f>
+        <v>21308.7</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" ref="H12" si="6">+E12-G12</f>
+        <v>1113.6178852849116</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" ref="I12" si="7">+H12/G12</f>
+        <v>5.2261183708293399E-2</v>
+      </c>
       <c r="J12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="10">
-        <f>+[19]Summary!$H$33</f>
+        <f>+[23]Summary!$H$33</f>
         <v>14529.0036</v>
       </c>
       <c r="C13" s="3">
-        <f>+[20]Summary!$H$35</f>
+        <f>+[24]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D13" s="9">
@@ -2029,7 +2173,7 @@
         <v>15618.67887</v>
       </c>
       <c r="G13" s="10">
-        <f>+[20]Summary!$H$36</f>
+        <f>+[24]Summary!$H$36</f>
         <v>22925.112714356808</v>
       </c>
       <c r="H13" s="10">
@@ -2056,7 +2200,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="3">
-        <f>+[21]Summary!$H$35</f>
+        <f>+[25]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D14" s="9">
@@ -2088,11 +2232,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <f>+[25]Summary!$L$33</f>
+        <f>+[26]Summary!$L$33</f>
         <v>70878.447008958989</v>
       </c>
       <c r="C15" s="3">
-        <f>+[22]Summary!$L$35</f>
+        <f>+[27]Summary!$L$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D15" s="9">
@@ -2104,7 +2248,7 @@
         <v>76194.330534630906</v>
       </c>
       <c r="G15" s="10">
-        <f>+[22]Summary!$L$36</f>
+        <f>+[27]Summary!$L$36</f>
         <v>70721.566596096614</v>
       </c>
       <c r="H15" s="10">
@@ -2130,11 +2274,11 @@
         <v>17</v>
       </c>
       <c r="B16" s="10">
-        <f>+[23]Summary!$H$33</f>
+        <f>+[28]Summary!$H$33</f>
         <v>777731.18257144734</v>
       </c>
       <c r="C16" s="3">
-        <f>+[24]Summary!$H$35</f>
+        <f>+[29]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="9">
@@ -2146,7 +2290,7 @@
         <v>836061.02126430592</v>
       </c>
       <c r="G16" s="10">
-        <f>+[24]Summary!$H$36</f>
+        <f>+[29]Summary!$H$36</f>
         <v>777303.67606529</v>
       </c>
       <c r="H16" s="10">
@@ -2177,29 +2321,29 @@
       </c>
       <c r="B18" s="7">
         <f>+SUM(B2:B17)</f>
-        <v>1463855.9361773338</v>
+        <v>1606817.2961319271</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7">
         <f>+SUM(D2:D17)</f>
-        <v>109789.19521330003</v>
+        <v>116937.2632110297</v>
       </c>
       <c r="E18" s="7">
         <f>+SUM(E2:E17)</f>
-        <v>1573645.1313906338</v>
+        <v>1723754.5593429566</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
         <f>+SUM(G2:G17)</f>
-        <v>1483341.0326031842</v>
+        <v>2132885.8826031839</v>
       </c>
       <c r="H18" s="7">
         <f>+SUM(H2:H17)</f>
-        <v>90304.09878744981</v>
+        <v>-409131.32326022733</v>
       </c>
       <c r="I18" s="11">
         <f>+H18/G18</f>
-        <v>6.0878851729039639E-2</v>
+        <v>-0.19182054070369822</v>
       </c>
       <c r="J18" s="12"/>
     </row>

--- a/Process Results/Unified_Claims_Liability_Summary_0.xlsx
+++ b/Process Results/Unified_Claims_Liability_Summary_0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02744288-E0AD-48A8-9F4F-7C189BB94D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90E49CF-0C0B-4AC7-BF80-C9D01AB39684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="XCH Allocation" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -45,6 +45,10 @@
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
+    <externalReference r:id="rId33"/>
+    <externalReference r:id="rId34"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -94,8 +98,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1B03B1B4-47AE-484A-985F-89FB3AF1A870}</author>
+    <author>tc={4EA062A0-BE3E-4ACB-98F3-2F60190870C5}</author>
+  </authors>
+  <commentList>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{1B03B1B4-47AE-484A-985F-89FB3AF1A870}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Unified has not booked the 507k reserve for LL according to Kevin’s email</t>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="1" shapeId="0" xr:uid="{4EA062A0-BE3E-4ACB-98F3-2F60190870C5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Unified has not booked the 507k reserve for LL according to Kevin’s email</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>Company_Code</t>
   </si>
@@ -112,9 +143,6 @@
     <t>Claim_Liability_Total</t>
   </si>
   <si>
-    <t>From Unified Files</t>
-  </si>
-  <si>
     <t>ASL</t>
   </si>
   <si>
@@ -166,73 +194,119 @@
     <t>Pattern Selection</t>
   </si>
   <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Difference %</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Prior From Unified Files</t>
+  </si>
+  <si>
     <t>Average Simple12 &amp; Simple6</t>
   </si>
   <si>
     <t>Average Simple3 &amp; Simple6</t>
   </si>
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>Difference %</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t>Average Simple12</t>
   </si>
   <si>
     <t>Simple12MS and Avergae 3, 6 and 12 NMS</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Threshold</t>
-  </si>
-  <si>
-    <t>We are removing all 10k+ claims. Unified is only removing some</t>
-  </si>
-  <si>
-    <t>No Exclusions</t>
-  </si>
-  <si>
-    <t>Patterns calculation difference.</t>
-  </si>
-  <si>
-    <t>Difference in payments of 24k from Excel file to SQL database not related to LOB 51 or outliers. Also 10 k difference in premiums</t>
-  </si>
-  <si>
-    <t>Patterns calculation difference. There seems to be missing premiums in the SQL database for valuation 04.2022, 05.2022 and 06.2022. These differences don't affect results</t>
-  </si>
-  <si>
-    <t>Unified is not excludng LOB 51 for newer periods and LOB 51 premiums</t>
-  </si>
-  <si>
-    <t>129k difference in paid and 1M difference in premiums.I can't track the reason since original file inputs are harcoded.</t>
-  </si>
-  <si>
-    <t>Differences y paid because we are excluding claims over 30k they are mannually adjusting ultimate for 2 LL. Also some smal allocation between MS and NMS differences.</t>
-  </si>
-  <si>
-    <t>Unified is selected IEL Method for 5 months instead of 3</t>
-  </si>
-  <si>
-    <t>Patterns calculation difference. Small premium difference. Unified put hardcoded patterns</t>
-  </si>
-  <si>
-    <t>Average Simple 12</t>
-  </si>
-  <si>
-    <t>Unified has an additional reserve for LL of 500k</t>
+    <t>Prior From ARM Scen 6</t>
+  </si>
+  <si>
+    <t>Paid for July, Aug and Sep is very low compared to other accident months but we are setting the sale Ultimate claims. This results on a higher IBNP</t>
+  </si>
+  <si>
+    <t>Triangle is almost empty. We should select Volume All or 12 to ionclude some information in the triangle. Other option is use patterns from other block, since this is not technical the best option.</t>
+  </si>
+  <si>
+    <t>No payments for Aus and Sept. At march there were some big amounts for months that now has lower compeltion factors. This results in a lower IBNP</t>
+  </si>
+  <si>
+    <t>No payments for Sept. Our patterns are longer. At March Unified had a negative IBNP pof 50k for Accident month Jan-24 that wasn't observed in the actual movements.</t>
+  </si>
+  <si>
+    <t>There was a bgf payment for Accident month Dec-23 that generated IBNP´at march but at September the compeltion factor is 1. Results in a lower IBNP</t>
+  </si>
+  <si>
+    <t>At Aug-24. Should I consider valuation March?</t>
+  </si>
+  <si>
+    <t>No paid claims for Jul, Aug and Sept, but Ultimate selectiong by Loss Ratio. Results on higher IBNP</t>
+  </si>
+  <si>
+    <t>Mannually Removed big movement from July-24 to Aug-24 for Accident month Oct-2022 that increased the tail of the patterns.</t>
+  </si>
+  <si>
+    <t>Incurral</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Liability</t>
+  </si>
+  <si>
+    <t>TY 2020</t>
+  </si>
+  <si>
+    <t>TY 2019</t>
+  </si>
+  <si>
+    <t>TY 2021</t>
+  </si>
+  <si>
+    <t>TY 2022</t>
+  </si>
+  <si>
+    <t>TY 2023</t>
+  </si>
+  <si>
+    <t>Pre-HCCUA 2019</t>
+  </si>
+  <si>
+    <t>HCCUA 2022</t>
+  </si>
+  <si>
+    <t>HCCUA 2023</t>
+  </si>
+  <si>
+    <t>HCCUA 2020</t>
+  </si>
+  <si>
+    <t>HCCUA 2021</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -289,12 +363,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -311,13 +385,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,7 +475,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -339,6 +483,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -367,19 +556,16 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="8">
-          <cell r="B8">
-            <v>199.38</v>
-          </cell>
-        </row>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>16280.523243395292</v>
+            <v>7619.8399568031218</v>
           </cell>
         </row>
       </sheetData>
@@ -389,6 +575,32 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>56798.012568008111</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -406,11 +618,11 @@
       <sheetName val="Plan Code Table"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="35">
           <cell r="H35">
@@ -423,15 +635,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -439,14 +651,16 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>43247.547146154408</v>
+            <v>53940.900161165511</v>
           </cell>
         </row>
       </sheetData>
@@ -455,7 +669,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -474,19 +688,14 @@
       <sheetName val="Completion Factors"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
-        <row r="8">
-          <cell r="B8">
-            <v>2216</v>
-          </cell>
-        </row>
         <row r="35">
           <cell r="H35">
             <v>7.4999999999999997E-2</v>
@@ -498,14 +707,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -513,14 +722,16 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>155186.89757668957</v>
+            <v>121050.45028156454</v>
           </cell>
         </row>
       </sheetData>
@@ -529,7 +740,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -546,11 +757,11 @@
       <sheetName val="PL"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="35">
           <cell r="H35">
@@ -563,14 +774,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -578,14 +789,16 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>152493.84677305765</v>
+            <v>156602.22053567567</v>
           </cell>
         </row>
       </sheetData>
@@ -594,7 +807,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -608,9 +821,9 @@
       <sheetName val="Premium"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="35">
           <cell r="H35">
@@ -623,13 +836,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -637,14 +850,16 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>55247.788907610098</v>
+            <v>43588.86801584877</v>
           </cell>
         </row>
       </sheetData>
@@ -653,7 +868,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -671,18 +886,13 @@
       <sheetName val="PL"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
-        <row r="8">
-          <cell r="B8">
-            <v>12308.86</v>
-          </cell>
-        </row>
         <row r="35">
           <cell r="H35">
             <v>7.4999999999999997E-2</v>
@@ -694,34 +904,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>121606.77149241716</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -751,11 +935,6 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5">
-        <row r="8">
-          <cell r="B8">
-            <v>199.38</v>
-          </cell>
-        </row>
         <row r="35">
           <cell r="H35">
             <v>7.4999999999999997E-2</v>
@@ -782,12 +961,43 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>119547.49906658725</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Summary"/>
       <sheetName val="Sheet2"/>
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="35">
+          <cell r="E35">
+            <v>507000</v>
+          </cell>
+        </row>
         <row r="36">
           <cell r="E36">
             <v>628236.15</v>
@@ -801,7 +1011,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -818,7 +1028,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>21354.588462176107</v>
+            <v>9129.1638785080067</v>
           </cell>
         </row>
       </sheetData>
@@ -827,7 +1037,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -849,7 +1059,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -857,19 +1067,16 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="8">
-          <cell r="C8">
-            <v>1</v>
-          </cell>
-        </row>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>14529.0036</v>
+            <v>13784</v>
           </cell>
         </row>
       </sheetData>
@@ -878,7 +1085,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -896,17 +1103,12 @@
       <sheetName val="Plan Code Table"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
-        <row r="8">
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-        </row>
         <row r="35">
           <cell r="H35">
             <v>7.4999999999999997E-2</v>
@@ -918,37 +1120,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Claims"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Premium"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="35">
-          <cell r="H35">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -962,14 +1136,16 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="33">
-          <cell r="L33">
-            <v>70878.447008958989</v>
+          <cell r="H33">
+            <v>110893.3087176971</v>
           </cell>
         </row>
       </sheetData>
@@ -979,6 +1155,65 @@
 </file>
 
 <file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Claims"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Premium"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="35">
+          <cell r="H35">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="H36">
+            <v>60621.568508703676</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="L33">
+            <v>39594.873868356415</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1023,7 +1258,94 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>8631.7475542030043</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>2852.5798682179311</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>49112.790852981903</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>88425.599779025026</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>33054.387942767222</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>45180.636489733821</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>167297.80469924136</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>163969.81611895896</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>62332.1531384915</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>43650.86019604317</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>7699.4075557553952</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>13668.394487239271</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>75281.134751770049</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>880192.11819421395</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1031,14 +1353,208 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="8">
+          <cell r="A8">
+            <v>44805</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>44835</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>44866</v>
+          </cell>
+          <cell r="H10">
+            <v>27.144330718670972</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>44896</v>
+          </cell>
+          <cell r="H11">
+            <v>88.232248612708645</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>44927</v>
+          </cell>
+          <cell r="H12">
+            <v>92.377428843727103</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>44958</v>
+          </cell>
+          <cell r="H13">
+            <v>107.21873964028782</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>44986</v>
+          </cell>
+          <cell r="H14">
+            <v>196.62058278254699</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>45017</v>
+          </cell>
+          <cell r="H15">
+            <v>122.27101556447451</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>45047</v>
+          </cell>
+          <cell r="H16">
+            <v>159.61588665016461</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>45078</v>
+          </cell>
+          <cell r="H17">
+            <v>211.4543047529296</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>45108</v>
+          </cell>
+          <cell r="H18">
+            <v>342.62754623574438</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>45139</v>
+          </cell>
+          <cell r="H19">
+            <v>915.23139995508245</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>45170</v>
+          </cell>
+          <cell r="H20">
+            <v>1824.5925900268194</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>45200</v>
+          </cell>
+          <cell r="H21">
+            <v>3362.1916688863421</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>45231</v>
+          </cell>
+          <cell r="H22">
+            <v>5100.7230321582756</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>45261</v>
+          </cell>
+          <cell r="H23">
+            <v>10059.103449498245</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>45292</v>
+          </cell>
+          <cell r="H24">
+            <v>11627.668516698672</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>45323</v>
+          </cell>
+          <cell r="H25">
+            <v>14463.44618215441</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>45352</v>
+          </cell>
+          <cell r="H26">
+            <v>24200.177276954928</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>45383</v>
+          </cell>
+          <cell r="H27">
+            <v>36046.401042131969</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>45413</v>
+          </cell>
+          <cell r="H28">
+            <v>74667.982042180345</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>45444</v>
+          </cell>
+          <cell r="H29">
+            <v>111438.52</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>45474</v>
+          </cell>
+          <cell r="H30">
+            <v>161620.5</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>45505</v>
+          </cell>
+          <cell r="H31">
+            <v>185121</v>
+          </cell>
+        </row>
         <row r="33">
           <cell r="H33">
-            <v>777731.18257144734</v>
+            <v>641795.09928444633</v>
           </cell>
         </row>
       </sheetData>
@@ -1047,7 +1563,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1059,14 +1575,9 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
-        <row r="8">
-          <cell r="B8">
-            <v>257512.95000000007</v>
-          </cell>
-        </row>
         <row r="35">
           <cell r="H35">
             <v>7.4999999999999997E-2</v>
@@ -1083,7 +1594,792 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Allocation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="P5">
+            <v>-6.048555699783016E-4</v>
+          </cell>
+          <cell r="Q5">
+            <v>-2.0412307448071485E-4</v>
+          </cell>
+          <cell r="R5">
+            <v>0.93418740727917249</v>
+          </cell>
+          <cell r="S5">
+            <v>2.0690170371176694E-2</v>
+          </cell>
+          <cell r="T5">
+            <v>0</v>
+          </cell>
+          <cell r="U5">
+            <v>6.2915532016515305E-5</v>
+          </cell>
+          <cell r="V5">
+            <v>1.483283792798515E-2</v>
+          </cell>
+          <cell r="W5">
+            <v>0</v>
+          </cell>
+          <cell r="X5">
+            <v>0</v>
+          </cell>
+          <cell r="Y5">
+            <v>3.1035647534108392E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="P6">
+            <v>0</v>
+          </cell>
+          <cell r="Q6">
+            <v>0</v>
+          </cell>
+          <cell r="R6">
+            <v>0.813142841416161</v>
+          </cell>
+          <cell r="S6">
+            <v>0.14318775410419382</v>
+          </cell>
+          <cell r="T6">
+            <v>0</v>
+          </cell>
+          <cell r="U6">
+            <v>6.2359420971839409E-5</v>
+          </cell>
+          <cell r="V6">
+            <v>1.848054780038785E-2</v>
+          </cell>
+          <cell r="W6">
+            <v>0</v>
+          </cell>
+          <cell r="X6">
+            <v>0</v>
+          </cell>
+          <cell r="Y6">
+            <v>2.5126497258285571E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="P7">
+            <v>0</v>
+          </cell>
+          <cell r="Q7">
+            <v>0</v>
+          </cell>
+          <cell r="R7">
+            <v>0.65403663535598233</v>
+          </cell>
+          <cell r="S7">
+            <v>0.30334342481941906</v>
+          </cell>
+          <cell r="T7">
+            <v>0</v>
+          </cell>
+          <cell r="U7">
+            <v>6.1878584915148467E-5</v>
+          </cell>
+          <cell r="V7">
+            <v>2.1663280097291158E-2</v>
+          </cell>
+          <cell r="W7">
+            <v>0</v>
+          </cell>
+          <cell r="X7">
+            <v>0</v>
+          </cell>
+          <cell r="Y7">
+            <v>2.0894781142392342E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="P8">
+            <v>0</v>
+          </cell>
+          <cell r="Q8">
+            <v>0</v>
+          </cell>
+          <cell r="R8">
+            <v>0.5083850309158614</v>
+          </cell>
+          <cell r="S8">
+            <v>0.45196614406678126</v>
+          </cell>
+          <cell r="T8">
+            <v>0</v>
+          </cell>
+          <cell r="U8">
+            <v>6.0224915841959472E-5</v>
+          </cell>
+          <cell r="V8">
+            <v>2.2607818407314333E-2</v>
+          </cell>
+          <cell r="W8">
+            <v>0</v>
+          </cell>
+          <cell r="X8">
+            <v>0</v>
+          </cell>
+          <cell r="Y8">
+            <v>1.6980781694201055E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="P9">
+            <v>-6.046185983817515E-4</v>
+          </cell>
+          <cell r="Q9">
+            <v>-3.0230929919087575E-4</v>
+          </cell>
+          <cell r="R9">
+            <v>0.35802325920062283</v>
+          </cell>
+          <cell r="S9">
+            <v>0.60631354390718606</v>
+          </cell>
+          <cell r="T9">
+            <v>0</v>
+          </cell>
+          <cell r="U9">
+            <v>5.9151171998214713E-5</v>
+          </cell>
+          <cell r="V9">
+            <v>2.3014718068661948E-2</v>
+          </cell>
+          <cell r="W9">
+            <v>0</v>
+          </cell>
+          <cell r="X9">
+            <v>0</v>
+          </cell>
+          <cell r="Y9">
+            <v>1.3496255549103517E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="P10">
+            <v>0</v>
+          </cell>
+          <cell r="Q10">
+            <v>0</v>
+          </cell>
+          <cell r="R10">
+            <v>0.28269546513094335</v>
+          </cell>
+          <cell r="S10">
+            <v>0.68154708697031741</v>
+          </cell>
+          <cell r="T10">
+            <v>0</v>
+          </cell>
+          <cell r="U10">
+            <v>6.0078264700074186E-5</v>
+          </cell>
+          <cell r="V10">
+            <v>2.6671872315138706E-2</v>
+          </cell>
+          <cell r="W10">
+            <v>0</v>
+          </cell>
+          <cell r="X10">
+            <v>0</v>
+          </cell>
+          <cell r="Y10">
+            <v>9.0254973189004949E-3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="P11">
+            <v>0</v>
+          </cell>
+          <cell r="Q11">
+            <v>0</v>
+          </cell>
+          <cell r="R11">
+            <v>0.22630157016140917</v>
+          </cell>
+          <cell r="S11">
+            <v>0.74011236618797738</v>
+          </cell>
+          <cell r="T11">
+            <v>0</v>
+          </cell>
+          <cell r="U11">
+            <v>5.8628195851531839E-5</v>
+          </cell>
+          <cell r="V11">
+            <v>2.8439206652282358E-2</v>
+          </cell>
+          <cell r="W11">
+            <v>0</v>
+          </cell>
+          <cell r="X11">
+            <v>0</v>
+          </cell>
+          <cell r="Y11">
+            <v>5.0882288024795596E-3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="P12">
+            <v>-3.0198826632140913E-5</v>
+          </cell>
+          <cell r="Q12">
+            <v>0</v>
+          </cell>
+          <cell r="R12">
+            <v>0.18239153822238025</v>
+          </cell>
+          <cell r="S12">
+            <v>0.78563957417075536</v>
+          </cell>
+          <cell r="T12">
+            <v>0</v>
+          </cell>
+          <cell r="U12">
+            <v>6.0810137237320177E-5</v>
+          </cell>
+          <cell r="V12">
+            <v>2.9406182930113798E-2</v>
+          </cell>
+          <cell r="W12">
+            <v>0</v>
+          </cell>
+          <cell r="X12">
+            <v>0</v>
+          </cell>
+          <cell r="Y12">
+            <v>2.5320933661452816E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="P13">
+            <v>0</v>
+          </cell>
+          <cell r="Q13">
+            <v>0</v>
+          </cell>
+          <cell r="R13">
+            <v>0.13666504441442962</v>
+          </cell>
+          <cell r="S13">
+            <v>0.83214103936268446</v>
+          </cell>
+          <cell r="T13">
+            <v>0</v>
+          </cell>
+          <cell r="U13">
+            <v>6.0113803736433784E-5</v>
+          </cell>
+          <cell r="V13">
+            <v>3.0584215212039651E-2</v>
+          </cell>
+          <cell r="W13">
+            <v>0</v>
+          </cell>
+          <cell r="X13">
+            <v>0</v>
+          </cell>
+          <cell r="Y13">
+            <v>5.4958720710978454E-4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="P14">
+            <v>-4.6603844171567949E-4</v>
+          </cell>
+          <cell r="Q14">
+            <v>-3.8836536809639961E-4</v>
+          </cell>
+          <cell r="R14">
+            <v>0.1036107444884834</v>
+          </cell>
+          <cell r="S14">
+            <v>0.86604629879192185</v>
+          </cell>
+          <cell r="T14">
+            <v>0</v>
+          </cell>
+          <cell r="U14">
+            <v>6.0791425861936421E-5</v>
+          </cell>
+          <cell r="V14">
+            <v>2.9793538557543027E-2</v>
+          </cell>
+          <cell r="W14">
+            <v>1.3430305460018315E-3</v>
+          </cell>
+          <cell r="X14">
+            <v>0</v>
+          </cell>
+          <cell r="Y14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="P15">
+            <v>0</v>
+          </cell>
+          <cell r="Q15">
+            <v>0</v>
+          </cell>
+          <cell r="R15">
+            <v>6.8547616547481233E-2</v>
+          </cell>
+          <cell r="S15">
+            <v>0.90151872965887636</v>
+          </cell>
+          <cell r="T15">
+            <v>0</v>
+          </cell>
+          <cell r="U15">
+            <v>0</v>
+          </cell>
+          <cell r="V15">
+            <v>2.7079924995399365E-2</v>
+          </cell>
+          <cell r="W15">
+            <v>2.8537287982430223E-3</v>
+          </cell>
+          <cell r="X15">
+            <v>0</v>
+          </cell>
+          <cell r="Y15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="P16">
+            <v>0</v>
+          </cell>
+          <cell r="Q16">
+            <v>0</v>
+          </cell>
+          <cell r="R16">
+            <v>3.3533569659606813E-2</v>
+          </cell>
+          <cell r="S16">
+            <v>0.93741469812708411</v>
+          </cell>
+          <cell r="T16">
+            <v>1.3596095883780166E-4</v>
+          </cell>
+          <cell r="U16">
+            <v>6.1109577304684499E-5</v>
+          </cell>
+          <cell r="V16">
+            <v>2.2974060423680904E-2</v>
+          </cell>
+          <cell r="W16">
+            <v>5.8806012534858816E-3</v>
+          </cell>
+          <cell r="X16">
+            <v>0</v>
+          </cell>
+          <cell r="Y16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="P17">
+            <v>0</v>
+          </cell>
+          <cell r="Q17">
+            <v>0</v>
+          </cell>
+          <cell r="R17">
+            <v>-1.3492807307259162E-3</v>
+          </cell>
+          <cell r="S17">
+            <v>0.95428403112286442</v>
+          </cell>
+          <cell r="T17">
+            <v>1.9065519212912631E-2</v>
+          </cell>
+          <cell r="U17">
+            <v>6.1695825587014508E-5</v>
+          </cell>
+          <cell r="V17">
+            <v>1.9361527667875966E-2</v>
+          </cell>
+          <cell r="W17">
+            <v>8.5765069014859079E-3</v>
+          </cell>
+          <cell r="X17">
+            <v>0</v>
+          </cell>
+          <cell r="Y17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="P18">
+            <v>0</v>
+          </cell>
+          <cell r="Q18">
+            <v>0</v>
+          </cell>
+          <cell r="R18">
+            <v>-7.6778724766180483E-4</v>
+          </cell>
+          <cell r="S18">
+            <v>0.78682092788677149</v>
+          </cell>
+          <cell r="T18">
+            <v>0.18819745287983075</v>
+          </cell>
+          <cell r="U18">
+            <v>5.9074568399093469E-5</v>
+          </cell>
+          <cell r="V18">
+            <v>1.5740318936381982E-2</v>
+          </cell>
+          <cell r="W18">
+            <v>9.9500129762784099E-3</v>
+          </cell>
+          <cell r="X18">
+            <v>0</v>
+          </cell>
+          <cell r="Y18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="P19">
+            <v>0</v>
+          </cell>
+          <cell r="Q19">
+            <v>0</v>
+          </cell>
+          <cell r="R19">
+            <v>-7.0833015526297849E-5</v>
+          </cell>
+          <cell r="S19">
+            <v>0.61184831793213501</v>
+          </cell>
+          <cell r="T19">
+            <v>0.36517842643746079</v>
+          </cell>
+          <cell r="U19">
+            <v>5.5438002016640781E-5</v>
+          </cell>
+          <cell r="V19">
+            <v>1.2152443404271029E-2</v>
+          </cell>
+          <cell r="W19">
+            <v>1.0836207239642754E-2</v>
+          </cell>
+          <cell r="X19">
+            <v>0</v>
+          </cell>
+          <cell r="Y19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="P20">
+            <v>0</v>
+          </cell>
+          <cell r="Q20">
+            <v>0</v>
+          </cell>
+          <cell r="R20">
+            <v>-1.6756445682918427E-4</v>
+          </cell>
+          <cell r="S20">
+            <v>0.46550671556396689</v>
+          </cell>
+          <cell r="T20">
+            <v>0.51272962972815073</v>
+          </cell>
+          <cell r="U20">
+            <v>5.3674024392545534E-5</v>
+          </cell>
+          <cell r="V20">
+            <v>1.003892948193877E-2</v>
+          </cell>
+          <cell r="W20">
+            <v>1.1838615658380219E-2</v>
+          </cell>
+          <cell r="X20">
+            <v>0</v>
+          </cell>
+          <cell r="Y20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="P21">
+            <v>0</v>
+          </cell>
+          <cell r="Q21">
+            <v>0</v>
+          </cell>
+          <cell r="R21">
+            <v>0</v>
+          </cell>
+          <cell r="S21">
+            <v>0.31035870687022543</v>
+          </cell>
+          <cell r="T21">
+            <v>0.66940859788427531</v>
+          </cell>
+          <cell r="U21">
+            <v>5.123312650984576E-5</v>
+          </cell>
+          <cell r="V21">
+            <v>7.7282831360511268E-3</v>
+          </cell>
+          <cell r="W21">
+            <v>1.2453178982938202E-2</v>
+          </cell>
+          <cell r="X21">
+            <v>0</v>
+          </cell>
+          <cell r="Y21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="P22">
+            <v>0</v>
+          </cell>
+          <cell r="Q22">
+            <v>0</v>
+          </cell>
+          <cell r="R22">
+            <v>-4.32075991002226E-4</v>
+          </cell>
+          <cell r="S22">
+            <v>0.24311049773062993</v>
+          </cell>
+          <cell r="T22">
+            <v>0.73715647524345573</v>
+          </cell>
+          <cell r="U22">
+            <v>5.3275793193071507E-5</v>
+          </cell>
+          <cell r="V22">
+            <v>5.5092977387356454E-3</v>
+          </cell>
+          <cell r="W22">
+            <v>1.4602529484987836E-2</v>
+          </cell>
+          <cell r="X22">
+            <v>0</v>
+          </cell>
+          <cell r="Y22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="P23">
+            <v>0</v>
+          </cell>
+          <cell r="Q23">
+            <v>0</v>
+          </cell>
+          <cell r="R23">
+            <v>0</v>
+          </cell>
+          <cell r="S23">
+            <v>0.19362542046004541</v>
+          </cell>
+          <cell r="T23">
+            <v>0.78793241435654604</v>
+          </cell>
+          <cell r="U23">
+            <v>5.1944673309697292E-5</v>
+          </cell>
+          <cell r="V23">
+            <v>3.1522038284773281E-3</v>
+          </cell>
+          <cell r="W23">
+            <v>1.5238016681621509E-2</v>
+          </cell>
+          <cell r="X23">
+            <v>0</v>
+          </cell>
+          <cell r="Y23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="P24">
+            <v>0</v>
+          </cell>
+          <cell r="Q24">
+            <v>0</v>
+          </cell>
+          <cell r="R24">
+            <v>-9.1742064811208799E-5</v>
+          </cell>
+          <cell r="S24">
+            <v>0.14624780635233983</v>
+          </cell>
+          <cell r="T24">
+            <v>0.83521649044077151</v>
+          </cell>
+          <cell r="U24">
+            <v>5.318459786779442E-5</v>
+          </cell>
+          <cell r="V24">
+            <v>1.5475464069276289E-3</v>
+          </cell>
+          <cell r="W24">
+            <v>1.7026714266904351E-2</v>
+          </cell>
+          <cell r="X24">
+            <v>0</v>
+          </cell>
+          <cell r="Y24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="P25">
+            <v>0</v>
+          </cell>
+          <cell r="Q25">
+            <v>0</v>
+          </cell>
+          <cell r="R25">
+            <v>0</v>
+          </cell>
+          <cell r="S25">
+            <v>0.12355505391246421</v>
+          </cell>
+          <cell r="T25">
+            <v>0.85578835684295074</v>
+          </cell>
+          <cell r="U25">
+            <v>6.018375775501553E-5</v>
+          </cell>
+          <cell r="V25">
+            <v>4.1580605666219567E-4</v>
+          </cell>
+          <cell r="W25">
+            <v>2.0180599430167864E-2</v>
+          </cell>
+          <cell r="X25">
+            <v>0</v>
+          </cell>
+          <cell r="Y25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="P26">
+            <v>0</v>
+          </cell>
+          <cell r="Q26">
+            <v>0</v>
+          </cell>
+          <cell r="R26">
+            <v>0</v>
+          </cell>
+          <cell r="S26">
+            <v>0.10275020898796096</v>
+          </cell>
+          <cell r="T26">
+            <v>0.89724979101203906</v>
+          </cell>
+          <cell r="U26">
+            <v>0</v>
+          </cell>
+          <cell r="V26">
+            <v>0</v>
+          </cell>
+          <cell r="W26">
+            <v>0</v>
+          </cell>
+          <cell r="X26">
+            <v>0</v>
+          </cell>
+          <cell r="Y26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="P27">
+            <v>0</v>
+          </cell>
+          <cell r="Q27">
+            <v>0</v>
+          </cell>
+          <cell r="R27">
+            <v>0</v>
+          </cell>
+          <cell r="S27">
+            <v>7.1474053311938054E-2</v>
+          </cell>
+          <cell r="T27">
+            <v>0.92852594668806199</v>
+          </cell>
+          <cell r="U27">
+            <v>0</v>
+          </cell>
+          <cell r="V27">
+            <v>0</v>
+          </cell>
+          <cell r="W27">
+            <v>0</v>
+          </cell>
+          <cell r="X27">
+            <v>0</v>
+          </cell>
+          <cell r="Y27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="P28">
+            <v>0</v>
+          </cell>
+          <cell r="Q28">
+            <v>0</v>
+          </cell>
+          <cell r="R28">
+            <v>0</v>
+          </cell>
+          <cell r="S28">
+            <v>3.5720906052447571E-2</v>
+          </cell>
+          <cell r="T28">
+            <v>0.9642790939475524</v>
+          </cell>
+          <cell r="U28">
+            <v>0</v>
+          </cell>
+          <cell r="V28">
+            <v>0</v>
+          </cell>
+          <cell r="W28">
+            <v>0</v>
+          </cell>
+          <cell r="X28">
+            <v>0</v>
+          </cell>
+          <cell r="Y28">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1091,14 +2387,16 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>2653.8758064770482</v>
+            <v>3390.3031220563489</v>
           </cell>
         </row>
       </sheetData>
@@ -1107,7 +2405,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1132,11 +2430,6 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6">
-        <row r="8">
-          <cell r="B8">
-            <v>1578.9799999999998</v>
-          </cell>
-        </row>
         <row r="35">
           <cell r="H35">
             <v>7.4999999999999997E-2</v>
@@ -1155,7 +2448,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1163,14 +2456,16 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>48014.345219634932</v>
+            <v>47305.874897223257</v>
           </cell>
         </row>
       </sheetData>
@@ -1179,7 +2474,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1201,11 +2496,6 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4">
-        <row r="8">
-          <cell r="B8">
-            <v>14968.550000000003</v>
-          </cell>
-        </row>
         <row r="35">
           <cell r="H35">
             <v>7.4999999999999997E-2</v>
@@ -1225,7 +2515,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1233,14 +2523,16 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>97009.320007436327</v>
+            <v>106873.12785662692</v>
           </cell>
         </row>
       </sheetData>
@@ -1249,7 +2541,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1276,11 +2568,6 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7">
-        <row r="8">
-          <cell r="B8">
-            <v>5502.54</v>
-          </cell>
-        </row>
         <row r="35">
           <cell r="H35">
             <v>7.4999999999999997E-2</v>
@@ -1299,28 +2586,10 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="33">
-          <cell r="H33">
-            <v>30583.158316472116</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Julia Oranias" id="{FC6D6499-D49C-4EF0-B72D-3446266526EE}" userId="S::joranias@actrisk.com::f83fb233-9eca-431f-9d3a-a35e583d3cea" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1638,12 +2907,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G11" dT="2024-10-08T17:48:23.40" personId="{FC6D6499-D49C-4EF0-B72D-3446266526EE}" id="{1B03B1B4-47AE-484A-985F-89FB3AF1A870}">
+    <text>Unified has not booked the 507k reserve for LL according to Kevin’s email</text>
+  </threadedComment>
+  <threadedComment ref="J11" dT="2024-10-08T17:48:23.40" personId="{FC6D6499-D49C-4EF0-B72D-3446266526EE}" id="{4EA062A0-BE3E-4ACB-98F3-2F60190870C5}">
+    <text>Unified has not booked the 507k reserve for LL according to Kevin’s email</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C38D66-6A3A-466E-8973-92ABD33CCFF7}">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C38D66-6A3A-466E-8973-92ABD33CCFF7}">
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -1653,15 +2933,17 @@
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.25" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="18.25" customWidth="1"/>
-    <col min="10" max="10" width="34" customWidth="1"/>
-    <col min="11" max="11" width="3.875" customWidth="1"/>
-    <col min="12" max="12" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.25" customWidth="1"/>
+    <col min="13" max="13" width="34" customWidth="1"/>
+    <col min="14" max="14" width="3.875" customWidth="1"/>
+    <col min="15" max="15" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,677 +2960,2313 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="10">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
         <f>+[1]Summary!$H$33</f>
-        <v>16280.523243395292</v>
+        <v>7619.8399568031218</v>
       </c>
       <c r="C2" s="4">
         <f>+[2]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <f>+B2*C2</f>
-        <v>1221.0392432546469</v>
-      </c>
-      <c r="E2" s="9">
+        <v>571.48799676023407</v>
+      </c>
+      <c r="E2" s="8">
         <f>+B2+D2</f>
-        <v>17501.562486649938</v>
-      </c>
-      <c r="G2" s="10">
+        <v>8191.3279535633555</v>
+      </c>
+      <c r="G2" s="9">
+        <f>+[3]Summary!E2</f>
+        <v>8631.7475542030043</v>
+      </c>
+      <c r="H2" s="9">
+        <f>+E2-G2</f>
+        <v>-440.41960063964871</v>
+      </c>
+      <c r="I2" s="10">
+        <f>+H2/G2</f>
+        <v>-5.1023225351996986E-2</v>
+      </c>
+      <c r="J2" s="9">
         <f>+[2]Summary!$H$36</f>
         <v>10194.181693825194</v>
       </c>
-      <c r="H2" s="10">
-        <f>+E2-G2</f>
-        <v>7307.3807928247443</v>
-      </c>
-      <c r="I2" s="11">
-        <f>+H2/G2</f>
-        <v>0.71681877097118651</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="9">
+        <f>+E2-J2</f>
+        <v>-2002.8537402618385</v>
+      </c>
+      <c r="L2" s="10">
+        <f>+K2/J2</f>
+        <v>-0.19647028083431203</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9">
+        <f>+[4]Summary!$H$33</f>
+        <v>3390.3031220563489</v>
+      </c>
+      <c r="C3" s="3">
+        <f>+[5]Summary!$H$35</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D16" si="0">+B3*C3</f>
+        <v>254.27273415422616</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E16" si="1">+B3+D3</f>
+        <v>3644.5758562105752</v>
+      </c>
+      <c r="G3" s="9">
+        <f>+[3]Summary!E3</f>
+        <v>2852.5798682179311</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H16" si="2">+E3-G3</f>
+        <v>791.99598799264413</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I16" si="3">+H3/G3</f>
+        <v>0.27764200288191099</v>
+      </c>
+      <c r="J3" s="9">
+        <f>+[5]Summary!$H$36</f>
+        <v>2852.8990141421973</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" ref="K3:K16" si="4">+E3-J3</f>
+        <v>791.67684206837794</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" ref="L3:L16" si="5">+K3/J3</f>
+        <v>0.2774990766038094</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9">
+        <f>+[6]Summary!$H$33</f>
+        <v>47305.874897223257</v>
+      </c>
+      <c r="C4" s="3">
+        <f>+[7]Summary!$H$35</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>3547.9406172917443</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>50853.815514515001</v>
+      </c>
+      <c r="G4" s="9">
+        <f>+[3]Summary!E4</f>
+        <v>49112.790852981903</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="2"/>
+        <v>1741.024661533098</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="3"/>
+        <v>3.5449515926407403E-2</v>
+      </c>
+      <c r="J4" s="9">
+        <f>+[7]Summary!$H$36</f>
+        <v>46527.596958871203</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" si="4"/>
+        <v>4326.218555643798</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" si="5"/>
+        <v>9.2981775084323107E-2</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="46" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9">
+        <f>+[8]Summary!$H$33</f>
+        <v>106873.12785662692</v>
+      </c>
+      <c r="C5" s="3">
+        <f>+[9]Summary!$H$35</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>8015.4845892470184</v>
+      </c>
+      <c r="E5" s="8">
+        <f>+B5+D5</f>
+        <v>114888.61244587394</v>
+      </c>
+      <c r="G5" s="9">
+        <f>+[3]Summary!E5</f>
+        <v>88425.599779025026</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="2"/>
+        <v>26463.01266684891</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="3"/>
+        <v>0.29926868161459802</v>
+      </c>
+      <c r="J5" s="9">
+        <f>+[9]Summary!$H$36</f>
+        <v>88593.393911147272</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="4"/>
+        <v>26295.218534726664</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="5"/>
+        <v>0.2968078924834831</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="10">
-        <v>10000</v>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10">
-        <f>+[3]Summary!$H$33</f>
-        <v>2653.8758064770482</v>
-      </c>
-      <c r="C3" s="3">
-        <f>+[4]Summary!$H$35</f>
+    <row r="6" spans="1:16" ht="46" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9">
+        <f>+[10]Summary!$H$33</f>
+        <v>56798.012568008111</v>
+      </c>
+      <c r="C6" s="3">
+        <f>+[11]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D3" s="9">
-        <f t="shared" ref="D3:D16" si="0">+B3*C3</f>
-        <v>199.0406854857786</v>
-      </c>
-      <c r="E3" s="9">
-        <f t="shared" ref="E3:E16" si="1">+B3+D3</f>
-        <v>2852.916491962827</v>
-      </c>
-      <c r="G3" s="10">
-        <f>+[4]Summary!$H$36</f>
-        <v>2852.8990141421973</v>
-      </c>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H16" si="2">+E3-G3</f>
-        <v>1.7477820629665075E-2</v>
-      </c>
-      <c r="I3" s="11">
-        <f t="shared" ref="I3:I16" si="3">+H3/G3</f>
-        <v>6.1263369446395432E-6</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="10">
-        <v>10000</v>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>4259.8509426006085</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>61057.863510608717</v>
+      </c>
+      <c r="G6" s="9">
+        <f>+[3]Summary!E6</f>
+        <v>33054.387942767222</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="2"/>
+        <v>28003.475567841495</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="3"/>
+        <v>0.84719389196764905</v>
+      </c>
+      <c r="J6" s="9">
+        <f>+[11]Summary!$H$36</f>
+        <v>32709.246771985087</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="4"/>
+        <v>28348.61673862363</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="5"/>
+        <v>0.86668509783306102</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10">
-        <f>+[5]Summary!$H$33</f>
-        <v>48014.345219634932</v>
-      </c>
-      <c r="C4" s="3">
-        <f>+[6]Summary!$H$35</f>
+    <row r="7" spans="1:16" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9">
+        <f>+[12]Summary!$H$33</f>
+        <v>53940.900161165511</v>
+      </c>
+      <c r="C7" s="3">
+        <f>+[13]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>3601.0758914726198</v>
-      </c>
-      <c r="E4" s="9">
+        <v>4045.567512087413</v>
+      </c>
+      <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>51615.421111107549</v>
-      </c>
-      <c r="G4" s="10">
-        <f>+[6]Summary!$H$36</f>
-        <v>46527.596958871203</v>
-      </c>
-      <c r="H4" s="10">
+        <v>57986.467673252926</v>
+      </c>
+      <c r="G7" s="9">
+        <f>+[3]Summary!E7</f>
+        <v>45180.636489733821</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" si="2"/>
-        <v>5087.824152236346</v>
-      </c>
-      <c r="I4" s="11">
+        <v>12805.831183519105</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="3"/>
-        <v>0.10935067540096274</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="10">
-        <v>10000</v>
+        <v>0.28343627222757062</v>
+      </c>
+      <c r="J7" s="9">
+        <f>+[13]Summary!$H$36</f>
+        <v>43941.36</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="4"/>
+        <v>14045.107673252925</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="5"/>
+        <v>0.31963297615851954</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="10">
-        <f>+[7]Summary!$H$33</f>
-        <v>97009.320007436327</v>
-      </c>
-      <c r="C5" s="3">
-        <f>+[8]Summary!$H$35</f>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
+        <f>+[14]Summary!$H$33</f>
+        <v>121050.45028156454</v>
+      </c>
+      <c r="C8" s="3">
+        <f>+[15]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>7275.6990005577245</v>
-      </c>
-      <c r="E5" s="9">
+        <v>9078.7837711173397</v>
+      </c>
+      <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>104285.01900799405</v>
-      </c>
-      <c r="G5" s="10">
-        <f>+[8]Summary!$H$36</f>
-        <v>88593.393911147272</v>
-      </c>
-      <c r="H5" s="10">
+        <v>130129.23405268187</v>
+      </c>
+      <c r="G8" s="9">
+        <f>+[3]Summary!E8</f>
+        <v>167297.80469924136</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" si="2"/>
-        <v>15691.625096846779</v>
-      </c>
-      <c r="I5" s="11">
+        <v>-37168.570646559485</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="3"/>
-        <v>0.17711958425008908</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="10">
-        <v>10000</v>
+        <v>-0.22217010386585206</v>
+      </c>
+      <c r="J8" s="9">
+        <f>+[15]Summary!$H$36</f>
+        <v>158653.1571364796</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="4"/>
+        <v>-28523.923083797723</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.17978793235901597</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10">
-        <f>+[9]Summary!$H$33</f>
-        <v>30583.158316472116</v>
-      </c>
-      <c r="C6" s="3">
-        <f>+[10]Summary!$H$35</f>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9">
+        <f>+[16]Summary!$H$33</f>
+        <v>156602.22053567567</v>
+      </c>
+      <c r="C9" s="3">
+        <f>+[17]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
-        <v>2293.7368737354086</v>
-      </c>
-      <c r="E6" s="9">
+        <v>11745.166540175675</v>
+      </c>
+      <c r="E9" s="20">
         <f t="shared" si="1"/>
-        <v>32876.895190207528</v>
-      </c>
-      <c r="G6" s="10">
-        <f>+[10]Summary!$H$36</f>
-        <v>32709.246771985087</v>
-      </c>
-      <c r="H6" s="10">
+        <v>168347.38707585135</v>
+      </c>
+      <c r="G9" s="9">
+        <f>+[3]Summary!E9</f>
+        <v>163969.81611895896</v>
+      </c>
+      <c r="H9" s="9">
         <f t="shared" si="2"/>
-        <v>167.64841822244125</v>
-      </c>
-      <c r="I6" s="11">
+        <v>4377.5709568923921</v>
+      </c>
+      <c r="I9" s="21">
         <f t="shared" si="3"/>
-        <v>5.1254135991303006E-3</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>32</v>
+        <v>2.6697419442835105E-2</v>
+      </c>
+      <c r="J9" s="9">
+        <f>+[17]Summary!$H$36</f>
+        <v>167515.8389747378</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="4"/>
+        <v>831.54810111355619</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="5"/>
+        <v>4.9639968745818575E-3</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10">
-        <f>+[11]Summary!$H$33</f>
-        <v>43247.547146154408</v>
-      </c>
-      <c r="C7" s="3">
-        <f>+[12]Summary!$H$35</f>
+    <row r="10" spans="1:16" ht="46" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <f>+[18]Summary!$H$33</f>
+        <v>43588.86801584877</v>
+      </c>
+      <c r="C10" s="3">
+        <f>+[19]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
-        <v>3243.5660359615804</v>
-      </c>
-      <c r="E7" s="9">
+        <v>3269.1651011886574</v>
+      </c>
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>46491.113182115987</v>
-      </c>
-      <c r="G7" s="10">
-        <f>+[12]Summary!$H$36</f>
-        <v>43941.36</v>
-      </c>
-      <c r="H7" s="10">
+        <v>46858.033117037427</v>
+      </c>
+      <c r="G10" s="9">
+        <f>+[3]Summary!E10</f>
+        <v>62332.1531384915</v>
+      </c>
+      <c r="H10" s="9">
         <f t="shared" si="2"/>
-        <v>2549.7531821159864</v>
-      </c>
-      <c r="I7" s="11">
+        <v>-15474.120021454073</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="3"/>
-        <v>5.8026269148610476E-2</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="10">
-        <v>10000</v>
+        <v>-0.24825261510015861</v>
+      </c>
+      <c r="J10" s="9">
+        <f>+[19]Summary!$H$36</f>
+        <v>61403.00276625227</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="4"/>
+        <v>-14544.969649214843</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.23687717202665715</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10">
-        <f>+[13]Summary!$H$33</f>
-        <v>155186.89757668957</v>
-      </c>
-      <c r="C8" s="3">
-        <f>+[14]Summary!$H$35</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>11639.017318251717</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="1"/>
-        <v>166825.91489494129</v>
-      </c>
-      <c r="G8" s="10">
-        <f>+[14]Summary!$H$36</f>
-        <v>158653.1571364796</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="2"/>
-        <v>8172.7577584616956</v>
-      </c>
-      <c r="I8" s="11">
-        <f t="shared" si="3"/>
-        <v>5.1513363528159557E-2</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="57.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="10">
-        <f>+[15]Summary!$H$33</f>
-        <v>152493.84677305765</v>
-      </c>
-      <c r="C9" s="3">
-        <f>+[16]Summary!$H$35</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>11437.038507979323</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="1"/>
-        <v>163930.88528103699</v>
-      </c>
-      <c r="G9" s="10">
-        <f>+[16]Summary!$H$36</f>
-        <v>167515.8389747378</v>
-      </c>
-      <c r="H9" s="10">
-        <f t="shared" si="2"/>
-        <v>-3584.9536937008088</v>
-      </c>
-      <c r="I9" s="11">
-        <f t="shared" si="3"/>
-        <v>-2.1400684948015197E-2</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10">
-        <f>+[17]Summary!$H$33</f>
-        <v>55247.788907610098</v>
-      </c>
-      <c r="C10" s="3">
-        <f>+[18]Summary!$H$35</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>4143.5841680707572</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="1"/>
-        <v>59391.373075680858</v>
-      </c>
-      <c r="G10" s="10">
-        <f>+[18]Summary!$H$36</f>
-        <v>61403.00276625227</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="2"/>
-        <v>-2011.6296905714116</v>
-      </c>
-      <c r="I10" s="11">
-        <f t="shared" si="3"/>
-        <v>-3.2761096362489688E-2</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="10">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="10">
-        <f>+[19]Summary!$H$33</f>
-        <v>121606.77149241716</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="9">
+        <f>+[20]Summary!$H$33</f>
+        <v>119547.49906658725</v>
       </c>
       <c r="C11" s="5">
         <v>0.05</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>6080.3385746208587</v>
-      </c>
-      <c r="E11" s="9">
+        <v>5977.3749533293631</v>
+      </c>
+      <c r="E11" s="8">
         <f t="shared" si="1"/>
-        <v>127687.11006703801</v>
-      </c>
-      <c r="G11" s="10">
-        <f>+[20]Summary!$E$36</f>
-        <v>628236.15</v>
-      </c>
-      <c r="H11" s="10">
-        <f t="shared" ref="H11" si="4">+E11-G11</f>
-        <v>-500549.03993296204</v>
-      </c>
-      <c r="I11" s="11">
-        <f t="shared" ref="I11" si="5">+H11/G11</f>
-        <v>-0.79675300431686724</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
+        <v>125524.87401991661</v>
+      </c>
+      <c r="G11" s="13">
+        <f>+[3]Summary!E11</f>
+        <v>43650.86019604317</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="2"/>
+        <v>81874.013823873436</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="3"/>
+        <v>1.8756563663617123</v>
+      </c>
+      <c r="J11" s="13">
+        <f>+[21]Summary!$E$36-[21]Summary!$E$35</f>
+        <v>121236.15000000002</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" ref="K11" si="6">+E11-J11</f>
+        <v>4288.7240199165826</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" ref="L11" si="7">+K11/J11</f>
+        <v>3.53749605205756E-2</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="10">
-        <f>+[21]Summary!$H$33</f>
-        <v>21354.588462176107</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="9">
+        <f>+[22]Summary!$H$33</f>
+        <v>9129.1638785080067</v>
       </c>
       <c r="C12" s="5">
         <v>0.05</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>1067.7294231088053</v>
-      </c>
-      <c r="E12" s="9">
+        <v>456.45819392540034</v>
+      </c>
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
-        <v>22422.317885284912</v>
-      </c>
-      <c r="G12" s="10">
-        <f>+[22]Summary!$E$36</f>
+        <v>9585.6220724334071</v>
+      </c>
+      <c r="G12" s="9">
+        <f>+[3]Summary!E12</f>
+        <v>7699.4075557553952</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="2"/>
+        <v>1886.2145166780119</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>0.24498177334021565</v>
+      </c>
+      <c r="J12" s="9">
+        <f>+[23]Summary!$E$36</f>
         <v>21308.7</v>
       </c>
-      <c r="H12" s="10">
-        <f t="shared" ref="H12" si="6">+E12-G12</f>
-        <v>1113.6178852849116</v>
-      </c>
-      <c r="I12" s="11">
-        <f t="shared" ref="I12" si="7">+H12/G12</f>
-        <v>5.2261183708293399E-2</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" t="s">
-        <v>29</v>
+      <c r="K12" s="9">
+        <f t="shared" ref="K12" si="8">+E12-J12</f>
+        <v>-11723.077927566594</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" ref="L12" si="9">+K12/J12</f>
+        <v>-0.55015453441864559</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="10">
-        <f>+[23]Summary!$H$33</f>
-        <v>14529.0036</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="9">
+        <f>+[24]Summary!$H$33</f>
+        <v>13784</v>
       </c>
       <c r="C13" s="3">
-        <f>+[24]Summary!$H$35</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
-        <v>1089.67527</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="1"/>
-        <v>15618.67887</v>
-      </c>
-      <c r="G13" s="10">
-        <f>+[24]Summary!$H$36</f>
-        <v>22925.112714356808</v>
-      </c>
-      <c r="H13" s="10">
-        <f t="shared" si="2"/>
-        <v>-7306.4338443568085</v>
-      </c>
-      <c r="I13" s="11">
-        <f t="shared" si="3"/>
-        <v>-0.31870874247790149</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="3">
         <f>+[25]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
+        <v>1033.8</v>
+      </c>
+      <c r="E13" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10">
+        <v>14817.8</v>
+      </c>
+      <c r="G13" s="9">
+        <f>+[3]Summary!E13</f>
+        <v>13668.394487239271</v>
+      </c>
+      <c r="H13" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12" t="s">
+        <v>1149.405512760728</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="3"/>
+        <v>8.4092210964045996E-2</v>
+      </c>
+      <c r="J13" s="9">
+        <f>+[25]Summary!$H$36</f>
+        <v>22925.112714356808</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="4"/>
+        <v>-8107.312714356809</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.3536433087755167</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" t="s">
         <v>29</v>
       </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="10">
-        <v>10000</v>
+      <c r="P13" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="57.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="9">
+        <f>+[26]Summary!$H$33</f>
+        <v>110893.3087176971</v>
+      </c>
+      <c r="C14" s="3">
+        <f>+[27]Summary!$H$35</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>8316.9981538272823</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>119210.30687152439</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="9">
+        <f>+[27]Summary!$H$36</f>
+        <v>60621.568508703676</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="4"/>
+        <v>58588.73836282071</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="5"/>
+        <v>0.96646688306009265</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
+        <f>+[28]Summary!$L$33</f>
+        <v>39594.873868356415</v>
+      </c>
+      <c r="C15" s="3">
+        <f>+[29]Summary!$L$35</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>2969.615540126731</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>42564.489408483147</v>
+      </c>
+      <c r="G15" s="9">
+        <f>+[3]Summary!E15</f>
+        <v>75281.134751770049</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="2"/>
+        <v>-32716.645343286902</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="3"/>
+        <v>-0.43459288241557292</v>
+      </c>
+      <c r="J15" s="9">
+        <f>+[29]Summary!$L$36</f>
+        <v>70721.566596096614</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="4"/>
+        <v>-28157.077187613468</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.3981398962557422</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="15">
+        <f>+[30]Summary!$H$33</f>
+        <v>641795.09928444633</v>
+      </c>
+      <c r="C16" s="16">
+        <f>+[31]Summary!$H$35</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="0"/>
+        <v>48134.632446333475</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="1"/>
+        <v>689929.73173077987</v>
+      </c>
+      <c r="G16" s="15">
+        <f>+[3]Summary!E16</f>
+        <v>880192.11819421395</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="2"/>
+        <v>-190262.38646343409</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" si="3"/>
+        <v>-0.21616006611576222</v>
+      </c>
+      <c r="J16" s="15">
+        <f>+[31]Summary!$H$36</f>
+        <v>777303.67606529</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="4"/>
+        <v>-87373.944334510132</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.11240644683014611</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="10">
-        <f>+[26]Summary!$L$33</f>
-        <v>70878.447008958989</v>
-      </c>
-      <c r="C15" s="3">
-        <f>+[27]Summary!$L$35</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D15" s="9">
-        <f t="shared" si="0"/>
-        <v>5315.883525671924</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="1"/>
-        <v>76194.330534630906</v>
-      </c>
-      <c r="G15" s="10">
-        <f>+[27]Summary!$L$36</f>
-        <v>70721.566596096614</v>
-      </c>
-      <c r="H15" s="10">
-        <f t="shared" si="2"/>
-        <v>5472.7639385342918</v>
-      </c>
-      <c r="I15" s="11">
-        <f t="shared" si="3"/>
-        <v>7.738465367700656E-2</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="10">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="46" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="10">
-        <f>+[28]Summary!$H$33</f>
-        <v>777731.18257144734</v>
-      </c>
-      <c r="C16" s="3">
-        <f>+[29]Summary!$H$35</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D16" s="9">
-        <f t="shared" si="0"/>
-        <v>58329.838692858546</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="1"/>
-        <v>836061.02126430592</v>
-      </c>
-      <c r="G16" s="10">
-        <f>+[29]Summary!$H$36</f>
-        <v>777303.67606529</v>
-      </c>
-      <c r="H16" s="10">
-        <f t="shared" si="2"/>
-        <v>58757.345199015923</v>
-      </c>
-      <c r="I16" s="11">
-        <f t="shared" si="3"/>
-        <v>7.5591235456965181E-2</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="B18" s="7">
         <f>+SUM(B2:B17)</f>
-        <v>1606817.2961319271</v>
+        <v>1531913.5422105675</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7">
         <f>+SUM(D2:D17)</f>
-        <v>116937.2632110297</v>
+        <v>111676.59909216517</v>
       </c>
       <c r="E18" s="7">
         <f>+SUM(E2:E17)</f>
-        <v>1723754.5593429566</v>
+        <v>1643590.1413027328</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
         <f>+SUM(G2:G17)</f>
-        <v>2132885.8826031839</v>
+        <v>1641349.4316286426</v>
       </c>
       <c r="H18" s="7">
         <f>+SUM(H2:H17)</f>
-        <v>-409131.32326022733</v>
-      </c>
-      <c r="I18" s="11">
+        <v>-116969.59719743438</v>
+      </c>
+      <c r="I18" s="10">
         <f>+H18/G18</f>
-        <v>-0.19182054070369822</v>
-      </c>
-      <c r="J18" s="12"/>
+        <v>-7.1264287142909194E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <f>+SUM(J2:J17)</f>
+        <v>1686507.4511118878</v>
+      </c>
+      <c r="K18" s="7">
+        <f>+SUM(K2:K17)</f>
+        <v>-42917.309809155166</v>
+      </c>
+      <c r="L18" s="10">
+        <f>+K18/J18</f>
+        <v>-2.5447447493256233E-2</v>
+      </c>
+      <c r="M18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA67008F-CC6D-4C08-B206-EDDC0B61AD88}">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="35">
+        <f>+SUM(B5:B28)</f>
+        <v>641795.09928444633</v>
+      </c>
+      <c r="C4" s="35">
+        <f>+SUM(C5:C28)</f>
+        <v>-0.15809138743189935</v>
+      </c>
+      <c r="D4" s="35">
+        <f t="shared" ref="D4:M4" si="0">+SUM(D5:D28)</f>
+        <v>-0.1100480846757419</v>
+      </c>
+      <c r="E4" s="35">
+        <f t="shared" si="0"/>
+        <v>274.04327134294022</v>
+      </c>
+      <c r="F4" s="35">
+        <f t="shared" si="0"/>
+        <v>70014.37883711599</v>
+      </c>
+      <c r="G4" s="35">
+        <f t="shared" si="0"/>
+        <v>567773.39487239753</v>
+      </c>
+      <c r="H4" s="35">
+        <f t="shared" si="0"/>
+        <v>10.28437413489991</v>
+      </c>
+      <c r="I4" s="35">
+        <f t="shared" si="0"/>
+        <v>642.12026665509279</v>
+      </c>
+      <c r="J4" s="35">
+        <f t="shared" si="0"/>
+        <v>3075.4681480472773</v>
+      </c>
+      <c r="K4" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="36">
+        <f t="shared" si="0"/>
+        <v>5.6776542247191424</v>
+      </c>
+      <c r="M4" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <f>+[30]Summary!A8</f>
+        <v>44805</v>
+      </c>
+      <c r="B5" s="24">
+        <f>+[30]Summary!H8</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="25">
+        <f>+$B5*[32]Allocation!P5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <f>+$B5*[32]Allocation!Q5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <f>+$B5*[32]Allocation!R5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
+        <f>+$B5*[32]Allocation!S5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <f>+$B5*[32]Allocation!T5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <f>+$B5*[32]Allocation!U5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <f>+$B5*[32]Allocation!V5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <f>+$B5*[32]Allocation!W5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <f>+$B5*[32]Allocation!X5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <f>+$B5*[32]Allocation!Y5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="26">
+        <f>+B5-SUM(C5:L5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <f>+[30]Summary!A9</f>
+        <v>44835</v>
+      </c>
+      <c r="B6" s="24">
+        <f>+[30]Summary!H9</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="25">
+        <f>+$B6*[32]Allocation!P6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <f>+$B6*[32]Allocation!Q6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <f>+$B6*[32]Allocation!R6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <f>+$B6*[32]Allocation!S6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <f>+$B6*[32]Allocation!T6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <f>+$B6*[32]Allocation!U6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <f>+$B6*[32]Allocation!V6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <f>+$B6*[32]Allocation!W6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <f>+$B6*[32]Allocation!X6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <f>+$B6*[32]Allocation!Y6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="26">
+        <f t="shared" ref="M6:M28" si="1">+B6-SUM(C6:L6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <f>+[30]Summary!A10</f>
+        <v>44866</v>
+      </c>
+      <c r="B7" s="24">
+        <f>+[30]Summary!H10</f>
+        <v>27.144330718670972</v>
+      </c>
+      <c r="C7" s="25">
+        <f>+$B7*[32]Allocation!P7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <f>+$B7*[32]Allocation!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <f>+$B7*[32]Allocation!R7</f>
+        <v>17.753386732229597</v>
+      </c>
+      <c r="F7" s="25">
+        <f>+$B7*[32]Allocation!S7</f>
+        <v>8.234054244632615</v>
+      </c>
+      <c r="G7" s="25">
+        <f>+$B7*[32]Allocation!T7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <f>+$B7*[32]Allocation!U7</f>
+        <v>1.6796527733401547E-3</v>
+      </c>
+      <c r="I7" s="25">
+        <f>+$B7*[32]Allocation!V7</f>
+        <v>0.58803523941207381</v>
+      </c>
+      <c r="J7" s="25">
+        <f>+$B7*[32]Allocation!W7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="25">
+        <f>+$B7*[32]Allocation!X7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <f>+$B7*[32]Allocation!Y7</f>
+        <v>0.56717484962334741</v>
+      </c>
+      <c r="M7" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <f>+[30]Summary!A11</f>
+        <v>44896</v>
+      </c>
+      <c r="B8" s="24">
+        <f>+[30]Summary!H11</f>
+        <v>88.232248612708645</v>
+      </c>
+      <c r="C8" s="25">
+        <f>+$B8*[32]Allocation!P8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <f>+$B8*[32]Allocation!Q8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <f>+$B8*[32]Allocation!R8</f>
+        <v>44.855954438747851</v>
+      </c>
+      <c r="F8" s="25">
+        <f>+$B8*[32]Allocation!S8</f>
+        <v>39.877989187827538</v>
+      </c>
+      <c r="G8" s="25">
+        <f>+$B8*[32]Allocation!T8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <f>+$B8*[32]Allocation!U8</f>
+        <v>5.3137797472472235E-3</v>
+      </c>
+      <c r="I8" s="25">
+        <f>+$B8*[32]Allocation!V8</f>
+        <v>1.9947386543051291</v>
+      </c>
+      <c r="J8" s="25">
+        <f>+$B8*[32]Allocation!W8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="25">
+        <f>+$B8*[32]Allocation!X8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
+        <f>+$B8*[32]Allocation!Y8</f>
+        <v>1.4982525520808794</v>
+      </c>
+      <c r="M8" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <f>+[30]Summary!A12</f>
+        <v>44927</v>
+      </c>
+      <c r="B9" s="24">
+        <f>+[30]Summary!H12</f>
+        <v>92.377428843727103</v>
+      </c>
+      <c r="C9" s="25">
+        <f>+$B9*[32]Allocation!P9</f>
+        <v>-5.5853111549604262E-2</v>
+      </c>
+      <c r="D9" s="25">
+        <f>+$B9*[32]Allocation!Q9</f>
+        <v>-2.7926555774802131E-2</v>
+      </c>
+      <c r="E9" s="25">
+        <f>+$B9*[32]Allocation!R9</f>
+        <v>33.0732681512048</v>
+      </c>
+      <c r="F9" s="25">
+        <f>+$B9*[32]Allocation!S9</f>
+        <v>56.009686259274091</v>
+      </c>
+      <c r="G9" s="25">
+        <f>+$B9*[32]Allocation!T9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <f>+$B9*[32]Allocation!U9</f>
+        <v>5.4642331822881427E-3</v>
+      </c>
+      <c r="I9" s="25">
+        <f>+$B9*[32]Allocation!V9</f>
+        <v>2.1260404807462594</v>
+      </c>
+      <c r="J9" s="25">
+        <f>+$B9*[32]Allocation!W9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="25">
+        <f>+$B9*[32]Allocation!X9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <f>+$B9*[32]Allocation!Y9</f>
+        <v>1.2467493866440671</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <f>+[30]Summary!A13</f>
+        <v>44958</v>
+      </c>
+      <c r="B10" s="24">
+        <f>+[30]Summary!H13</f>
+        <v>107.21873964028782</v>
+      </c>
+      <c r="C10" s="25">
+        <f>+$B10*[32]Allocation!P10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="25">
+        <f>+$B10*[32]Allocation!Q10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <f>+$B10*[32]Allocation!R10</f>
+        <v>30.31025147336468</v>
+      </c>
+      <c r="F10" s="25">
+        <f>+$B10*[32]Allocation!S10</f>
+        <v>73.074619670467058</v>
+      </c>
+      <c r="G10" s="25">
+        <f>+$B10*[32]Allocation!T10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <f>+$B10*[32]Allocation!U10</f>
+        <v>6.4415158209175484E-3</v>
+      </c>
+      <c r="I10" s="25">
+        <f>+$B10*[32]Allocation!V10</f>
+        <v>2.8597245334758576</v>
+      </c>
+      <c r="J10" s="25">
+        <f>+$B10*[32]Allocation!W10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="25">
+        <f>+$B10*[32]Allocation!X10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <f>+$B10*[32]Allocation!Y10</f>
+        <v>0.96770244715930798</v>
+      </c>
+      <c r="M10" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <f>+[30]Summary!A14</f>
+        <v>44986</v>
+      </c>
+      <c r="B11" s="24">
+        <f>+[30]Summary!H14</f>
+        <v>196.62058278254699</v>
+      </c>
+      <c r="C11" s="25">
+        <f>+$B11*[32]Allocation!P11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <f>+$B11*[32]Allocation!Q11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <f>+$B11*[32]Allocation!R11</f>
+        <v>44.495546609741716</v>
+      </c>
+      <c r="F11" s="25">
+        <f>+$B11*[32]Allocation!S11</f>
+        <v>145.52132476444993</v>
+      </c>
+      <c r="G11" s="25">
+        <f>+$B11*[32]Allocation!T11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <f>+$B11*[32]Allocation!U11</f>
+        <v>1.1527510035817494E-2</v>
+      </c>
+      <c r="I11" s="25">
+        <f>+$B11*[32]Allocation!V11</f>
+        <v>5.5917333858450444</v>
+      </c>
+      <c r="J11" s="25">
+        <f>+$B11*[32]Allocation!W11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="25">
+        <f>+$B11*[32]Allocation!X11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="25">
+        <f>+$B11*[32]Allocation!Y11</f>
+        <v>1.0004505124744723</v>
+      </c>
+      <c r="M11" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <f>+[30]Summary!A15</f>
+        <v>45017</v>
+      </c>
+      <c r="B12" s="24">
+        <f>+[30]Summary!H15</f>
+        <v>122.27101556447451</v>
+      </c>
+      <c r="C12" s="25">
+        <f>+$B12*[32]Allocation!P12</f>
+        <v>-3.6924412011673691E-3</v>
+      </c>
+      <c r="D12" s="25">
+        <f>+$B12*[32]Allocation!Q12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <f>+$B12*[32]Allocation!R12</f>
+        <v>22.301198608817103</v>
+      </c>
+      <c r="F12" s="25">
+        <f>+$B12*[32]Allocation!S12</f>
+        <v>96.060948601499561</v>
+      </c>
+      <c r="G12" s="25">
+        <f>+$B12*[32]Allocation!T12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <f>+$B12*[32]Allocation!U12</f>
+        <v>7.4353172366222065E-3</v>
+      </c>
+      <c r="I12" s="25">
+        <f>+$B12*[32]Allocation!V12</f>
+        <v>3.5955238507397289</v>
+      </c>
+      <c r="J12" s="25">
+        <f>+$B12*[32]Allocation!W12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="25">
+        <f>+$B12*[32]Allocation!X12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="25">
+        <f>+$B12*[32]Allocation!Y12</f>
+        <v>0.3096016273826524</v>
+      </c>
+      <c r="M12" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <f>+[30]Summary!A16</f>
+        <v>45047</v>
+      </c>
+      <c r="B13" s="24">
+        <f>+[30]Summary!H16</f>
+        <v>159.61588665016461</v>
+      </c>
+      <c r="C13" s="25">
+        <f>+$B13*[32]Allocation!P13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <f>+$B13*[32]Allocation!Q13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <f>+$B13*[32]Allocation!R13</f>
+        <v>21.813912238293309</v>
+      </c>
+      <c r="F13" s="25">
+        <f>+$B13*[32]Allocation!S13</f>
+        <v>132.8229298158644</v>
+      </c>
+      <c r="G13" s="25">
+        <f>+$B13*[32]Allocation!T13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <f>+$B13*[32]Allocation!U13</f>
+        <v>9.5951180833048575E-3</v>
+      </c>
+      <c r="I13" s="25">
+        <f>+$B13*[32]Allocation!V13</f>
+        <v>4.8817266285691616</v>
+      </c>
+      <c r="J13" s="25">
+        <f>+$B13*[32]Allocation!W13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="25">
+        <f>+$B13*[32]Allocation!X13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="25">
+        <f>+$B13*[32]Allocation!Y13</f>
+        <v>8.7722849354415919E-2</v>
+      </c>
+      <c r="M13" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <f>+[30]Summary!A17</f>
+        <v>45078</v>
+      </c>
+      <c r="B14" s="24">
+        <f>+[30]Summary!H17</f>
+        <v>211.4543047529296</v>
+      </c>
+      <c r="C14" s="25">
+        <f>+$B14*[32]Allocation!P14</f>
+        <v>-9.8545834681127709E-2</v>
+      </c>
+      <c r="D14" s="25">
+        <f>+$B14*[32]Allocation!Q14</f>
+        <v>-8.2121528900939766E-2</v>
+      </c>
+      <c r="E14" s="25">
+        <f>+$B14*[32]Allocation!R14</f>
+        <v>21.908937940745691</v>
+      </c>
+      <c r="F14" s="25">
+        <f>+$B14*[32]Allocation!S14</f>
+        <v>183.12921799489376</v>
+      </c>
+      <c r="G14" s="25">
+        <f>+$B14*[32]Allocation!T14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <f>+$B14*[32]Allocation!U14</f>
+        <v>1.2854608690575029E-2</v>
+      </c>
+      <c r="I14" s="25">
+        <f>+$B14*[32]Allocation!V14</f>
+        <v>6.2999719818148616</v>
+      </c>
+      <c r="J14" s="25">
+        <f>+$B14*[32]Allocation!W14</f>
+        <v>0.28398959036676469</v>
+      </c>
+      <c r="K14" s="25">
+        <f>+$B14*[32]Allocation!X14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="25">
+        <f>+$B14*[32]Allocation!Y14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <f>+[30]Summary!A18</f>
+        <v>45108</v>
+      </c>
+      <c r="B15" s="24">
+        <f>+[30]Summary!H18</f>
+        <v>342.62754623574438</v>
+      </c>
+      <c r="C15" s="25">
+        <f>+$B15*[32]Allocation!P15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <f>+$B15*[32]Allocation!Q15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <f>+$B15*[32]Allocation!R15</f>
+        <v>23.486301657972202</v>
+      </c>
+      <c r="F15" s="25">
+        <f>+$B15*[32]Allocation!S15</f>
+        <v>308.88515022858621</v>
+      </c>
+      <c r="G15" s="25">
+        <f>+$B15*[32]Allocation!T15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
+        <f>+$B15*[32]Allocation!U15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="25">
+        <f>+$B15*[32]Allocation!V15</f>
+        <v>9.2783282534216855</v>
+      </c>
+      <c r="J15" s="25">
+        <f>+$B15*[32]Allocation!W15</f>
+        <v>0.9777660957642863</v>
+      </c>
+      <c r="K15" s="25">
+        <f>+$B15*[32]Allocation!X15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="25">
+        <f>+$B15*[32]Allocation!Y15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <f>+[30]Summary!A19</f>
+        <v>45139</v>
+      </c>
+      <c r="B16" s="24">
+        <f>+[30]Summary!H19</f>
+        <v>915.23139995508245</v>
+      </c>
+      <c r="C16" s="25">
+        <f>+$B16*[32]Allocation!P16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
+        <f>+$B16*[32]Allocation!Q16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <f>+$B16*[32]Allocation!R16</f>
+        <v>30.690975905053222</v>
+      </c>
+      <c r="F16" s="25">
+        <f>+$B16*[32]Allocation!S16</f>
+        <v>857.9513665053222</v>
+      </c>
+      <c r="G16" s="25">
+        <f>+$B16*[32]Allocation!T16</f>
+        <v>0.12443573869635655</v>
+      </c>
+      <c r="H16" s="25">
+        <f>+$B16*[32]Allocation!U16</f>
+        <v>5.5929403987229731E-2</v>
+      </c>
+      <c r="I16" s="25">
+        <f>+$B16*[32]Allocation!V16</f>
+        <v>21.026581484218127</v>
+      </c>
+      <c r="J16" s="25">
+        <f>+$B16*[32]Allocation!W16</f>
+        <v>5.3821109178054964</v>
+      </c>
+      <c r="K16" s="25">
+        <f>+$B16*[32]Allocation!X16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="25">
+        <f>+$B16*[32]Allocation!Y16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <f>+[30]Summary!A20</f>
+        <v>45170</v>
+      </c>
+      <c r="B17" s="24">
+        <f>+[30]Summary!H20</f>
+        <v>1824.5925900268194</v>
+      </c>
+      <c r="C17" s="25">
+        <f>+$B17*[32]Allocation!P17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <f>+$B17*[32]Allocation!Q17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
+        <f>+$B17*[32]Allocation!R17</f>
+        <v>-2.461887623148479</v>
+      </c>
+      <c r="F17" s="25">
+        <f>+$B17*[32]Allocation!S17</f>
+        <v>1741.1795719677011</v>
+      </c>
+      <c r="G17" s="25">
+        <f>+$B17*[32]Allocation!T17</f>
+        <v>34.786805080894347</v>
+      </c>
+      <c r="H17" s="25">
+        <f>+$B17*[32]Allocation!U17</f>
+        <v>0.11256974620165372</v>
+      </c>
+      <c r="I17" s="25">
+        <f>+$B17*[32]Allocation!V17</f>
+        <v>35.326899914405736</v>
+      </c>
+      <c r="J17" s="25">
+        <f>+$B17*[32]Allocation!W17</f>
+        <v>15.648630940765065</v>
+      </c>
+      <c r="K17" s="25">
+        <f>+$B17*[32]Allocation!X17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="25">
+        <f>+$B17*[32]Allocation!Y17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <f>+[30]Summary!A21</f>
+        <v>45200</v>
+      </c>
+      <c r="B18" s="24">
+        <f>+[30]Summary!H21</f>
+        <v>3362.1916688863421</v>
+      </c>
+      <c r="C18" s="25">
+        <f>+$B18*[32]Allocation!P18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
+        <f>+$B18*[32]Allocation!Q18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <f>+$B18*[32]Allocation!R18</f>
+        <v>-2.581447887565695</v>
+      </c>
+      <c r="F18" s="25">
+        <f>+$B18*[32]Allocation!S18</f>
+        <v>2645.4427686463246</v>
+      </c>
+      <c r="G18" s="25">
+        <f>+$B18*[32]Allocation!T18</f>
+        <v>632.75590817819693</v>
+      </c>
+      <c r="H18" s="25">
+        <f>+$B18*[32]Allocation!U18</f>
+        <v>0.19862002171448845</v>
+      </c>
+      <c r="I18" s="25">
+        <f>+$B18*[32]Allocation!V18</f>
+        <v>52.921969193517427</v>
+      </c>
+      <c r="J18" s="25">
+        <f>+$B18*[32]Allocation!W18</f>
+        <v>33.453850734154265</v>
+      </c>
+      <c r="K18" s="25">
+        <f>+$B18*[32]Allocation!X18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="25">
+        <f>+$B18*[32]Allocation!Y18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <f>+[30]Summary!A22</f>
+        <v>45231</v>
+      </c>
+      <c r="B19" s="24">
+        <f>+[30]Summary!H22</f>
+        <v>5100.7230321582756</v>
+      </c>
+      <c r="C19" s="25">
+        <f>+$B19*[32]Allocation!P19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="25">
+        <f>+$B19*[32]Allocation!Q19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
+        <f>+$B19*[32]Allocation!R19</f>
+        <v>-0.36129959373221215</v>
+      </c>
+      <c r="F19" s="25">
+        <f>+$B19*[32]Allocation!S19</f>
+        <v>3120.8688074637403</v>
+      </c>
+      <c r="G19" s="25">
+        <f>+$B19*[32]Allocation!T19</f>
+        <v>1862.6740105768729</v>
+      </c>
+      <c r="H19" s="25">
+        <f>+$B19*[32]Allocation!U19</f>
+        <v>0.28277389374311657</v>
+      </c>
+      <c r="I19" s="25">
+        <f>+$B19*[32]Allocation!V19</f>
+        <v>61.986247969165156</v>
+      </c>
+      <c r="J19" s="25">
+        <f>+$B19*[32]Allocation!W19</f>
+        <v>55.272491848486048</v>
+      </c>
+      <c r="K19" s="25">
+        <f>+$B19*[32]Allocation!X19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="25">
+        <f>+$B19*[32]Allocation!Y19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <f>+[30]Summary!A23</f>
+        <v>45261</v>
+      </c>
+      <c r="B20" s="24">
+        <f>+[30]Summary!H23</f>
+        <v>10059.103449498245</v>
+      </c>
+      <c r="C20" s="25">
+        <f>+$B20*[32]Allocation!P20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="25">
+        <f>+$B20*[32]Allocation!Q20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <f>+$B20*[32]Allocation!R20</f>
+        <v>-1.6855482057037472</v>
+      </c>
+      <c r="F20" s="25">
+        <f>+$B20*[32]Allocation!S20</f>
+        <v>4682.5802082940982</v>
+      </c>
+      <c r="G20" s="25">
+        <f>+$B20*[32]Allocation!T20</f>
+        <v>5157.6003870583991</v>
+      </c>
+      <c r="H20" s="25">
+        <f>+$B20*[32]Allocation!U20</f>
+        <v>0.53991256391550768</v>
+      </c>
+      <c r="I20" s="25">
+        <f>+$B20*[32]Allocation!V20</f>
+        <v>100.98263018103991</v>
+      </c>
+      <c r="J20" s="25">
+        <f>+$B20*[32]Allocation!W20</f>
+        <v>119.0858596064964</v>
+      </c>
+      <c r="K20" s="25">
+        <f>+$B20*[32]Allocation!X20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="25">
+        <f>+$B20*[32]Allocation!Y20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <f>+[30]Summary!A24</f>
+        <v>45292</v>
+      </c>
+      <c r="B21" s="24">
+        <f>+[30]Summary!H24</f>
+        <v>11627.668516698672</v>
+      </c>
+      <c r="C21" s="25">
+        <f>+$B21*[32]Allocation!P21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="25">
+        <f>+$B21*[32]Allocation!Q21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="25">
+        <f>+$B21*[32]Allocation!R21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
+        <f>+$B21*[32]Allocation!S21</f>
+        <v>3608.7481647582322</v>
+      </c>
+      <c r="G21" s="25">
+        <f>+$B21*[32]Allocation!T21</f>
+        <v>7783.6612784263889</v>
+      </c>
+      <c r="H21" s="25">
+        <f>+$B21*[32]Allocation!U21</f>
+        <v>0.59572181213057362</v>
+      </c>
+      <c r="I21" s="25">
+        <f>+$B21*[32]Allocation!V21</f>
+        <v>89.86191450919496</v>
+      </c>
+      <c r="J21" s="25">
+        <f>+$B21*[32]Allocation!W21</f>
+        <v>144.80143719272411</v>
+      </c>
+      <c r="K21" s="25">
+        <f>+$B21*[32]Allocation!X21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="25">
+        <f>+$B21*[32]Allocation!Y21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <f>+[30]Summary!A25</f>
+        <v>45323</v>
+      </c>
+      <c r="B22" s="24">
+        <f>+[30]Summary!H25</f>
+        <v>14463.44618215441</v>
+      </c>
+      <c r="C22" s="25">
+        <f>+$B22*[32]Allocation!P22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
+        <f>+$B22*[32]Allocation!Q22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <f>+$B22*[32]Allocation!R22</f>
+        <v>-6.2493078424617288</v>
+      </c>
+      <c r="F22" s="25">
+        <f>+$B22*[32]Allocation!S22</f>
+        <v>3516.2156002437378</v>
+      </c>
+      <c r="G22" s="25">
+        <f>+$B22*[32]Allocation!T22</f>
+        <v>10661.823007510362</v>
+      </c>
+      <c r="H22" s="25">
+        <f>+$B22*[32]Allocation!U22</f>
+        <v>0.770551567659578</v>
+      </c>
+      <c r="I22" s="25">
+        <f>+$B22*[32]Allocation!V22</f>
+        <v>79.683431345667998</v>
+      </c>
+      <c r="J22" s="25">
+        <f>+$B22*[32]Allocation!W22</f>
+        <v>211.20289932944451</v>
+      </c>
+      <c r="K22" s="25">
+        <f>+$B22*[32]Allocation!X22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="25">
+        <f>+$B22*[32]Allocation!Y22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <f>+[30]Summary!A26</f>
+        <v>45352</v>
+      </c>
+      <c r="B23" s="24">
+        <f>+[30]Summary!H26</f>
+        <v>24200.177276954928</v>
+      </c>
+      <c r="C23" s="25">
+        <f>+$B23*[32]Allocation!P23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="25">
+        <f>+$B23*[32]Allocation!Q23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <f>+$B23*[32]Allocation!R23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <f>+$B23*[32]Allocation!S23</f>
+        <v>4685.7695004580346</v>
+      </c>
+      <c r="G23" s="25">
+        <f>+$B23*[32]Allocation!T23</f>
+        <v>19068.10410968752</v>
+      </c>
+      <c r="H23" s="25">
+        <f>+$B23*[32]Allocation!U23</f>
+        <v>1.2570703026881835</v>
+      </c>
+      <c r="I23" s="25">
+        <f>+$B23*[32]Allocation!V23</f>
+        <v>76.283891462247368</v>
+      </c>
+      <c r="J23" s="25">
+        <f>+$B23*[32]Allocation!W23</f>
+        <v>368.76270504443698</v>
+      </c>
+      <c r="K23" s="25">
+        <f>+$B23*[32]Allocation!X23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="25">
+        <f>+$B23*[32]Allocation!Y23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <f>+[30]Summary!A27</f>
+        <v>45383</v>
+      </c>
+      <c r="B24" s="24">
+        <f>+[30]Summary!H27</f>
+        <v>36046.401042131969</v>
+      </c>
+      <c r="C24" s="25">
+        <f>+$B24*[32]Allocation!P24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="25">
+        <f>+$B24*[32]Allocation!Q24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <f>+$B24*[32]Allocation!R24</f>
+        <v>-3.3069712606180954</v>
+      </c>
+      <c r="F24" s="25">
+        <f>+$B24*[32]Allocation!S24</f>
+        <v>5271.7070793084968</v>
+      </c>
+      <c r="G24" s="25">
+        <f>+$B24*[32]Allocation!T24</f>
+        <v>30106.54857143003</v>
+      </c>
+      <c r="H24" s="25">
+        <f>+$B24*[32]Allocation!U24</f>
+        <v>1.9171133440070345</v>
+      </c>
+      <c r="I24" s="25">
+        <f>+$B24*[32]Allocation!V24</f>
+        <v>55.783478415423666</v>
+      </c>
+      <c r="J24" s="25">
+        <f>+$B24*[32]Allocation!W24</f>
+        <v>613.75177089462431</v>
+      </c>
+      <c r="K24" s="25">
+        <f>+$B24*[32]Allocation!X24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="25">
+        <f>+$B24*[32]Allocation!Y24</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <f>+[30]Summary!A28</f>
+        <v>45413</v>
+      </c>
+      <c r="B25" s="24">
+        <f>+[30]Summary!H28</f>
+        <v>74667.982042180345</v>
+      </c>
+      <c r="C25" s="25">
+        <f>+$B25*[32]Allocation!P25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <f>+$B25*[32]Allocation!Q25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
+        <f>+$B25*[32]Allocation!R25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <f>+$B25*[32]Allocation!S25</f>
+        <v>9225.6065467565022</v>
+      </c>
+      <c r="G25" s="25">
+        <f>+$B25*[32]Allocation!T25</f>
+        <v>63899.989660656473</v>
+      </c>
+      <c r="H25" s="25">
+        <f>+$B25*[32]Allocation!U25</f>
+        <v>4.4937997432824313</v>
+      </c>
+      <c r="I25" s="25">
+        <f>+$B25*[32]Allocation!V25</f>
+        <v>31.047399171882649</v>
+      </c>
+      <c r="J25" s="25">
+        <f>+$B25*[32]Allocation!W25</f>
+        <v>1506.844635852209</v>
+      </c>
+      <c r="K25" s="25">
+        <f>+$B25*[32]Allocation!X25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="25">
+        <f>+$B25*[32]Allocation!Y25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <f>+[30]Summary!A29</f>
+        <v>45444</v>
+      </c>
+      <c r="B26" s="24">
+        <f>+[30]Summary!H29</f>
+        <v>111438.52</v>
+      </c>
+      <c r="C26" s="25">
+        <f>+$B26*[32]Allocation!P26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="25">
+        <f>+$B26*[32]Allocation!Q26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <f>+$B26*[32]Allocation!R26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
+        <f>+$B26*[32]Allocation!S26</f>
+        <v>11450.331219309068</v>
+      </c>
+      <c r="G26" s="25">
+        <f>+$B26*[32]Allocation!T26</f>
+        <v>99988.188780690936</v>
+      </c>
+      <c r="H26" s="25">
+        <f>+$B26*[32]Allocation!U26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="25">
+        <f>+$B26*[32]Allocation!V26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="25">
+        <f>+$B26*[32]Allocation!W26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="25">
+        <f>+$B26*[32]Allocation!X26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="25">
+        <f>+$B26*[32]Allocation!Y26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <f>+[30]Summary!A30</f>
+        <v>45474</v>
+      </c>
+      <c r="B27" s="24">
+        <f>+[30]Summary!H30</f>
+        <v>161620.5</v>
+      </c>
+      <c r="C27" s="25">
+        <f>+$B27*[32]Allocation!P27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="25">
+        <f>+$B27*[32]Allocation!Q27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <f>+$B27*[32]Allocation!R27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <f>+$B27*[32]Allocation!S27</f>
+        <v>11551.672233302084</v>
+      </c>
+      <c r="G27" s="25">
+        <f>+$B27*[32]Allocation!T27</f>
+        <v>150068.82776669791</v>
+      </c>
+      <c r="H27" s="25">
+        <f>+$B27*[32]Allocation!U27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="25">
+        <f>+$B27*[32]Allocation!V27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="25">
+        <f>+$B27*[32]Allocation!W27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <f>+$B27*[32]Allocation!X27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="25">
+        <f>+$B27*[32]Allocation!Y27</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <f>+[30]Summary!A31</f>
+        <v>45505</v>
+      </c>
+      <c r="B28" s="24">
+        <f>+[30]Summary!H31</f>
+        <v>185121</v>
+      </c>
+      <c r="C28" s="25">
+        <f>+$B28*[32]Allocation!P28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="25">
+        <f>+$B28*[32]Allocation!Q28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="25">
+        <f>+$B28*[32]Allocation!R28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="25">
+        <f>+$B28*[32]Allocation!S28</f>
+        <v>6612.6898493351464</v>
+      </c>
+      <c r="G28" s="25">
+        <f>+$B28*[32]Allocation!T28</f>
+        <v>178508.31015066485</v>
+      </c>
+      <c r="H28" s="25">
+        <f>+$B28*[32]Allocation!U28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="25">
+        <f>+$B28*[32]Allocation!V28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="25">
+        <f>+$B28*[32]Allocation!W28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="25">
+        <f>+$B28*[32]Allocation!X28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="25">
+        <f>+$B28*[32]Allocation!Y28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Process Results/Unified_Claims_Liability_Summary_0.xlsx
+++ b/Process Results/Unified_Claims_Liability_Summary_0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://actrisk-my.sharepoint.com/personal/sofia_moretti_actrisk_com/Documents/Documents/GitHub/DMI_IBNP/Process Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMoretti\OneDrive - ARM\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{0CBFB962-2238-420E-8BD7-781E102B3140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92EB61A1-B9D1-4F04-AD7A-13C8719AE069}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD48CF46-081D-4DC8-AFEF-C81AFAF71C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
   </bookViews>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Company_Code</t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>The premium is not accurate, we have to wait for all the information to be loaded!</t>
   </si>
   <si>
     <t>Mannually Removed big movement for Accident month June 2024 (for the completion factors calculation)</t>
@@ -467,7 +464,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -539,12 +536,15 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -906,7 +906,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>165903.58128421317</v>
+            <v>161593.12051305853</v>
           </cell>
         </row>
       </sheetData>
@@ -1084,7 +1084,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>152626.48032443525</v>
+            <v>165075.41370963273</v>
           </cell>
         </row>
       </sheetData>
@@ -1141,7 +1141,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>9360.1588323547512</v>
+            <v>7889.4301745302082</v>
           </cell>
         </row>
       </sheetData>
@@ -1258,7 +1258,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>107592.46665874901</v>
+            <v>106410.99448837007</v>
           </cell>
         </row>
       </sheetData>
@@ -2562,7 +2562,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2826,8 +2826,8 @@
         <f t="shared" si="5"/>
         <v>2.1997617961334659</v>
       </c>
-      <c r="M5" s="42" t="s">
-        <v>52</v>
+      <c r="M5" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -2992,55 +2992,55 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="8">
         <f>+[16]Summary!$H$33</f>
-        <v>165903.58128421317</v>
-      </c>
-      <c r="C9" s="14">
+        <v>161593.12051305853</v>
+      </c>
+      <c r="C9" s="3">
         <f>+[17]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="39">
         <f t="shared" si="0"/>
-        <v>12442.768596315987</v>
-      </c>
-      <c r="E9" s="15">
+        <v>12119.48403847939</v>
+      </c>
+      <c r="E9" s="39">
         <f t="shared" si="1"/>
-        <v>178346.34988052916</v>
-      </c>
-      <c r="G9" s="13">
+        <v>173712.60455153792</v>
+      </c>
+      <c r="G9" s="8">
         <f>[3]Summary!E9</f>
         <v>178346.34988052916</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
+        <v>-4633.7453289912373</v>
+      </c>
+      <c r="I9" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
+        <v>-2.5981722261741245E-2</v>
+      </c>
+      <c r="J9" s="8">
         <f>+[17]Summary!$H$36</f>
         <v>167515.8389747378</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="8">
         <f t="shared" si="4"/>
-        <v>10830.510905791365</v>
-      </c>
-      <c r="L9" s="16">
+        <v>6196.7655768001277</v>
+      </c>
+      <c r="L9" s="40">
         <f t="shared" si="5"/>
-        <v>6.4653652884875318E-2</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="O9" s="12" t="s">
+        <v>3.6992117370672213E-2</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="O9" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3096,117 +3096,117 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="44">
         <f>+[20]Summary!$H$33</f>
-        <v>152626.48032443525</v>
-      </c>
-      <c r="C11" s="14">
+        <v>165075.41370963273</v>
+      </c>
+      <c r="C11" s="45">
         <v>0.05</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="39">
         <f t="shared" si="0"/>
-        <v>7631.3240162217626</v>
-      </c>
-      <c r="E11" s="15">
+        <v>8253.770685481637</v>
+      </c>
+      <c r="E11" s="39">
         <f t="shared" si="1"/>
-        <v>160257.80434065702</v>
-      </c>
-      <c r="G11" s="13">
+        <v>173329.18439511437</v>
+      </c>
+      <c r="G11" s="44">
         <f>[3]Summary!E11</f>
         <v>160257.80434065702</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="44">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
+        <v>13071.380054457346</v>
+      </c>
+      <c r="I11" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
+        <v>8.1564702001481054E-2</v>
+      </c>
+      <c r="J11" s="44">
         <f>+[21]Summary!$E$36-[21]Summary!$E$35</f>
         <v>121236.15000000002</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="44">
         <f t="shared" ref="K11" si="6">+E11-J11</f>
-        <v>39021.654340656998</v>
-      </c>
-      <c r="L11" s="16">
+        <v>52093.034395114344</v>
+      </c>
+      <c r="L11" s="40">
         <f t="shared" ref="L11" si="7">+K11/J11</f>
-        <v>0.32186484262867959</v>
-      </c>
-      <c r="M11" s="17"/>
-      <c r="O11" s="12" t="s">
+        <v>0.42968235460392246</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="O11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="44">
         <f>+[22]Summary!$H$33</f>
-        <v>9360.1588323547512</v>
-      </c>
-      <c r="C12" s="14">
+        <v>7889.4301745302082</v>
+      </c>
+      <c r="C12" s="45">
         <v>0.05</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="39">
         <f t="shared" si="0"/>
-        <v>468.00794161773757</v>
-      </c>
-      <c r="E12" s="15">
+        <v>394.47150872651042</v>
+      </c>
+      <c r="E12" s="39">
         <f t="shared" si="1"/>
-        <v>9828.166773972489</v>
-      </c>
-      <c r="G12" s="13">
+        <v>8283.9016832567195</v>
+      </c>
+      <c r="G12" s="44">
         <f>[3]Summary!E12</f>
         <v>9828.166773972489</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="44">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
+        <v>-1544.2650907157695</v>
+      </c>
+      <c r="I12" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
+        <v>-0.15712646378828046</v>
+      </c>
+      <c r="J12" s="44">
         <f>+[23]Summary!$E$36</f>
         <v>21308.7</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="44">
         <f t="shared" ref="K12" si="8">+E12-J12</f>
-        <v>-11480.533226027512</v>
-      </c>
-      <c r="L12" s="16">
+        <v>-13024.798316743281</v>
+      </c>
+      <c r="L12" s="40">
         <f t="shared" ref="L12" si="9">+K12/J12</f>
-        <v>-0.53877210838894496</v>
-      </c>
-      <c r="M12" s="17"/>
-      <c r="O12" s="12" t="s">
+        <v>-0.61124321599831433</v>
+      </c>
+      <c r="M12" s="33"/>
+      <c r="O12" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16" s="43" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="44">
         <f>+[24]Summary!$H$33</f>
         <v>13655</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="45">
         <f>+[25]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -3218,11 +3218,11 @@
         <f t="shared" si="1"/>
         <v>14679.125</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="44">
         <f>[3]Summary!E13</f>
         <v>14726.424999999999</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="44">
         <f t="shared" si="2"/>
         <v>-47.299999999999272</v>
       </c>
@@ -3230,11 +3230,11 @@
         <f t="shared" si="3"/>
         <v>-3.2119132783414357E-3</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="44">
         <f>+[25]Summary!$H$36</f>
         <v>22925.112714356808</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="44">
         <f t="shared" si="4"/>
         <v>-8245.9877143568083</v>
       </c>
@@ -3245,76 +3245,74 @@
       <c r="M13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="44">
         <f>+[26]Summary!$H$33</f>
-        <v>107592.46665874901</v>
-      </c>
-      <c r="C14" s="14">
+        <v>106410.99448837007</v>
+      </c>
+      <c r="C14" s="45">
         <f>+[27]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="39">
         <f t="shared" si="0"/>
-        <v>8069.4349994061749</v>
-      </c>
-      <c r="E14" s="15">
+        <v>7980.8245866277548</v>
+      </c>
+      <c r="E14" s="39">
         <f t="shared" si="1"/>
-        <v>115661.90165815518</v>
-      </c>
-      <c r="G14" s="13">
+        <v>114391.81907499782</v>
+      </c>
+      <c r="G14" s="44">
         <f>[3]Summary!E14</f>
         <v>131828.09074919537</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="44">
         <f t="shared" si="2"/>
-        <v>-16166.189091040185</v>
-      </c>
-      <c r="I14" s="16">
+        <v>-17436.271674197546</v>
+      </c>
+      <c r="I14" s="40">
         <f t="shared" si="3"/>
-        <v>-0.12263083686614688</v>
-      </c>
-      <c r="J14" s="13">
+        <v>-0.13226522188939438</v>
+      </c>
+      <c r="J14" s="44">
         <f>+[27]Summary!$H$36</f>
         <v>60621.568508703676</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="44">
         <f t="shared" si="4"/>
-        <v>55040.333149451508</v>
-      </c>
-      <c r="L14" s="16">
+        <v>53770.250566294148</v>
+      </c>
+      <c r="L14" s="40">
         <f t="shared" si="5"/>
-        <v>0.90793317466784373</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="12" t="s">
+        <v>0.88698217299630155</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="O14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:16" s="43" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="44">
         <f>+[28]Summary!$L$33</f>
         <v>49444.044508462743</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="45">
         <f>+[29]Summary!$L$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -3326,11 +3324,11 @@
         <f t="shared" si="1"/>
         <v>53152.347846597448</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="44">
         <f>[3]Summary!E15</f>
         <v>46847.618847402235</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="44">
         <f t="shared" si="2"/>
         <v>6304.728999195213</v>
       </c>
@@ -3338,11 +3336,11 @@
         <f t="shared" si="3"/>
         <v>0.1345794974069385</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="44">
         <f>+[29]Summary!$L$36</f>
         <v>70721.566596096614</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="44">
         <f t="shared" si="4"/>
         <v>-17569.218749499167</v>
       </c>
@@ -3351,12 +3349,12 @@
         <v>-0.2484280198406815</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3425,16 +3423,16 @@
       </c>
       <c r="B18" s="6">
         <f>+SUM(B2:B17)</f>
-        <v>1482375.316664977</v>
+        <v>1487861.5884508165</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6">
         <f>+SUM(D2:D17)</f>
-        <v>107128.48277095353</v>
+        <v>107265.49803670714</v>
       </c>
       <c r="E18" s="6">
         <f>+SUM(E2:E17)</f>
-        <v>1589503.7994359306</v>
+        <v>1595127.0864875235</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="6">
@@ -3443,11 +3441,11 @@
       </c>
       <c r="H18" s="6">
         <f>+SUM(H2:H17)</f>
-        <v>99347.130868646665</v>
+        <v>104970.41792023965</v>
       </c>
       <c r="I18" s="9">
         <f>+H18/G18</f>
-        <v>6.6668916741596237E-2</v>
+        <v>7.0442538113233297E-2</v>
       </c>
       <c r="J18" s="38">
         <f>+SUM(J2:J17)</f>
@@ -3455,47 +3453,47 @@
       </c>
       <c r="K18" s="38">
         <f>+SUM(K2:K17)</f>
-        <v>-97003.651675957197</v>
+        <v>-91380.364624364243</v>
       </c>
       <c r="L18" s="36">
         <f>+K18/J18</f>
-        <v>-5.7517475900864957E-2</v>
+        <v>-5.4183196501218306E-2</v>
       </c>
       <c r="M18" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
     </row>
     <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Process Results/Unified_Claims_Liability_Summary_0.xlsx
+++ b/Process Results/Unified_Claims_Liability_Summary_0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMoretti\OneDrive - ARM\Documents\GitHub\DMI_IBNP\Process Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://actrisk-my.sharepoint.com/personal/sofia_moretti_actrisk_com/Documents/Documents/GitHub/DMI_IBNP_v2/Process Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F6006-63E3-45A1-9C91-60264E8E535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{E09F6006-63E3-45A1-9C91-60264E8E535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF78E344-8B17-4EF3-8766-31B821F921BC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Company_Code</t>
   </si>
@@ -274,13 +274,13 @@
     <t>We continue using: Change in methodology for the last 3 months (form IELR to BF)</t>
   </si>
   <si>
-    <t>IBNR is lower because April payments fell out of the moving triangle, reducing the tail</t>
-  </si>
-  <si>
-    <t>We have deleted some big movements from the calculation of the completion factors</t>
-  </si>
-  <si>
-    <t>Lower IBNR due to high payments for incurral month April 2025</t>
+    <t>Higher IBNR due to big movements in incurral month: Mar 25</t>
+  </si>
+  <si>
+    <t>Change in methodology for the last 3 months (form IELR to BF)</t>
+  </si>
+  <si>
+    <t>We deleted some big movements</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,11 +526,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -551,6 +552,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2510333</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>112569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9A1CC2-8C4A-40DD-9B5E-709EEEB048CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="3558540"/>
+          <a:ext cx="10374173" cy="1247949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -568,7 +618,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>6819.6606046780089</v>
+            <v>23491.995563699245</v>
           </cell>
         </row>
       </sheetData>
@@ -587,6 +637,77 @@
       <sheetName val="Completion Factors"/>
       <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
+      <sheetName val="Summary - BF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="33">
+          <cell r="H33">
+            <v>45647.363297129654</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Document"/>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="EOB Information"/>
+      <sheetName val="PT"/>
+      <sheetName val="Sch H"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Premium"/>
+      <sheetName val="PL"/>
+      <sheetName val="Plan Code Table"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="35">
+          <cell r="H35">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="H36">
+            <v>32709.246771985087</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -594,7 +715,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>85842.862185714243</v>
+            <v>52737.937858006539</v>
           </cell>
         </row>
       </sheetData>
@@ -603,7 +724,78 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="PLAN CODE TABLE"/>
+      <sheetName val="Split_By_LOB"/>
+      <sheetName val="EOB Information"/>
+      <sheetName val="Claim Triangle"/>
+      <sheetName val="Sch H"/>
+      <sheetName val="PL"/>
+      <sheetName val="Premium"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Assume split"/>
+      <sheetName val="Completion Factors"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="35">
+          <cell r="H35">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="H36">
+            <v>43941.36</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>77313.679947327677</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -644,7 +836,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -679,7 +871,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -696,7 +888,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>68560.459281530522</v>
+            <v>66036.514801389232</v>
           </cell>
         </row>
       </sheetData>
@@ -705,7 +897,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -748,7 +940,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -774,130 +966,6 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="36">
-          <cell r="E36">
-            <v>21308.7</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>160017.84869688915</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="CL_By_LOB"/>
-      <sheetName val="EOB Information"/>
-      <sheetName val="PT"/>
-      <sheetName val="Sch H"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Premium"/>
-      <sheetName val="PL"/>
-      <sheetName val="Plan Code Table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="35">
-          <cell r="H35">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36">
-            <v>22925.112714356808</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Claims"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Premium"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="35">
-          <cell r="H35">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36">
-            <v>60621.568508703676</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -953,6 +1021,156 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="36">
+          <cell r="E36">
+            <v>21308.7</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>21148.367656214825</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="CL_By_LOB"/>
+      <sheetName val="EOB Information"/>
+      <sheetName val="PT"/>
+      <sheetName val="Sch H"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Premium"/>
+      <sheetName val="PL"/>
+      <sheetName val="Plan Code Table"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="35">
+          <cell r="H35">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="H36">
+            <v>22925.112714356808</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Claims"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Premium"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="35">
+          <cell r="H35">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="H36">
+            <v>60621.568508703676</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="L33">
+            <v>37312.660864339989</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
       <sheetName val="Sch H"/>
       <sheetName val="CL_By_LOB"/>
       <sheetName val="EOB Information"/>
@@ -991,7 +1209,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1022,7 +1240,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1039,7 +1257,7 @@
       <sheetData sheetId="2">
         <row r="8">
           <cell r="A8">
-            <v>45047</v>
+            <v>45108</v>
           </cell>
           <cell r="H8">
             <v>0</v>
@@ -1047,7 +1265,7 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>45078</v>
+            <v>45139</v>
           </cell>
           <cell r="H9">
             <v>0</v>
@@ -1055,7 +1273,7 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>45108</v>
+            <v>45170</v>
           </cell>
           <cell r="H10">
             <v>0</v>
@@ -1063,7 +1281,7 @@
         </row>
         <row r="11">
           <cell r="A11">
-            <v>45139</v>
+            <v>45200</v>
           </cell>
           <cell r="H11">
             <v>0</v>
@@ -1071,1174 +1289,162 @@
         </row>
         <row r="12">
           <cell r="A12">
-            <v>45170</v>
+            <v>45231</v>
           </cell>
           <cell r="H12">
-            <v>5.7246335095551331</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>45200</v>
+            <v>45261</v>
           </cell>
           <cell r="H13">
-            <v>9.8752139325661119</v>
+            <v>1.7032735299435444</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>45231</v>
+            <v>45292</v>
           </cell>
           <cell r="H14">
-            <v>87.641531743080122</v>
+            <v>98.110090685077012</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>45261</v>
+            <v>45323</v>
           </cell>
           <cell r="H15">
-            <v>186.94398931981414</v>
+            <v>781.10676364769461</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>45292</v>
+            <v>45352</v>
           </cell>
           <cell r="H16">
-            <v>329.47577156301122</v>
+            <v>1010.3536612073076</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>45323</v>
+            <v>45383</v>
           </cell>
           <cell r="H17">
-            <v>476.93558834749274</v>
+            <v>1110.600079182419</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>45352</v>
+            <v>45413</v>
           </cell>
           <cell r="H18">
-            <v>880.01448790368158</v>
+            <v>1447.2988825003267</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>45383</v>
+            <v>45444</v>
           </cell>
           <cell r="H19">
-            <v>1828.9400653282064</v>
+            <v>1289.919267286954</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>45413</v>
+            <v>45474</v>
           </cell>
           <cell r="H20">
-            <v>3124.8082136861049</v>
+            <v>1694.9328809941944</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>45444</v>
+            <v>45505</v>
           </cell>
           <cell r="H21">
-            <v>3244.6645041573502</v>
+            <v>2847.643824507948</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>45474</v>
+            <v>45536</v>
           </cell>
           <cell r="H22">
-            <v>4000.2785609582206</v>
+            <v>2440.8600483703922</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>45505</v>
+            <v>45566</v>
           </cell>
           <cell r="H23">
-            <v>7044.7817021331866</v>
+            <v>4107.8313481451769</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>45536</v>
+            <v>45597</v>
           </cell>
           <cell r="H24">
-            <v>6569.9906270338834</v>
+            <v>3571.855623320429</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45566</v>
+            <v>45627</v>
           </cell>
           <cell r="H25">
-            <v>10089.44521042108</v>
+            <v>4246.6725183626259</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45597</v>
+            <v>45658</v>
           </cell>
           <cell r="H26">
-            <v>9346.6062436414068</v>
+            <v>5097.2929434053076</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45627</v>
+            <v>45689</v>
           </cell>
           <cell r="H27">
-            <v>16293.447032806085</v>
+            <v>9386.2545881313708</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45658</v>
+            <v>45717</v>
           </cell>
           <cell r="H28">
-            <v>25448.703938125851</v>
+            <v>16167.193776677741</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45689</v>
+            <v>45748</v>
           </cell>
           <cell r="H29">
-            <v>27864.690000000002</v>
+            <v>-20842.32</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45717</v>
+            <v>45778</v>
           </cell>
           <cell r="H30">
-            <v>9786.2199999999866</v>
+            <v>-1003.4200000000001</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>45748</v>
+            <v>45809</v>
           </cell>
           <cell r="H31">
-            <v>-9825</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Allocation"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="U5">
             <v>0</v>
-          </cell>
-          <cell r="V5">
-            <v>0</v>
-          </cell>
-          <cell r="W5">
-            <v>0.22745893325698865</v>
-          </cell>
-          <cell r="AB5">
-            <v>0</v>
-          </cell>
-          <cell r="AC5">
-            <v>5.8928035177394996E-5</v>
-          </cell>
-          <cell r="AD5">
-            <v>2.8584651901395895E-2</v>
-          </cell>
-          <cell r="AE5">
-            <v>0</v>
-          </cell>
-          <cell r="AF5">
-            <v>0</v>
-          </cell>
-          <cell r="AG5">
-            <v>0</v>
-          </cell>
-          <cell r="AH5">
-            <v>0.74389748680643808</v>
-          </cell>
-          <cell r="AI5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="U6">
-            <v>-3.0275486991909947E-5</v>
-          </cell>
-          <cell r="V6">
-            <v>0</v>
-          </cell>
-          <cell r="W6">
-            <v>0.1828545429976742</v>
-          </cell>
-          <cell r="AB6">
-            <v>0</v>
-          </cell>
-          <cell r="AC6">
-            <v>6.0964505056143169E-5</v>
-          </cell>
-          <cell r="AD6">
-            <v>2.9480831147089794E-2</v>
-          </cell>
-          <cell r="AE6">
-            <v>0</v>
-          </cell>
-          <cell r="AF6">
-            <v>0</v>
-          </cell>
-          <cell r="AG6">
-            <v>0</v>
-          </cell>
-          <cell r="AH6">
-            <v>0.78763393683717176</v>
-          </cell>
-          <cell r="AI6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="U7">
-            <v>0</v>
-          </cell>
-          <cell r="V7">
-            <v>0</v>
-          </cell>
-          <cell r="W7">
-            <v>0.13674019507634128</v>
-          </cell>
-          <cell r="AB7">
-            <v>0</v>
-          </cell>
-          <cell r="AC7">
-            <v>6.0146859681062323E-5</v>
-          </cell>
-          <cell r="AD7">
-            <v>3.0601033148382344E-2</v>
-          </cell>
-          <cell r="AE7">
-            <v>0</v>
-          </cell>
-          <cell r="AF7">
-            <v>0</v>
-          </cell>
-          <cell r="AG7">
-            <v>0</v>
-          </cell>
-          <cell r="AH7">
-            <v>0.83259862491559533</v>
-          </cell>
-          <cell r="AI7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="U8">
-            <v>-4.6666518731700187E-4</v>
-          </cell>
-          <cell r="V8">
-            <v>-3.8888765609750161E-4</v>
-          </cell>
-          <cell r="W8">
-            <v>0.10375008402047314</v>
-          </cell>
-          <cell r="AB8">
-            <v>0</v>
-          </cell>
-          <cell r="AC8">
-            <v>6.0873180402649462E-5</v>
-          </cell>
-          <cell r="AD8">
-            <v>2.9833606001700694E-2</v>
-          </cell>
-          <cell r="AE8">
-            <v>0</v>
-          </cell>
-          <cell r="AF8">
-            <v>0</v>
-          </cell>
-          <cell r="AG8">
-            <v>0</v>
-          </cell>
-          <cell r="AH8">
-            <v>0.86721098964083798</v>
-          </cell>
-          <cell r="AI8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="U9">
-            <v>0</v>
-          </cell>
-          <cell r="V9">
-            <v>0</v>
-          </cell>
-          <cell r="W9">
-            <v>6.8743792688376493E-2</v>
-          </cell>
-          <cell r="AB9">
-            <v>0</v>
-          </cell>
-          <cell r="AC9">
-            <v>0</v>
-          </cell>
-          <cell r="AD9">
-            <v>2.7157424920982495E-2</v>
-          </cell>
-          <cell r="AE9">
-            <v>0</v>
-          </cell>
-          <cell r="AF9">
-            <v>0</v>
-          </cell>
-          <cell r="AG9">
-            <v>0</v>
-          </cell>
-          <cell r="AH9">
-            <v>0.90409878239064101</v>
-          </cell>
-          <cell r="AI9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="U10">
-            <v>0</v>
-          </cell>
-          <cell r="V10">
-            <v>0</v>
-          </cell>
-          <cell r="W10">
-            <v>3.3731933711271818E-2</v>
-          </cell>
-          <cell r="AB10">
-            <v>0</v>
-          </cell>
-          <cell r="AC10">
-            <v>6.1471064121409959E-5</v>
-          </cell>
-          <cell r="AD10">
-            <v>2.3109960888650711E-2</v>
-          </cell>
-          <cell r="AE10">
-            <v>0</v>
-          </cell>
-          <cell r="AF10">
-            <v>0</v>
-          </cell>
-          <cell r="AG10">
-            <v>0</v>
-          </cell>
-          <cell r="AH10">
-            <v>0.94295986911539076</v>
-          </cell>
-          <cell r="AI10">
-            <v>1.3676522056529114E-4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="U11">
-            <v>0</v>
-          </cell>
-          <cell r="V11">
-            <v>0</v>
-          </cell>
-          <cell r="W11">
-            <v>-1.3609529531209555E-3</v>
-          </cell>
-          <cell r="AB11">
-            <v>0</v>
-          </cell>
-          <cell r="AC11">
-            <v>6.2229537646112665E-5</v>
-          </cell>
-          <cell r="AD11">
-            <v>1.9529018429213358E-2</v>
-          </cell>
-          <cell r="AE11">
-            <v>0</v>
-          </cell>
-          <cell r="AF11">
-            <v>0</v>
-          </cell>
-          <cell r="AG11">
-            <v>0</v>
-          </cell>
-          <cell r="AH11">
-            <v>0.96253925569226007</v>
-          </cell>
-          <cell r="AI11">
-            <v>1.923044929400131E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="U12">
-            <v>0</v>
-          </cell>
-          <cell r="V12">
-            <v>0</v>
-          </cell>
-          <cell r="W12">
-            <v>-7.7550351772633129E-4</v>
-          </cell>
-          <cell r="AB12">
-            <v>0</v>
-          </cell>
-          <cell r="AC12">
-            <v>5.9668268444387181E-5</v>
-          </cell>
-          <cell r="AD12">
-            <v>1.5898509310323182E-2</v>
-          </cell>
-          <cell r="AE12">
-            <v>0</v>
-          </cell>
-          <cell r="AF12">
-            <v>0</v>
-          </cell>
-          <cell r="AG12">
-            <v>0</v>
-          </cell>
-          <cell r="AH12">
-            <v>0.79472848664147222</v>
-          </cell>
-          <cell r="AI12">
-            <v>0.19008883929748643</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="U13">
-            <v>0</v>
-          </cell>
-          <cell r="V13">
-            <v>0</v>
-          </cell>
-          <cell r="W13">
-            <v>-7.1608985331571309E-5</v>
-          </cell>
-          <cell r="AB13">
-            <v>0</v>
-          </cell>
-          <cell r="AC13">
-            <v>5.6045320726849162E-5</v>
-          </cell>
-          <cell r="AD13">
-            <v>1.2285572412995891E-2</v>
-          </cell>
-          <cell r="AE13">
-            <v>0</v>
-          </cell>
-          <cell r="AF13">
-            <v>0</v>
-          </cell>
-          <cell r="AG13">
-            <v>0</v>
-          </cell>
-          <cell r="AH13">
-            <v>0.6185510654658245</v>
-          </cell>
-          <cell r="AI13">
-            <v>0.36917892578578421</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="U14">
-            <v>0</v>
-          </cell>
-          <cell r="V14">
-            <v>0</v>
-          </cell>
-          <cell r="W14">
-            <v>-1.6957195401925884E-4</v>
-          </cell>
-          <cell r="AB14">
-            <v>0</v>
-          </cell>
-          <cell r="AC14">
-            <v>5.4317063227791297E-5</v>
-          </cell>
-          <cell r="AD14">
-            <v>1.0159200350282244E-2</v>
-          </cell>
-          <cell r="AE14">
-            <v>0</v>
-          </cell>
-          <cell r="AF14">
-            <v>0</v>
-          </cell>
-          <cell r="AG14">
-            <v>0</v>
-          </cell>
-          <cell r="AH14">
-            <v>0.47108369436447789</v>
-          </cell>
-          <cell r="AI14">
-            <v>0.51887236017603144</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="U15">
-            <v>0</v>
-          </cell>
-          <cell r="V15">
-            <v>0</v>
-          </cell>
-          <cell r="W15">
-            <v>0</v>
-          </cell>
-          <cell r="AB15">
-            <v>0</v>
-          </cell>
-          <cell r="AC15">
-            <v>5.1879187314968443E-5</v>
-          </cell>
-          <cell r="AD15">
-            <v>7.8257384577390138E-3</v>
-          </cell>
-          <cell r="AE15">
-            <v>0</v>
-          </cell>
-          <cell r="AF15">
-            <v>0</v>
-          </cell>
-          <cell r="AG15">
-            <v>0</v>
-          </cell>
-          <cell r="AH15">
-            <v>0.31427239728298756</v>
-          </cell>
-          <cell r="AI15">
-            <v>0.67784998507195837</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="U16">
-            <v>0</v>
-          </cell>
-          <cell r="V16">
-            <v>0</v>
-          </cell>
-          <cell r="W16">
-            <v>-4.3847889195047763E-4</v>
-          </cell>
-          <cell r="AB16">
-            <v>0</v>
-          </cell>
-          <cell r="AC16">
-            <v>5.406528308341123E-5</v>
-          </cell>
-          <cell r="AD16">
-            <v>5.590939599079997E-3</v>
-          </cell>
-          <cell r="AE16">
-            <v>0</v>
-          </cell>
-          <cell r="AF16">
-            <v>0</v>
-          </cell>
-          <cell r="AG16">
-            <v>0</v>
-          </cell>
-          <cell r="AH16">
-            <v>0.24671313353744417</v>
-          </cell>
-          <cell r="AI16">
-            <v>0.74808034047234295</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="U17">
-            <v>0</v>
-          </cell>
-          <cell r="V17">
-            <v>0</v>
-          </cell>
-          <cell r="W17">
-            <v>0</v>
-          </cell>
-          <cell r="AB17">
-            <v>0</v>
-          </cell>
-          <cell r="AC17">
-            <v>5.2748455149190415E-5</v>
-          </cell>
-          <cell r="AD17">
-            <v>3.2009804215382726E-3</v>
-          </cell>
-          <cell r="AE17">
-            <v>0</v>
-          </cell>
-          <cell r="AF17">
-            <v>0</v>
-          </cell>
-          <cell r="AG17">
-            <v>0</v>
-          </cell>
-          <cell r="AH17">
-            <v>0.1966215428093403</v>
-          </cell>
-          <cell r="AI17">
-            <v>0.8001247283139723</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="U18">
-            <v>0</v>
-          </cell>
-          <cell r="V18">
-            <v>0</v>
-          </cell>
-          <cell r="W18">
-            <v>-9.3331188286351156E-5</v>
-          </cell>
-          <cell r="AB18">
-            <v>0</v>
-          </cell>
-          <cell r="AC18">
-            <v>5.410584258974003E-5</v>
-          </cell>
-          <cell r="AD18">
-            <v>1.574352456357426E-3</v>
-          </cell>
-          <cell r="AE18">
-            <v>0</v>
-          </cell>
-          <cell r="AF18">
-            <v>0</v>
-          </cell>
-          <cell r="AG18">
-            <v>0</v>
-          </cell>
-          <cell r="AH18">
-            <v>0.14878105893108692</v>
-          </cell>
-          <cell r="AI18">
-            <v>0.84968381395825232</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="U19">
-            <v>0</v>
-          </cell>
-          <cell r="V19">
-            <v>0</v>
-          </cell>
-          <cell r="W19">
-            <v>0</v>
-          </cell>
-          <cell r="AB19">
-            <v>0</v>
-          </cell>
-          <cell r="AC19">
-            <v>6.1423317113352258E-5</v>
-          </cell>
-          <cell r="AD19">
-            <v>4.2437009965344221E-4</v>
-          </cell>
-          <cell r="AE19">
-            <v>0</v>
-          </cell>
-          <cell r="AF19">
-            <v>0</v>
-          </cell>
-          <cell r="AG19">
-            <v>0</v>
-          </cell>
-          <cell r="AH19">
-            <v>0.12609982394776884</v>
-          </cell>
-          <cell r="AI19">
-            <v>0.87341438263546434</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="U20">
-            <v>0</v>
-          </cell>
-          <cell r="V20">
-            <v>0</v>
-          </cell>
-          <cell r="W20">
-            <v>0</v>
-          </cell>
-          <cell r="AB20">
-            <v>0</v>
-          </cell>
-          <cell r="AC20">
-            <v>6.6843867997460431E-5</v>
-          </cell>
-          <cell r="AD20">
-            <v>0</v>
-          </cell>
-          <cell r="AE20">
-            <v>0</v>
-          </cell>
-          <cell r="AF20">
-            <v>0</v>
-          </cell>
-          <cell r="AG20">
-            <v>0</v>
-          </cell>
-          <cell r="AH20">
-            <v>0.10274334076655466</v>
-          </cell>
-          <cell r="AI20">
-            <v>0.89718981536544784</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="U21">
-            <v>0</v>
-          </cell>
-          <cell r="V21">
-            <v>0</v>
-          </cell>
-          <cell r="W21">
-            <v>0</v>
-          </cell>
-          <cell r="AB21">
-            <v>0</v>
-          </cell>
-          <cell r="AC21">
-            <v>7.3160893563363531E-5</v>
-          </cell>
-          <cell r="AD21">
-            <v>0</v>
-          </cell>
-          <cell r="AE21">
-            <v>0</v>
-          </cell>
-          <cell r="AF21">
-            <v>0</v>
-          </cell>
-          <cell r="AG21">
-            <v>0</v>
-          </cell>
-          <cell r="AH21">
-            <v>7.1468824206331161E-2</v>
-          </cell>
-          <cell r="AI21">
-            <v>0.92845801490010549</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="U22">
-            <v>0</v>
-          </cell>
-          <cell r="V22">
-            <v>0</v>
-          </cell>
-          <cell r="W22">
-            <v>0</v>
-          </cell>
-          <cell r="AB22">
-            <v>0</v>
-          </cell>
-          <cell r="AC22">
-            <v>8.0234016155321185E-5</v>
-          </cell>
-          <cell r="AD22">
-            <v>0</v>
-          </cell>
-          <cell r="AE22">
-            <v>0</v>
-          </cell>
-          <cell r="AF22">
-            <v>0</v>
-          </cell>
-          <cell r="AG22">
-            <v>0</v>
-          </cell>
-          <cell r="AH22">
-            <v>3.5718040020694279E-2</v>
-          </cell>
-          <cell r="AI22">
-            <v>0.96420172596315046</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="U23">
-            <v>0</v>
-          </cell>
-          <cell r="V23">
-            <v>0</v>
-          </cell>
-          <cell r="W23">
-            <v>0</v>
-          </cell>
-          <cell r="AB23">
-            <v>5.4619733207480143E-3</v>
-          </cell>
-          <cell r="AC23">
-            <v>8.8663664349146118E-5</v>
-          </cell>
-          <cell r="AD23">
-            <v>0</v>
-          </cell>
-          <cell r="AE23">
-            <v>0</v>
-          </cell>
-          <cell r="AF23">
-            <v>0</v>
-          </cell>
-          <cell r="AG23">
-            <v>0</v>
-          </cell>
-          <cell r="AH23">
-            <v>-8.6460285722257777E-4</v>
-          </cell>
-          <cell r="AI23">
-            <v>0.99531396587212539</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="U24">
-            <v>0</v>
-          </cell>
-          <cell r="V24">
-            <v>0</v>
-          </cell>
-          <cell r="W24">
-            <v>0</v>
-          </cell>
-          <cell r="AB24">
-            <v>6.8708907182364609E-2</v>
-          </cell>
-          <cell r="AC24">
-            <v>9.6129038721270779E-5</v>
-          </cell>
-          <cell r="AD24">
-            <v>0</v>
-          </cell>
-          <cell r="AE24">
-            <v>0</v>
-          </cell>
-          <cell r="AF24">
-            <v>0</v>
-          </cell>
-          <cell r="AG24">
-            <v>0</v>
-          </cell>
-          <cell r="AH24">
-            <v>-1.661362708259907E-4</v>
-          </cell>
-          <cell r="AI24">
-            <v>0.93136110004974015</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="U25">
-            <v>0</v>
-          </cell>
-          <cell r="V25">
-            <v>0</v>
-          </cell>
-          <cell r="W25">
-            <v>0</v>
-          </cell>
-          <cell r="AB25">
-            <v>0.16769798082274415</v>
-          </cell>
-          <cell r="AC25">
-            <v>1.0603754919303136E-4</v>
-          </cell>
-          <cell r="AD25">
-            <v>0</v>
-          </cell>
-          <cell r="AE25">
-            <v>0</v>
-          </cell>
-          <cell r="AF25">
-            <v>0</v>
-          </cell>
-          <cell r="AG25">
-            <v>0</v>
-          </cell>
-          <cell r="AH25">
-            <v>-6.3190968678404223E-4</v>
-          </cell>
-          <cell r="AI25">
-            <v>0.8328278913148468</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="U26">
-            <v>0</v>
-          </cell>
-          <cell r="V26">
-            <v>0</v>
-          </cell>
-          <cell r="W26">
-            <v>0</v>
-          </cell>
-          <cell r="AB26">
-            <v>0.3382459735055553</v>
-          </cell>
-          <cell r="AC26">
-            <v>1.1616977205699821E-4</v>
-          </cell>
-          <cell r="AD26">
-            <v>0</v>
-          </cell>
-          <cell r="AE26">
-            <v>0</v>
-          </cell>
-          <cell r="AF26">
-            <v>0</v>
-          </cell>
-          <cell r="AG26">
-            <v>0</v>
-          </cell>
-          <cell r="AH26">
-            <v>0</v>
-          </cell>
-          <cell r="AI26">
-            <v>0.66163785672238762</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="U27">
-            <v>0</v>
-          </cell>
-          <cell r="V27">
-            <v>0</v>
-          </cell>
-          <cell r="W27">
-            <v>0</v>
-          </cell>
-          <cell r="AB27">
-            <v>0.51371390561926755</v>
-          </cell>
-          <cell r="AC27">
-            <v>1.3678970120040062E-4</v>
-          </cell>
-          <cell r="AD27">
-            <v>0</v>
-          </cell>
-          <cell r="AE27">
-            <v>0</v>
-          </cell>
-          <cell r="AF27">
-            <v>0</v>
-          </cell>
-          <cell r="AG27">
-            <v>0</v>
-          </cell>
-          <cell r="AH27">
-            <v>-1.3826866076528061E-3</v>
-          </cell>
-          <cell r="AI27">
-            <v>0.48753199128718488</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Summary"/>
-      <sheetName val="XCH Allocation"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="E2">
-            <v>7331.1351500288592</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>2702.4369041885366</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>40522.306839247452</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>313245.33722539881</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>48773.56793067939</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>59639.934469116335</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>92281.076849642806</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>98752.846041394805</v>
-          </cell>
-          <cell r="E9">
-            <v>106159.30949449941</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>73702.493727645313</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>235149.26040499116</v>
-          </cell>
-          <cell r="E11">
-            <v>246906.72342524072</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>10505.619791504278</v>
-          </cell>
-          <cell r="E12">
-            <v>11030.900781079492</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>17276.979617531899</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>135428.50541240559</v>
-          </cell>
-          <cell r="E14">
-            <v>145585.64331833602</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>40676.348266277222</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>290107.76076621248</v>
-          </cell>
-          <cell r="E16">
-            <v>311865.84282367839</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Summary - vol all BF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="33">
-          <cell r="H33">
-            <v>261411.10482706933</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Summary - BF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="33">
-          <cell r="H33">
-            <v>1891.6515663455048</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Summary - BF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="33">
-          <cell r="H33">
-            <v>42793.317773003218</v>
           </cell>
         </row>
       </sheetData>
@@ -2254,18 +1460,308 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
+      <sheetName val="Allocation"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="L33">
-            <v>33631.555074797754</v>
-          </cell>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="U5"/>
+          <cell r="V5"/>
+          <cell r="W5"/>
+          <cell r="AB5"/>
+          <cell r="AC5"/>
+          <cell r="AD5"/>
+          <cell r="AE5"/>
+          <cell r="AF5"/>
+          <cell r="AG5"/>
+          <cell r="AH5"/>
+          <cell r="AI5"/>
+        </row>
+        <row r="6">
+          <cell r="U6"/>
+          <cell r="V6"/>
+          <cell r="W6"/>
+          <cell r="AB6"/>
+          <cell r="AC6"/>
+          <cell r="AD6"/>
+          <cell r="AE6"/>
+          <cell r="AF6"/>
+          <cell r="AG6"/>
+          <cell r="AH6"/>
+          <cell r="AI6"/>
+        </row>
+        <row r="7">
+          <cell r="U7"/>
+          <cell r="V7"/>
+          <cell r="W7"/>
+          <cell r="AB7"/>
+          <cell r="AC7"/>
+          <cell r="AD7"/>
+          <cell r="AE7"/>
+          <cell r="AF7"/>
+          <cell r="AG7"/>
+          <cell r="AH7"/>
+          <cell r="AI7"/>
+        </row>
+        <row r="8">
+          <cell r="U8"/>
+          <cell r="V8"/>
+          <cell r="W8"/>
+          <cell r="AB8"/>
+          <cell r="AC8"/>
+          <cell r="AD8"/>
+          <cell r="AE8"/>
+          <cell r="AF8"/>
+          <cell r="AG8"/>
+          <cell r="AH8"/>
+          <cell r="AI8"/>
+        </row>
+        <row r="9">
+          <cell r="U9"/>
+          <cell r="V9"/>
+          <cell r="W9"/>
+          <cell r="AB9"/>
+          <cell r="AC9"/>
+          <cell r="AD9"/>
+          <cell r="AE9"/>
+          <cell r="AF9"/>
+          <cell r="AG9"/>
+          <cell r="AH9"/>
+          <cell r="AI9"/>
+        </row>
+        <row r="10">
+          <cell r="U10"/>
+          <cell r="V10"/>
+          <cell r="W10"/>
+          <cell r="AB10"/>
+          <cell r="AC10"/>
+          <cell r="AD10"/>
+          <cell r="AE10"/>
+          <cell r="AF10"/>
+          <cell r="AG10"/>
+          <cell r="AH10"/>
+          <cell r="AI10"/>
+        </row>
+        <row r="11">
+          <cell r="U11"/>
+          <cell r="V11"/>
+          <cell r="W11"/>
+          <cell r="AB11"/>
+          <cell r="AC11"/>
+          <cell r="AD11"/>
+          <cell r="AE11"/>
+          <cell r="AF11"/>
+          <cell r="AG11"/>
+          <cell r="AH11"/>
+          <cell r="AI11"/>
+        </row>
+        <row r="12">
+          <cell r="U12"/>
+          <cell r="V12"/>
+          <cell r="W12"/>
+          <cell r="AB12"/>
+          <cell r="AC12"/>
+          <cell r="AD12"/>
+          <cell r="AE12"/>
+          <cell r="AF12"/>
+          <cell r="AG12"/>
+          <cell r="AH12"/>
+          <cell r="AI12"/>
+        </row>
+        <row r="13">
+          <cell r="U13"/>
+          <cell r="V13"/>
+          <cell r="W13"/>
+          <cell r="AB13"/>
+          <cell r="AC13"/>
+          <cell r="AD13"/>
+          <cell r="AE13"/>
+          <cell r="AF13"/>
+          <cell r="AG13"/>
+          <cell r="AH13"/>
+          <cell r="AI13"/>
+        </row>
+        <row r="14">
+          <cell r="U14"/>
+          <cell r="V14"/>
+          <cell r="W14"/>
+          <cell r="AB14"/>
+          <cell r="AC14"/>
+          <cell r="AD14"/>
+          <cell r="AE14"/>
+          <cell r="AF14"/>
+          <cell r="AG14"/>
+          <cell r="AH14"/>
+          <cell r="AI14"/>
+        </row>
+        <row r="15">
+          <cell r="U15"/>
+          <cell r="V15"/>
+          <cell r="W15"/>
+          <cell r="AB15"/>
+          <cell r="AC15"/>
+          <cell r="AD15"/>
+          <cell r="AE15"/>
+          <cell r="AF15"/>
+          <cell r="AG15"/>
+          <cell r="AH15"/>
+          <cell r="AI15"/>
+        </row>
+        <row r="16">
+          <cell r="U16"/>
+          <cell r="V16"/>
+          <cell r="W16"/>
+          <cell r="AB16"/>
+          <cell r="AC16"/>
+          <cell r="AD16"/>
+          <cell r="AE16"/>
+          <cell r="AF16"/>
+          <cell r="AG16"/>
+          <cell r="AH16"/>
+          <cell r="AI16"/>
+        </row>
+        <row r="17">
+          <cell r="U17"/>
+          <cell r="V17"/>
+          <cell r="W17"/>
+          <cell r="AB17"/>
+          <cell r="AC17"/>
+          <cell r="AD17"/>
+          <cell r="AE17"/>
+          <cell r="AF17"/>
+          <cell r="AG17"/>
+          <cell r="AH17"/>
+          <cell r="AI17"/>
+        </row>
+        <row r="18">
+          <cell r="U18"/>
+          <cell r="V18"/>
+          <cell r="W18"/>
+          <cell r="AB18"/>
+          <cell r="AC18"/>
+          <cell r="AD18"/>
+          <cell r="AE18"/>
+          <cell r="AF18"/>
+          <cell r="AG18"/>
+          <cell r="AH18"/>
+          <cell r="AI18"/>
+        </row>
+        <row r="19">
+          <cell r="U19"/>
+          <cell r="V19"/>
+          <cell r="W19"/>
+          <cell r="AB19"/>
+          <cell r="AC19"/>
+          <cell r="AD19"/>
+          <cell r="AE19"/>
+          <cell r="AF19"/>
+          <cell r="AG19"/>
+          <cell r="AH19"/>
+          <cell r="AI19"/>
+        </row>
+        <row r="20">
+          <cell r="U20"/>
+          <cell r="V20"/>
+          <cell r="W20"/>
+          <cell r="AB20"/>
+          <cell r="AC20"/>
+          <cell r="AD20"/>
+          <cell r="AE20"/>
+          <cell r="AF20"/>
+          <cell r="AG20"/>
+          <cell r="AH20"/>
+          <cell r="AI20"/>
+        </row>
+        <row r="21">
+          <cell r="U21"/>
+          <cell r="V21"/>
+          <cell r="W21"/>
+          <cell r="AB21"/>
+          <cell r="AC21"/>
+          <cell r="AD21"/>
+          <cell r="AE21"/>
+          <cell r="AF21"/>
+          <cell r="AG21"/>
+          <cell r="AH21"/>
+          <cell r="AI21"/>
+        </row>
+        <row r="22">
+          <cell r="U22"/>
+          <cell r="V22"/>
+          <cell r="W22"/>
+          <cell r="AB22"/>
+          <cell r="AC22"/>
+          <cell r="AD22"/>
+          <cell r="AE22"/>
+          <cell r="AF22"/>
+          <cell r="AG22"/>
+          <cell r="AH22"/>
+          <cell r="AI22"/>
+        </row>
+        <row r="23">
+          <cell r="U23"/>
+          <cell r="V23"/>
+          <cell r="W23"/>
+          <cell r="AB23"/>
+          <cell r="AC23"/>
+          <cell r="AD23"/>
+          <cell r="AE23"/>
+          <cell r="AF23"/>
+          <cell r="AG23"/>
+          <cell r="AH23"/>
+          <cell r="AI23"/>
+        </row>
+        <row r="24">
+          <cell r="U24"/>
+          <cell r="V24"/>
+          <cell r="W24"/>
+          <cell r="AB24"/>
+          <cell r="AC24"/>
+          <cell r="AD24"/>
+          <cell r="AE24"/>
+          <cell r="AF24"/>
+          <cell r="AG24"/>
+          <cell r="AH24"/>
+          <cell r="AI24"/>
+        </row>
+        <row r="25">
+          <cell r="U25"/>
+          <cell r="V25"/>
+          <cell r="W25"/>
+          <cell r="AB25"/>
+          <cell r="AC25"/>
+          <cell r="AD25"/>
+          <cell r="AE25"/>
+          <cell r="AF25"/>
+          <cell r="AG25"/>
+          <cell r="AH25"/>
+          <cell r="AI25"/>
+        </row>
+        <row r="26">
+          <cell r="U26"/>
+          <cell r="V26"/>
+          <cell r="W26"/>
+          <cell r="AB26"/>
+          <cell r="AC26"/>
+          <cell r="AD26"/>
+          <cell r="AE26"/>
+          <cell r="AF26"/>
+          <cell r="AG26"/>
+          <cell r="AH26"/>
+          <cell r="AI26"/>
+        </row>
+        <row r="27">
+          <cell r="U27"/>
+          <cell r="V27"/>
+          <cell r="W27"/>
+          <cell r="AB27"/>
+          <cell r="AC27"/>
+          <cell r="AD27"/>
+          <cell r="AE27"/>
+          <cell r="AF27"/>
+          <cell r="AG27"/>
+          <cell r="AH27"/>
+          <cell r="AI27"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -2274,6 +1770,138 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Summary"/>
+      <sheetName val="XCH Allocation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>7331.1351500288592</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>2033.5254338214177</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>40522.306839247452</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>281016.93768909952</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>46002.816605978456</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>70406.653451535385</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>91458.206718460147</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>96419.205398414633</v>
+          </cell>
+          <cell r="E9">
+            <v>103650.64580329573</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>66870.901055892682</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>198763.94594252511</v>
+          </cell>
+          <cell r="E11">
+            <v>208702.14323965137</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>7794.7526975402152</v>
+          </cell>
+          <cell r="E12">
+            <v>8184.4903324172265</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>18509.175596435849</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>102492.40337272087</v>
+          </cell>
+          <cell r="E14">
+            <v>110179.33362567495</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>36153.921705407585</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>49779.154849274884</v>
+          </cell>
+          <cell r="E16">
+            <v>53512.5914629705</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="H33">
+            <v>2723.1403435339134</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2316,7 +1944,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2326,14 +1954,16 @@
       <sheetName val="Completion Factors"/>
       <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
+      <sheetName val="Summary - BF"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
         <row r="33">
           <cell r="H33">
-            <v>37695.16915278833</v>
+            <v>66316.741576809363</v>
           </cell>
         </row>
       </sheetData>
@@ -2342,7 +1972,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2383,7 +2013,35 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Plot Patterns"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Summary - Vol All BF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="33">
+          <cell r="H33">
+            <v>242843.95758610716</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2418,120 +2076,6 @@
         <row r="36">
           <cell r="H36">
             <v>88593.393911147272</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Document"/>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="EOB Information"/>
-      <sheetName val="PT"/>
-      <sheetName val="Sch H"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Premium"/>
-      <sheetName val="PL"/>
-      <sheetName val="Plan Code Table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="35">
-          <cell r="H35">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36">
-            <v>32709.246771985087</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>55479.008808480314</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="PLAN CODE TABLE"/>
-      <sheetName val="Split_By_LOB"/>
-      <sheetName val="EOB Information"/>
-      <sheetName val="Claim Triangle"/>
-      <sheetName val="Sch H"/>
-      <sheetName val="PL"/>
-      <sheetName val="Premium"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Assume split"/>
-      <sheetName val="Completion Factors"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="35">
-          <cell r="H35">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36">
-            <v>43941.36</v>
           </cell>
         </row>
       </sheetData>
@@ -2873,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C38D66-6A3A-466E-8973-92ABD33CCFF7}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2946,7 +2490,7 @@
       </c>
       <c r="B2" s="6">
         <f>+[1]Summary!$H$33</f>
-        <v>6819.6606046780089</v>
+        <v>23491.995563699245</v>
       </c>
       <c r="C2" s="3">
         <f>+[2]Summary!$H$35</f>
@@ -2954,23 +2498,23 @@
       </c>
       <c r="D2" s="5">
         <f>+B2*C2</f>
-        <v>511.47454535085063</v>
+        <v>1761.8996672774433</v>
       </c>
       <c r="E2" s="5">
         <f>+B2+D2</f>
-        <v>7331.1351500288592</v>
+        <v>25253.89523097669</v>
       </c>
       <c r="G2" s="6">
-        <f>[24]Summary!E2</f>
+        <f>[3]Summary!E2</f>
         <v>7331.1351500288592</v>
       </c>
       <c r="H2" s="6">
         <f>+E2-G2</f>
-        <v>0</v>
+        <v>17922.760080947832</v>
       </c>
       <c r="I2" s="7">
         <f>+H2/G2</f>
-        <v>0</v>
+        <v>2.4447455563381992</v>
       </c>
       <c r="J2" s="26">
         <f>+[2]Summary!$H$36</f>
@@ -2978,13 +2522,15 @@
       </c>
       <c r="K2" s="26">
         <f>+E2-J2</f>
-        <v>-2863.0465437963348</v>
+        <v>15059.713537151496</v>
       </c>
       <c r="L2" s="27">
         <f>+K2/J2</f>
-        <v>-0.28085104128863386</v>
-      </c>
-      <c r="M2" s="8"/>
+        <v>1.4772851798662217</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="O2" t="s">
         <v>28</v>
       </c>
@@ -2992,323 +2538,323 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="39">
-        <f>+'[26]Summary - BF'!$H$33</f>
-        <v>1891.6515663455048</v>
-      </c>
-      <c r="C3" s="40">
-        <f>+[3]Summary!$H$35</f>
+      <c r="B3" s="6">
+        <f>+[4]Summary!$H$33</f>
+        <v>2723.1403435339134</v>
+      </c>
+      <c r="C3" s="38">
+        <f>+[5]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D3" s="28">
         <f t="shared" ref="D3:D16" si="0">+B3*C3</f>
-        <v>141.87386747591285</v>
+        <v>204.23552576504349</v>
       </c>
       <c r="E3" s="28">
         <f t="shared" ref="E3:E16" si="1">+B3+D3</f>
+        <v>2927.3758692989568</v>
+      </c>
+      <c r="G3" s="6">
+        <f>[3]Summary!E3</f>
         <v>2033.5254338214177</v>
       </c>
-      <c r="G3" s="39">
-        <f>[24]Summary!E3</f>
-        <v>2702.4369041885366</v>
-      </c>
-      <c r="H3" s="39">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H16" si="2">+E3-G3</f>
-        <v>-668.91147036711891</v>
+        <v>893.85043547753912</v>
       </c>
       <c r="I3" s="29">
         <f t="shared" ref="I3:I16" si="3">+H3/G3</f>
-        <v>-0.24752158665771834</v>
-      </c>
-      <c r="J3" s="39">
-        <f>+[3]Summary!$H$36</f>
+        <v>0.43955704738730905</v>
+      </c>
+      <c r="J3" s="6">
+        <f>+[5]Summary!$H$36</f>
         <v>2852.8990141421973</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K16" si="4">+E3-J3</f>
-        <v>-819.37358032077964</v>
+        <v>74.476855156759484</v>
       </c>
       <c r="L3" s="29">
         <f t="shared" ref="L3:L16" si="5">+K3/J3</f>
-        <v>-0.28720735513561346</v>
+        <v>2.6105675240367034E-2</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="39">
-        <f>+[4]Summary!$H$33</f>
-        <v>37695.16915278833</v>
-      </c>
-      <c r="C4" s="40">
-        <f>+[5]Summary!$H$35</f>
+      <c r="B4" s="6">
+        <f>+'[6]Summary - BF'!$H$33</f>
+        <v>66316.741576809363</v>
+      </c>
+      <c r="C4" s="38">
+        <f>+[7]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D4" s="28">
         <f t="shared" si="0"/>
-        <v>2827.1376864591248</v>
+        <v>4973.7556182607022</v>
       </c>
       <c r="E4" s="28">
         <f t="shared" si="1"/>
+        <v>71290.497195070071</v>
+      </c>
+      <c r="G4" s="6">
+        <f>[3]Summary!E4</f>
         <v>40522.306839247452</v>
       </c>
-      <c r="G4" s="39">
-        <f>[24]Summary!E4</f>
-        <v>40522.306839247452</v>
-      </c>
-      <c r="H4" s="39">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30768.190355822619</v>
       </c>
       <c r="I4" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="39">
-        <f>+[5]Summary!$H$36</f>
+        <v>0.75929019731972447</v>
+      </c>
+      <c r="J4" s="6">
+        <f>+[7]Summary!$H$36</f>
         <v>46527.596958871203</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="6">
         <f t="shared" si="4"/>
-        <v>-6005.2901196237508</v>
+        <v>24762.900236198868</v>
       </c>
       <c r="L4" s="29">
         <f t="shared" si="5"/>
-        <v>-0.12906942357096629</v>
+        <v>0.53221962565761605</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="38" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39">
-        <f>+'[25]Summary - vol all BF'!$H$33</f>
-        <v>261411.10482706933</v>
-      </c>
-      <c r="C5" s="40">
-        <f>+[6]Summary!$H$35</f>
+      <c r="B5" s="6">
+        <f>+'[8]Summary - Vol All BF'!$H$33</f>
+        <v>242843.95758610716</v>
+      </c>
+      <c r="C5" s="38">
+        <f>+[9]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>19605.832862030198</v>
+        <v>18213.296818958035</v>
       </c>
       <c r="E5" s="28">
         <f>+B5+D5</f>
+        <v>261057.25440506521</v>
+      </c>
+      <c r="G5" s="6">
+        <f>[3]Summary!E5</f>
         <v>281016.93768909952</v>
       </c>
-      <c r="G5" s="39">
-        <f>[24]Summary!E5</f>
-        <v>313245.33722539881</v>
-      </c>
-      <c r="H5" s="39">
-        <f t="shared" si="2"/>
-        <v>-32228.399536299286</v>
+      <c r="H5" s="6">
+        <f>+E5-G5</f>
+        <v>-19959.683284034312</v>
       </c>
       <c r="I5" s="29">
         <f>+H5/G5</f>
-        <v>-0.1028854884856882</v>
-      </c>
-      <c r="J5" s="39">
-        <f>+[6]Summary!$H$36</f>
+        <v>-7.102662013247231E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <f>+[9]Summary!$H$36</f>
         <v>88593.393911147272</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="6">
         <f t="shared" si="4"/>
-        <v>192423.54377795226</v>
+        <v>172463.86049391795</v>
       </c>
       <c r="L5" s="29">
         <f t="shared" si="5"/>
-        <v>2.1719852382101883</v>
-      </c>
-      <c r="M5" s="41" t="s">
+        <v>1.9466898476300236</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="39">
-        <f>+'[27]Summary - BF'!$H$33</f>
-        <v>42793.317773003218</v>
-      </c>
-      <c r="C6" s="40">
-        <f>+[7]Summary!$H$35</f>
+      <c r="B6" s="6">
+        <f>+'[10]Summary - BF'!$H$33</f>
+        <v>45647.363297129654</v>
+      </c>
+      <c r="C6" s="38">
+        <f>+[11]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
-        <v>3209.4988329752414</v>
+        <v>3423.5522472847238</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" si="1"/>
+        <v>49070.915544414376</v>
+      </c>
+      <c r="G6" s="6">
+        <f>[3]Summary!E6</f>
         <v>46002.816605978456</v>
       </c>
-      <c r="G6" s="39">
-        <f>[24]Summary!E6</f>
-        <v>48773.56793067939</v>
-      </c>
-      <c r="H6" s="39">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>-2770.7513247009338</v>
+        <v>3068.09893843592</v>
       </c>
       <c r="I6" s="29">
         <f t="shared" si="3"/>
-        <v>-5.6808460858121572E-2</v>
-      </c>
-      <c r="J6" s="39">
-        <f>+[7]Summary!$H$36</f>
+        <v>6.6693719315377625E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <f>+[11]Summary!$H$36</f>
         <v>32709.246771985087</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="6">
         <f t="shared" si="4"/>
-        <v>13293.56983399337</v>
+        <v>16361.66877242929</v>
       </c>
       <c r="L6" s="29">
         <f t="shared" si="5"/>
-        <v>0.40641626285870597</v>
+        <v>0.50021539433438689</v>
       </c>
       <c r="M6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="39">
-        <f>+[8]Summary!$H$33</f>
-        <v>55479.008808480314</v>
-      </c>
-      <c r="C7" s="40">
-        <f>+[9]Summary!$H$35</f>
+      <c r="B7" s="6">
+        <f>+[12]Summary!$H$33</f>
+        <v>52737.937858006539</v>
+      </c>
+      <c r="C7" s="38">
+        <f>+[13]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D7" s="28">
         <f t="shared" si="0"/>
-        <v>4160.9256606360232</v>
+        <v>3955.3453393504901</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="1"/>
-        <v>59639.934469116335</v>
-      </c>
-      <c r="G7" s="39">
-        <f>[24]Summary!E7</f>
-        <v>59639.934469116335</v>
-      </c>
-      <c r="H7" s="39">
+        <v>56693.283197357028</v>
+      </c>
+      <c r="G7" s="6">
+        <f>[3]Summary!E7</f>
+        <v>70406.653451535385</v>
+      </c>
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-13713.370254178357</v>
       </c>
       <c r="I7" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="39">
-        <f>+[9]Summary!$H$36</f>
+        <v>-0.1947737831853916</v>
+      </c>
+      <c r="J7" s="6">
+        <f>+[13]Summary!$H$36</f>
         <v>43941.36</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="6">
         <f t="shared" si="4"/>
-        <v>15698.574469116335</v>
+        <v>12751.923197357028</v>
       </c>
       <c r="L7" s="29">
         <f t="shared" si="5"/>
-        <v>0.357261916088085</v>
+        <v>0.290203198020203</v>
       </c>
       <c r="M7" s="24"/>
-      <c r="O7" s="38" t="s">
+      <c r="O7" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="39">
-        <f>+[10]Summary!$H$33</f>
-        <v>85842.862185714243</v>
-      </c>
-      <c r="C8" s="40">
-        <f>+[11]Summary!$H$35</f>
+      <c r="B8" s="6">
+        <f>+[14]Summary!$H$33</f>
+        <v>77313.679947327677</v>
+      </c>
+      <c r="C8" s="38">
+        <f>+[15]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D8" s="28">
         <f t="shared" si="0"/>
-        <v>6438.2146639285684</v>
+        <v>5798.525996049576</v>
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>92281.076849642806</v>
-      </c>
-      <c r="G8" s="39">
-        <f>[24]Summary!E8</f>
-        <v>92281.076849642806</v>
-      </c>
-      <c r="H8" s="39">
+        <v>83112.205943377252</v>
+      </c>
+      <c r="G8" s="6">
+        <f>[3]Summary!E8</f>
+        <v>91458.206718460147</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-8346.0007750828954</v>
       </c>
       <c r="I8" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="39">
-        <f>+[11]Summary!$H$36</f>
+        <v>-9.1254804511690893E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <f>+[15]Summary!$H$36</f>
         <v>158653.1571364796</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="6">
         <f t="shared" si="4"/>
-        <v>-66372.08028683679</v>
+        <v>-75540.951193102344</v>
       </c>
       <c r="L8" s="29">
         <f t="shared" si="5"/>
-        <v>-0.41834705016138413</v>
+        <v>-0.47613897231253388</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="O8" s="38" t="s">
+      <c r="O8" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3317,24 +2863,24 @@
         <v>11</v>
       </c>
       <c r="B9" s="31">
-        <f>[24]Summary!B9</f>
-        <v>98752.846041394805</v>
+        <f>[3]Summary!B9</f>
+        <v>96419.205398414633</v>
       </c>
       <c r="C9" s="32">
-        <f>+[12]Summary!$H$35</f>
+        <f>+[16]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
-        <v>7406.4634531046104</v>
+        <v>7231.4404048810975</v>
       </c>
       <c r="E9" s="33">
         <f t="shared" si="1"/>
-        <v>106159.30949449941</v>
+        <v>103650.64580329573</v>
       </c>
       <c r="G9" s="31">
-        <f>[24]Summary!E9</f>
-        <v>106159.30949449941</v>
+        <f>[3]Summary!E9</f>
+        <v>103650.64580329573</v>
       </c>
       <c r="H9" s="31">
         <f t="shared" si="2"/>
@@ -3345,16 +2891,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="31">
-        <f>+[12]Summary!$H$36</f>
+        <f>+[16]Summary!$H$36</f>
         <v>167515.8389747378</v>
       </c>
       <c r="K9" s="31">
         <f t="shared" si="4"/>
-        <v>-61356.529480238387</v>
+        <v>-63865.193171442064</v>
       </c>
       <c r="L9" s="34">
         <f t="shared" si="5"/>
-        <v>-0.3662730035306766</v>
+        <v>-0.38124868407860374</v>
       </c>
       <c r="M9" s="35"/>
       <c r="O9" s="30" t="s">
@@ -3364,55 +2910,55 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="39">
-        <f>+[13]Summary!$H$33</f>
-        <v>68560.459281530522</v>
-      </c>
-      <c r="C10" s="40">
-        <f>+[14]Summary!$H$35</f>
+      <c r="B10" s="6">
+        <f>+[17]Summary!$H$33</f>
+        <v>66036.514801389232</v>
+      </c>
+      <c r="C10" s="38">
+        <f>+[18]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D10" s="28">
         <f t="shared" si="0"/>
-        <v>5142.0344461147888</v>
+        <v>4952.738610104192</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>73702.493727645313</v>
-      </c>
-      <c r="G10" s="39">
-        <f>[24]Summary!E10</f>
-        <v>73702.493727645313</v>
-      </c>
-      <c r="H10" s="39">
+        <v>70989.253411493424</v>
+      </c>
+      <c r="G10" s="6">
+        <f>[3]Summary!E10</f>
+        <v>66870.901055892682</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4118.3523556007422</v>
       </c>
       <c r="I10" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="39">
-        <f>+[14]Summary!$H$36</f>
+        <v>6.1586613767302179E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <f>+[18]Summary!$H$36</f>
         <v>61403.00276625227</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="6">
         <f t="shared" si="4"/>
-        <v>12299.490961393043</v>
+        <v>9586.2506452411544</v>
       </c>
       <c r="L10" s="29">
         <f t="shared" si="5"/>
-        <v>0.2003076463249607</v>
+        <v>0.15612022561394762</v>
       </c>
       <c r="M10" s="24"/>
-      <c r="O10" s="38" t="s">
+      <c r="O10" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3421,23 +2967,23 @@
         <v>19</v>
       </c>
       <c r="B11" s="31">
-        <f>[24]Summary!B11</f>
-        <v>235149.26040499116</v>
+        <f>[3]Summary!B11</f>
+        <v>198763.94594252511</v>
       </c>
       <c r="C11" s="32">
         <v>0.05</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
-        <v>11757.463020249559</v>
+        <v>9938.1972971262567</v>
       </c>
       <c r="E11" s="33">
         <f t="shared" si="1"/>
-        <v>246906.72342524072</v>
+        <v>208702.14323965137</v>
       </c>
       <c r="G11" s="31">
-        <f>[24]Summary!E11</f>
-        <v>246906.72342524072</v>
+        <f>[3]Summary!E11</f>
+        <v>208702.14323965137</v>
       </c>
       <c r="H11" s="31">
         <f t="shared" si="2"/>
@@ -3448,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="31">
-        <f>+[15]Summary!$E$36-[15]Summary!$E$35</f>
+        <f>+[19]Summary!$E$36-[19]Summary!$E$35</f>
         <v>121236.15000000002</v>
       </c>
       <c r="K11" s="31">
         <f t="shared" ref="K11" si="6">+E11-J11</f>
-        <v>125670.5734252407</v>
+        <v>87465.993239651347</v>
       </c>
       <c r="L11" s="34">
         <f t="shared" ref="L11" si="7">+K11/J11</f>
-        <v>1.0365767423762688</v>
+        <v>0.72145142550016084</v>
       </c>
       <c r="M11" s="35"/>
       <c r="O11" s="30" t="s">
@@ -3472,23 +3018,23 @@
         <v>20</v>
       </c>
       <c r="B12" s="31">
-        <f>[24]Summary!B12</f>
-        <v>10505.619791504278</v>
+        <f>[3]Summary!B12</f>
+        <v>7794.7526975402152</v>
       </c>
       <c r="C12" s="32">
         <v>0.05</v>
       </c>
       <c r="D12" s="33">
         <f t="shared" si="0"/>
-        <v>525.28098957521388</v>
+        <v>389.73763487701081</v>
       </c>
       <c r="E12" s="33">
         <f t="shared" si="1"/>
-        <v>11030.900781079492</v>
+        <v>8184.4903324172265</v>
       </c>
       <c r="G12" s="31">
-        <f>[24]Summary!E12</f>
-        <v>11030.900781079492</v>
+        <f>[3]Summary!E12</f>
+        <v>8184.4903324172265</v>
       </c>
       <c r="H12" s="31">
         <f t="shared" si="2"/>
@@ -3499,16 +3045,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="31">
-        <f>+[16]Summary!$E$36</f>
+        <f>+[20]Summary!$E$36</f>
         <v>21308.7</v>
       </c>
       <c r="K12" s="31">
         <f t="shared" ref="K12" si="8">+E12-J12</f>
-        <v>-10277.799218920509</v>
+        <v>-13124.209667582774</v>
       </c>
       <c r="L12" s="34">
         <f t="shared" ref="L12" si="9">+K12/J12</f>
-        <v>-0.48232877739704949</v>
+        <v>-0.61590851002561275</v>
       </c>
       <c r="M12" s="35"/>
       <c r="O12" s="30" t="s">
@@ -3518,57 +3064,57 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="39">
-        <f>+[17]Summary!$H$33</f>
-        <v>160017.84869688915</v>
-      </c>
-      <c r="C13" s="40">
-        <f>+[18]Summary!$H$35</f>
+      <c r="B13" s="6">
+        <f>+[21]Summary!$H$33</f>
+        <v>21148.367656214825</v>
+      </c>
+      <c r="C13" s="38">
+        <f>+[22]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D13" s="28">
         <f t="shared" si="0"/>
-        <v>12001.338652266686</v>
+        <v>1586.1275742161117</v>
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>172019.18734915584</v>
-      </c>
-      <c r="G13" s="39">
-        <f>[24]Summary!E13</f>
-        <v>17276.979617531899</v>
-      </c>
-      <c r="H13" s="39">
+        <v>22734.495230430937</v>
+      </c>
+      <c r="G13" s="6">
+        <f>[3]Summary!E13</f>
+        <v>18509.175596435849</v>
+      </c>
+      <c r="H13" s="6">
         <f t="shared" si="2"/>
-        <v>154742.20773162393</v>
+        <v>4225.3196339950882</v>
       </c>
       <c r="I13" s="29">
         <f t="shared" si="3"/>
-        <v>8.9565543953411009</v>
-      </c>
-      <c r="J13" s="39">
-        <f>+[18]Summary!$H$36</f>
+        <v>0.22828243278478169</v>
+      </c>
+      <c r="J13" s="6">
+        <f>+[22]Summary!$H$36</f>
         <v>22925.112714356808</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="6">
         <f t="shared" si="4"/>
-        <v>149094.07463479904</v>
+        <v>-190.61748392587106</v>
       </c>
       <c r="L13" s="29">
         <f t="shared" si="5"/>
-        <v>6.5035263508837255</v>
+        <v>-8.3147893884289274E-3</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3577,24 +3123,24 @@
         <v>18</v>
       </c>
       <c r="B14" s="31">
-        <f>[24]Summary!B14</f>
-        <v>135428.50541240559</v>
+        <f>[3]Summary!B14</f>
+        <v>102492.40337272087</v>
       </c>
       <c r="C14" s="32">
-        <f>+[19]Summary!$H$35</f>
+        <f>+[23]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D14" s="33">
         <f t="shared" si="0"/>
-        <v>10157.137905930418</v>
+        <v>7686.9302529540655</v>
       </c>
       <c r="E14" s="33">
         <f t="shared" si="1"/>
-        <v>145585.64331833602</v>
+        <v>110179.33362567495</v>
       </c>
       <c r="G14" s="31">
-        <f>[24]Summary!E14</f>
-        <v>145585.64331833602</v>
+        <f>[3]Summary!E14</f>
+        <v>110179.33362567495</v>
       </c>
       <c r="H14" s="31">
         <f t="shared" si="2"/>
@@ -3605,16 +3151,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="31">
-        <f>+[19]Summary!$H$36</f>
+        <f>+[23]Summary!$H$36</f>
         <v>60621.568508703676</v>
       </c>
       <c r="K14" s="31">
         <f t="shared" si="4"/>
-        <v>84964.074809632351</v>
+        <v>49557.76511697127</v>
       </c>
       <c r="L14" s="34">
         <f t="shared" si="5"/>
-        <v>1.4015486055500812</v>
+        <v>0.81749394375792284</v>
       </c>
       <c r="M14" s="35"/>
       <c r="O14" s="30" t="s">
@@ -3624,57 +3170,55 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="39">
-        <f>+[28]Summary!$L$33</f>
-        <v>33631.555074797754</v>
-      </c>
-      <c r="C15" s="40">
-        <f>+[20]Summary!$L$35</f>
+      <c r="B15" s="6">
+        <f>+[24]Summary!$L$33</f>
+        <v>37312.660864339989</v>
+      </c>
+      <c r="C15" s="38">
+        <f>+[25]Summary!$L$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D15" s="28">
         <f t="shared" si="0"/>
-        <v>2522.3666306098316</v>
+        <v>2798.4495648254992</v>
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
+        <v>40111.110429165485</v>
+      </c>
+      <c r="G15" s="6">
+        <f>[3]Summary!E15</f>
         <v>36153.921705407585</v>
       </c>
-      <c r="G15" s="39">
-        <f>[24]Summary!E15</f>
-        <v>40676.348266277222</v>
-      </c>
-      <c r="H15" s="39">
+      <c r="H15" s="6">
         <f t="shared" si="2"/>
-        <v>-4522.4265608696369</v>
+        <v>3957.1887237578994</v>
       </c>
       <c r="I15" s="29">
         <f t="shared" si="3"/>
-        <v>-0.11118074147818624</v>
-      </c>
-      <c r="J15" s="39">
-        <f>+[20]Summary!$L$36</f>
+        <v>0.10945392746054484</v>
+      </c>
+      <c r="J15" s="6">
+        <f>+[25]Summary!$L$36</f>
         <v>70721.566596096614</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="6">
         <f t="shared" si="4"/>
-        <v>-34567.644890689029</v>
+        <v>-30610.45616693113</v>
       </c>
       <c r="L15" s="29">
         <f t="shared" si="5"/>
-        <v>-0.48878505602274008</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" s="38" t="s">
+        <v>-0.43283057262790658</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="O15" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3683,24 +3227,24 @@
         <v>16</v>
       </c>
       <c r="B16" s="31">
-        <f>[24]Summary!B16</f>
-        <v>290107.76076621248</v>
+        <f>[3]Summary!B16</f>
+        <v>49779.154849274884</v>
       </c>
       <c r="C16" s="32">
-        <f>+[21]Summary!$H$35</f>
+        <f>+[26]Summary!$H$35</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="33">
         <f t="shared" si="0"/>
-        <v>21758.082057465934</v>
+        <v>3733.436613695616</v>
       </c>
       <c r="E16" s="33">
         <f t="shared" si="1"/>
-        <v>311865.84282367839</v>
+        <v>53512.5914629705</v>
       </c>
       <c r="G16" s="31">
-        <f>[24]Summary!E16</f>
-        <v>311865.84282367839</v>
+        <f>[3]Summary!E16</f>
+        <v>53512.5914629705</v>
       </c>
       <c r="H16" s="31">
         <f t="shared" si="2"/>
@@ -3711,16 +3255,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="31">
-        <f>+[21]Summary!$H$36</f>
+        <f>+[26]Summary!$H$36</f>
         <v>777303.67606529</v>
       </c>
       <c r="K16" s="31">
         <f t="shared" si="4"/>
-        <v>-465437.8332416116</v>
+        <v>-723791.08460231952</v>
       </c>
       <c r="L16" s="34">
         <f t="shared" si="5"/>
-        <v>-0.59878506634325623</v>
+        <v>-0.93115613226756999</v>
       </c>
       <c r="M16" s="35"/>
       <c r="O16" s="30" t="s">
@@ -3740,29 +3284,29 @@
       </c>
       <c r="B18" s="37">
         <f>+SUM(B2:B17)</f>
-        <v>1524086.6303878045</v>
+        <v>1090821.8217550332</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="37">
         <f>+SUM(D2:D17)</f>
-        <v>108165.12527417297</v>
+        <v>76647.669165625877</v>
       </c>
       <c r="E18" s="37">
         <f>+SUM(E2:E17)</f>
-        <v>1632251.7556619777</v>
+        <v>1167469.4909206589</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="37">
         <f>+SUM(G2:G17)</f>
-        <v>1517700.036822591</v>
+        <v>1144534.7847099171</v>
       </c>
       <c r="H18" s="37">
         <f>+SUM(H2:H17)</f>
-        <v>114551.71883938694</v>
+        <v>22934.706210742072</v>
       </c>
       <c r="I18" s="29">
         <f>+H18/G18</f>
-        <v>7.547717998294895E-2</v>
+        <v>2.0038452755767388E-2</v>
       </c>
       <c r="J18" s="37">
         <f>+SUM(J2:J17)</f>
@@ -3770,18 +3314,39 @@
       </c>
       <c r="K18" s="37">
         <f>+SUM(K2:K17)</f>
-        <v>-54255.695449910127</v>
+        <v>-519037.96019122849</v>
       </c>
       <c r="L18" s="29">
         <f>+K18/J18</f>
-        <v>-3.2170445149317425E-2</v>
+        <v>-0.3077590673252199</v>
       </c>
       <c r="M18" s="24"/>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:M20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3877,39 +3442,39 @@
       </c>
       <c r="B4" s="21">
         <f>+SUM(B5:B28)</f>
-        <v>116794.18731461056</v>
+        <v>33453.88956995491</v>
       </c>
       <c r="C4" s="21">
         <f>+SUM(C5:C28)</f>
-        <v>-2.671487169057732E-3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="21">
         <f t="shared" ref="D4:N4" si="0">+SUM(D5:D28)</f>
-        <v>-2.2262393075481103E-3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" si="0"/>
-        <v>1.7922857673679862</v>
+        <v>0</v>
       </c>
       <c r="F4" s="21">
         <f t="shared" si="0"/>
-        <v>6422.6958842002614</v>
+        <v>0</v>
       </c>
       <c r="G4" s="21">
         <f t="shared" si="0"/>
-        <v>105509.02285811254</v>
+        <v>0</v>
       </c>
       <c r="H4" s="21">
         <f t="shared" si="0"/>
-        <v>4773.3096471743111</v>
+        <v>0</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" si="0"/>
-        <v>9.7615252036797138</v>
+        <v>0</v>
       </c>
       <c r="J4" s="21">
         <f t="shared" si="0"/>
-        <v>77.610011878868875</v>
+        <v>0</v>
       </c>
       <c r="K4" s="21">
         <f t="shared" si="0"/>
@@ -3925,16 +3490,16 @@
       </c>
       <c r="N4" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33453.88956995491</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <f>+[22]Summary!A8</f>
-        <v>45047</v>
+        <f>+[27]Summary!A8</f>
+        <v>45108</v>
       </c>
       <c r="B5" s="10">
-        <f>+[22]Summary!H8</f>
+        <f>+[27]Summary!H8</f>
         <v>0</v>
       </c>
       <c r="C5" s="11"/>
@@ -3955,55 +3520,55 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
-        <f>+[22]Summary!A9</f>
-        <v>45078</v>
+        <f>+[27]Summary!A9</f>
+        <v>45139</v>
       </c>
       <c r="B6" s="10">
-        <f>+[22]Summary!H9</f>
+        <f>+[27]Summary!H9</f>
         <v>0</v>
       </c>
       <c r="C6" s="11">
-        <f>+$B6*[23]Allocation!U5</f>
+        <f>+$B6*[28]Allocation!U5</f>
         <v>0</v>
       </c>
       <c r="D6" s="11">
-        <f>+$B6*[23]Allocation!V5</f>
+        <f>+$B6*[28]Allocation!V5</f>
         <v>0</v>
       </c>
       <c r="E6" s="11">
-        <f>+$B6*[23]Allocation!W5</f>
+        <f>+$B6*[28]Allocation!W5</f>
         <v>0</v>
       </c>
       <c r="F6" s="11">
-        <f>+$B6*[23]Allocation!AH5</f>
+        <f>+$B6*[28]Allocation!AH5</f>
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <f>+$B6*[23]Allocation!AI5</f>
+        <f>+$B6*[28]Allocation!AI5</f>
         <v>0</v>
       </c>
       <c r="H6" s="11">
-        <f>+$B6*[23]Allocation!AB5</f>
+        <f>+$B6*[28]Allocation!AB5</f>
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <f>+$B6*[23]Allocation!AC5</f>
+        <f>+$B6*[28]Allocation!AC5</f>
         <v>0</v>
       </c>
       <c r="J6" s="11">
-        <f>+$B6*[23]Allocation!AD5</f>
+        <f>+$B6*[28]Allocation!AD5</f>
         <v>0</v>
       </c>
       <c r="K6" s="11">
-        <f>+$B6*[23]Allocation!AE5</f>
+        <f>+$B6*[28]Allocation!AE5</f>
         <v>0</v>
       </c>
       <c r="L6" s="11">
-        <f>+$B6*[23]Allocation!AF5</f>
+        <f>+$B6*[28]Allocation!AF5</f>
         <v>0</v>
       </c>
       <c r="M6" s="11">
-        <f>+$B6*[23]Allocation!AG5</f>
+        <f>+$B6*[28]Allocation!AG5</f>
         <v>0</v>
       </c>
       <c r="N6" s="12">
@@ -4013,55 +3578,55 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
-        <f>+[22]Summary!A10</f>
-        <v>45108</v>
+        <f>+[27]Summary!A10</f>
+        <v>45170</v>
       </c>
       <c r="B7" s="10">
-        <f>+[22]Summary!H10</f>
+        <f>+[27]Summary!H10</f>
         <v>0</v>
       </c>
       <c r="C7" s="11">
-        <f>+$B7*[23]Allocation!U6</f>
+        <f>+$B7*[28]Allocation!U6</f>
         <v>0</v>
       </c>
       <c r="D7" s="11">
-        <f>+$B7*[23]Allocation!V6</f>
+        <f>+$B7*[28]Allocation!V6</f>
         <v>0</v>
       </c>
       <c r="E7" s="11">
-        <f>+$B7*[23]Allocation!W6</f>
+        <f>+$B7*[28]Allocation!W6</f>
         <v>0</v>
       </c>
       <c r="F7" s="11">
-        <f>+$B7*[23]Allocation!AH6</f>
+        <f>+$B7*[28]Allocation!AH6</f>
         <v>0</v>
       </c>
       <c r="G7" s="11">
-        <f>+$B7*[23]Allocation!AI6</f>
+        <f>+$B7*[28]Allocation!AI6</f>
         <v>0</v>
       </c>
       <c r="H7" s="11">
-        <f>+$B7*[23]Allocation!AB6</f>
+        <f>+$B7*[28]Allocation!AB6</f>
         <v>0</v>
       </c>
       <c r="I7" s="11">
-        <f>+$B7*[23]Allocation!AC6</f>
+        <f>+$B7*[28]Allocation!AC6</f>
         <v>0</v>
       </c>
       <c r="J7" s="11">
-        <f>+$B7*[23]Allocation!AD6</f>
+        <f>+$B7*[28]Allocation!AD6</f>
         <v>0</v>
       </c>
       <c r="K7" s="11">
-        <f>+$B7*[23]Allocation!AE6</f>
+        <f>+$B7*[28]Allocation!AE6</f>
         <v>0</v>
       </c>
       <c r="L7" s="11">
-        <f>+$B7*[23]Allocation!AF6</f>
+        <f>+$B7*[28]Allocation!AF6</f>
         <v>0</v>
       </c>
       <c r="M7" s="11">
-        <f>+$B7*[23]Allocation!AG6</f>
+        <f>+$B7*[28]Allocation!AG6</f>
         <v>0</v>
       </c>
       <c r="N7" s="12">
@@ -4071,55 +3636,55 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
-        <f>+[22]Summary!A11</f>
-        <v>45139</v>
+        <f>+[27]Summary!A11</f>
+        <v>45200</v>
       </c>
       <c r="B8" s="10">
-        <f>+[22]Summary!H11</f>
+        <f>+[27]Summary!H11</f>
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <f>+$B8*[23]Allocation!U7</f>
+        <f>+$B8*[28]Allocation!U7</f>
         <v>0</v>
       </c>
       <c r="D8" s="11">
-        <f>+$B8*[23]Allocation!V7</f>
+        <f>+$B8*[28]Allocation!V7</f>
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <f>+$B8*[23]Allocation!W7</f>
+        <f>+$B8*[28]Allocation!W7</f>
         <v>0</v>
       </c>
       <c r="F8" s="11">
-        <f>+$B8*[23]Allocation!AH7</f>
+        <f>+$B8*[28]Allocation!AH7</f>
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f>+$B8*[23]Allocation!AI7</f>
+        <f>+$B8*[28]Allocation!AI7</f>
         <v>0</v>
       </c>
       <c r="H8" s="11">
-        <f>+$B8*[23]Allocation!AB7</f>
+        <f>+$B8*[28]Allocation!AB7</f>
         <v>0</v>
       </c>
       <c r="I8" s="11">
-        <f>+$B8*[23]Allocation!AC7</f>
+        <f>+$B8*[28]Allocation!AC7</f>
         <v>0</v>
       </c>
       <c r="J8" s="11">
-        <f>+$B8*[23]Allocation!AD7</f>
+        <f>+$B8*[28]Allocation!AD7</f>
         <v>0</v>
       </c>
       <c r="K8" s="11">
-        <f>+$B8*[23]Allocation!AE7</f>
+        <f>+$B8*[28]Allocation!AE7</f>
         <v>0</v>
       </c>
       <c r="L8" s="11">
-        <f>+$B8*[23]Allocation!AF7</f>
+        <f>+$B8*[28]Allocation!AF7</f>
         <v>0</v>
       </c>
       <c r="M8" s="11">
-        <f>+$B8*[23]Allocation!AG7</f>
+        <f>+$B8*[28]Allocation!AG7</f>
         <v>0</v>
       </c>
       <c r="N8" s="12">
@@ -4129,55 +3694,55 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
-        <f>+[22]Summary!A12</f>
-        <v>45170</v>
+        <f>+[27]Summary!A12</f>
+        <v>45231</v>
       </c>
       <c r="B9" s="10">
-        <f>+[22]Summary!H12</f>
-        <v>5.7246335095551331</v>
+        <f>+[27]Summary!H12</f>
+        <v>0</v>
       </c>
       <c r="C9" s="11">
-        <f>+$B9*[23]Allocation!U8</f>
-        <v>-2.671487169057732E-3</v>
+        <f>+$B9*[28]Allocation!U8</f>
+        <v>0</v>
       </c>
       <c r="D9" s="11">
-        <f>+$B9*[23]Allocation!V8</f>
-        <v>-2.2262393075481103E-3</v>
+        <f>+$B9*[28]Allocation!V8</f>
+        <v>0</v>
       </c>
       <c r="E9" s="11">
-        <f>+$B9*[23]Allocation!W8</f>
-        <v>0.59393120760276108</v>
+        <f>+$B9*[28]Allocation!W8</f>
+        <v>0</v>
       </c>
       <c r="F9" s="11">
-        <f>+$B9*[23]Allocation!AH8</f>
-        <v>4.9644650911524106</v>
+        <f>+$B9*[28]Allocation!AH8</f>
+        <v>0</v>
       </c>
       <c r="G9" s="11">
-        <f>+$B9*[23]Allocation!AI8</f>
+        <f>+$B9*[28]Allocation!AI8</f>
         <v>0</v>
       </c>
       <c r="H9" s="11">
-        <f>+$B9*[23]Allocation!AB8</f>
+        <f>+$B9*[28]Allocation!AB8</f>
         <v>0</v>
       </c>
       <c r="I9" s="11">
-        <f>+$B9*[23]Allocation!AC8</f>
-        <v>3.4847664836620194E-4</v>
+        <f>+$B9*[28]Allocation!AC8</f>
+        <v>0</v>
       </c>
       <c r="J9" s="11">
-        <f>+$B9*[23]Allocation!AD8</f>
-        <v>0.17078646062820094</v>
+        <f>+$B9*[28]Allocation!AD8</f>
+        <v>0</v>
       </c>
       <c r="K9" s="11">
-        <f>+$B9*[23]Allocation!AE8</f>
+        <f>+$B9*[28]Allocation!AE8</f>
         <v>0</v>
       </c>
       <c r="L9" s="11">
-        <f>+$B9*[23]Allocation!AF8</f>
+        <f>+$B9*[28]Allocation!AF8</f>
         <v>0</v>
       </c>
       <c r="M9" s="11">
-        <f>+$B9*[23]Allocation!AG8</f>
+        <f>+$B9*[28]Allocation!AG8</f>
         <v>0</v>
       </c>
       <c r="N9" s="12">
@@ -4187,1099 +3752,1099 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <f>+[22]Summary!A13</f>
-        <v>45200</v>
+        <f>+[27]Summary!A13</f>
+        <v>45261</v>
       </c>
       <c r="B10" s="10">
-        <f>+[22]Summary!H13</f>
-        <v>9.8752139325661119</v>
+        <f>+[27]Summary!H13</f>
+        <v>1.7032735299435444</v>
       </c>
       <c r="C10" s="11">
-        <f>+$B10*[23]Allocation!U9</f>
+        <f>+$B10*[28]Allocation!U9</f>
         <v>0</v>
       </c>
       <c r="D10" s="11">
-        <f>+$B10*[23]Allocation!V9</f>
+        <f>+$B10*[28]Allocation!V9</f>
         <v>0</v>
       </c>
       <c r="E10" s="11">
-        <f>+$B10*[23]Allocation!W9</f>
-        <v>0.67885965933369197</v>
+        <f>+$B10*[28]Allocation!W9</f>
+        <v>0</v>
       </c>
       <c r="F10" s="11">
-        <f>+$B10*[23]Allocation!AH9</f>
-        <v>8.9281688922801159</v>
+        <f>+$B10*[28]Allocation!AH9</f>
+        <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f>+$B10*[23]Allocation!AI9</f>
+        <f>+$B10*[28]Allocation!AI9</f>
         <v>0</v>
       </c>
       <c r="H10" s="11">
-        <f>+$B10*[23]Allocation!AB9</f>
+        <f>+$B10*[28]Allocation!AB9</f>
         <v>0</v>
       </c>
       <c r="I10" s="11">
-        <f>+$B10*[23]Allocation!AC9</f>
+        <f>+$B10*[28]Allocation!AC9</f>
         <v>0</v>
       </c>
       <c r="J10" s="11">
-        <f>+$B10*[23]Allocation!AD9</f>
-        <v>0.26818538095230449</v>
+        <f>+$B10*[28]Allocation!AD9</f>
+        <v>0</v>
       </c>
       <c r="K10" s="11">
-        <f>+$B10*[23]Allocation!AE9</f>
+        <f>+$B10*[28]Allocation!AE9</f>
         <v>0</v>
       </c>
       <c r="L10" s="11">
-        <f>+$B10*[23]Allocation!AF9</f>
+        <f>+$B10*[28]Allocation!AF9</f>
         <v>0</v>
       </c>
       <c r="M10" s="11">
-        <f>+$B10*[23]Allocation!AG9</f>
+        <f>+$B10*[28]Allocation!AG9</f>
         <v>0</v>
       </c>
       <c r="N10" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.7032735299435444</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
-        <f>+[22]Summary!A14</f>
-        <v>45231</v>
+        <f>+[27]Summary!A14</f>
+        <v>45292</v>
       </c>
       <c r="B11" s="10">
-        <f>+[22]Summary!H14</f>
-        <v>87.641531743080122</v>
+        <f>+[27]Summary!H14</f>
+        <v>98.110090685077012</v>
       </c>
       <c r="C11" s="11">
-        <f>+$B11*[23]Allocation!U10</f>
+        <f>+$B11*[28]Allocation!U10</f>
         <v>0</v>
       </c>
       <c r="D11" s="11">
-        <f>+$B11*[23]Allocation!V10</f>
+        <f>+$B11*[28]Allocation!V10</f>
         <v>0</v>
       </c>
       <c r="E11" s="11">
-        <f>+$B11*[23]Allocation!W10</f>
-        <v>2.9563183391119034</v>
+        <f>+$B11*[28]Allocation!W10</f>
+        <v>0</v>
       </c>
       <c r="F11" s="11">
-        <f>+$B11*[23]Allocation!AH10</f>
-        <v>82.642447301527199</v>
+        <f>+$B11*[28]Allocation!AH10</f>
+        <v>0</v>
       </c>
       <c r="G11" s="11">
-        <f>+$B11*[23]Allocation!AI10</f>
-        <v>1.1986313419522318E-2</v>
+        <f>+$B11*[28]Allocation!AI10</f>
+        <v>0</v>
       </c>
       <c r="H11" s="11">
-        <f>+$B11*[23]Allocation!AB10</f>
+        <f>+$B11*[28]Allocation!AB10</f>
         <v>0</v>
       </c>
       <c r="I11" s="11">
-        <f>+$B11*[23]Allocation!AC10</f>
-        <v>5.3874182174774646E-3</v>
+        <f>+$B11*[28]Allocation!AC10</f>
+        <v>0</v>
       </c>
       <c r="J11" s="11">
-        <f>+$B11*[23]Allocation!AD10</f>
-        <v>2.0253923708040213</v>
+        <f>+$B11*[28]Allocation!AD10</f>
+        <v>0</v>
       </c>
       <c r="K11" s="11">
-        <f>+$B11*[23]Allocation!AE10</f>
+        <f>+$B11*[28]Allocation!AE10</f>
         <v>0</v>
       </c>
       <c r="L11" s="11">
-        <f>+$B11*[23]Allocation!AF10</f>
+        <f>+$B11*[28]Allocation!AF10</f>
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <f>+$B11*[23]Allocation!AG10</f>
+        <f>+$B11*[28]Allocation!AG10</f>
         <v>0</v>
       </c>
       <c r="N11" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>98.110090685077012</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <f>+[22]Summary!A15</f>
-        <v>45261</v>
+        <f>+[27]Summary!A15</f>
+        <v>45323</v>
       </c>
       <c r="B12" s="10">
-        <f>+[22]Summary!H15</f>
-        <v>186.94398931981414</v>
+        <f>+[27]Summary!H15</f>
+        <v>781.10676364769461</v>
       </c>
       <c r="C12" s="11">
-        <f>+$B12*[23]Allocation!U11</f>
+        <f>+$B12*[28]Allocation!U11</f>
         <v>0</v>
       </c>
       <c r="D12" s="11">
-        <f>+$B12*[23]Allocation!V11</f>
+        <f>+$B12*[28]Allocation!V11</f>
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <f>+$B12*[23]Allocation!W11</f>
-        <v>-0.25442197433301345</v>
+        <f>+$B12*[28]Allocation!W11</f>
+        <v>0</v>
       </c>
       <c r="F12" s="11">
-        <f>+$B12*[23]Allocation!AH11</f>
-        <v>179.94092833603571</v>
+        <f>+$B12*[28]Allocation!AH11</f>
+        <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f>+$B12*[23]Allocation!AI11</f>
-        <v>3.5950169074330081</v>
+        <f>+$B12*[28]Allocation!AI11</f>
+        <v>0</v>
       </c>
       <c r="H12" s="11">
-        <f>+$B12*[23]Allocation!AB11</f>
+        <f>+$B12*[28]Allocation!AB11</f>
         <v>0</v>
       </c>
       <c r="I12" s="11">
-        <f>+$B12*[23]Allocation!AC11</f>
-        <v>1.1633438021091859E-2</v>
+        <f>+$B12*[28]Allocation!AC11</f>
+        <v>0</v>
       </c>
       <c r="J12" s="11">
-        <f>+$B12*[23]Allocation!AD11</f>
-        <v>3.6508326126573154</v>
+        <f>+$B12*[28]Allocation!AD11</f>
+        <v>0</v>
       </c>
       <c r="K12" s="11">
-        <f>+$B12*[23]Allocation!AE11</f>
+        <f>+$B12*[28]Allocation!AE11</f>
         <v>0</v>
       </c>
       <c r="L12" s="11">
-        <f>+$B12*[23]Allocation!AF11</f>
+        <f>+$B12*[28]Allocation!AF11</f>
         <v>0</v>
       </c>
       <c r="M12" s="11">
-        <f>+$B12*[23]Allocation!AG11</f>
+        <f>+$B12*[28]Allocation!AG11</f>
         <v>0</v>
       </c>
       <c r="N12" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>781.10676364769461</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
-        <f>+[22]Summary!A16</f>
-        <v>45292</v>
+        <f>+[27]Summary!A16</f>
+        <v>45352</v>
       </c>
       <c r="B13" s="10">
-        <f>+[22]Summary!H16</f>
-        <v>329.47577156301122</v>
+        <f>+[27]Summary!H16</f>
+        <v>1010.3536612073076</v>
       </c>
       <c r="C13" s="11">
-        <f>+$B13*[23]Allocation!U12</f>
+        <f>+$B13*[28]Allocation!U12</f>
         <v>0</v>
       </c>
       <c r="D13" s="11">
-        <f>+$B13*[23]Allocation!V12</f>
+        <f>+$B13*[28]Allocation!V12</f>
         <v>0</v>
       </c>
       <c r="E13" s="11">
-        <f>+$B13*[23]Allocation!W12</f>
-        <v>-0.25550961985271237</v>
+        <f>+$B13*[28]Allocation!W12</f>
+        <v>0</v>
       </c>
       <c r="F13" s="11">
-        <f>+$B13*[23]Allocation!AH12</f>
-        <v>261.84378131930333</v>
+        <f>+$B13*[28]Allocation!AH12</f>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
-        <f>+$B13*[23]Allocation!AI12</f>
-        <v>62.629666993056588</v>
+        <f>+$B13*[28]Allocation!AI12</f>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
-        <f>+$B13*[23]Allocation!AB12</f>
+        <f>+$B13*[28]Allocation!AB12</f>
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <f>+$B13*[23]Allocation!AC12</f>
-        <v>1.9659248783543342E-2</v>
+        <f>+$B13*[28]Allocation!AC12</f>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
-        <f>+$B13*[23]Allocation!AD12</f>
-        <v>5.2381736217204482</v>
+        <f>+$B13*[28]Allocation!AD12</f>
+        <v>0</v>
       </c>
       <c r="K13" s="11">
-        <f>+$B13*[23]Allocation!AE12</f>
+        <f>+$B13*[28]Allocation!AE12</f>
         <v>0</v>
       </c>
       <c r="L13" s="11">
-        <f>+$B13*[23]Allocation!AF12</f>
+        <f>+$B13*[28]Allocation!AF12</f>
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <f>+$B13*[23]Allocation!AG12</f>
+        <f>+$B13*[28]Allocation!AG12</f>
         <v>0</v>
       </c>
       <c r="N13" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1010.3536612073076</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <f>+[22]Summary!A17</f>
-        <v>45323</v>
+        <f>+[27]Summary!A17</f>
+        <v>45383</v>
       </c>
       <c r="B14" s="10">
-        <f>+[22]Summary!H17</f>
-        <v>476.93558834749274</v>
+        <f>+[27]Summary!H17</f>
+        <v>1110.600079182419</v>
       </c>
       <c r="C14" s="11">
-        <f>+$B14*[23]Allocation!U13</f>
+        <f>+$B14*[28]Allocation!U13</f>
         <v>0</v>
       </c>
       <c r="D14" s="11">
-        <f>+$B14*[23]Allocation!V13</f>
+        <f>+$B14*[28]Allocation!V13</f>
         <v>0</v>
       </c>
       <c r="E14" s="11">
-        <f>+$B14*[23]Allocation!W13</f>
-        <v>-3.415287355007994E-2</v>
+        <f>+$B14*[28]Allocation!W13</f>
+        <v>0</v>
       </c>
       <c r="F14" s="11">
-        <f>+$B14*[23]Allocation!AH13</f>
-        <v>295.00901633091149</v>
+        <f>+$B14*[28]Allocation!AH13</f>
+        <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f>+$B14*[23]Allocation!AI13</f>
-        <v>176.07456817513835</v>
+        <f>+$B14*[28]Allocation!AI13</f>
+        <v>0</v>
       </c>
       <c r="H14" s="11">
-        <f>+$B14*[23]Allocation!AB13</f>
+        <f>+$B14*[28]Allocation!AB13</f>
         <v>0</v>
       </c>
       <c r="I14" s="11">
-        <f>+$B14*[23]Allocation!AC13</f>
-        <v>2.6730008014983736E-2</v>
+        <f>+$B14*[28]Allocation!AC13</f>
+        <v>0</v>
       </c>
       <c r="J14" s="11">
-        <f>+$B14*[23]Allocation!AD13</f>
-        <v>5.8594267069779216</v>
+        <f>+$B14*[28]Allocation!AD13</f>
+        <v>0</v>
       </c>
       <c r="K14" s="11">
-        <f>+$B14*[23]Allocation!AE13</f>
+        <f>+$B14*[28]Allocation!AE13</f>
         <v>0</v>
       </c>
       <c r="L14" s="11">
-        <f>+$B14*[23]Allocation!AF13</f>
+        <f>+$B14*[28]Allocation!AF13</f>
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <f>+$B14*[23]Allocation!AG13</f>
+        <f>+$B14*[28]Allocation!AG13</f>
         <v>0</v>
       </c>
       <c r="N14" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1110.600079182419</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <f>+[22]Summary!A18</f>
-        <v>45352</v>
+        <f>+[27]Summary!A18</f>
+        <v>45413</v>
       </c>
       <c r="B15" s="10">
-        <f>+[22]Summary!H18</f>
-        <v>880.01448790368158</v>
+        <f>+[27]Summary!H18</f>
+        <v>1447.2988825003267</v>
       </c>
       <c r="C15" s="11">
-        <f>+$B15*[23]Allocation!U14</f>
+        <f>+$B15*[28]Allocation!U14</f>
         <v>0</v>
       </c>
       <c r="D15" s="11">
-        <f>+$B15*[23]Allocation!V14</f>
+        <f>+$B15*[28]Allocation!V14</f>
         <v>0</v>
       </c>
       <c r="E15" s="11">
-        <f>+$B15*[23]Allocation!W14</f>
-        <v>-0.1492257762790847</v>
+        <f>+$B15*[28]Allocation!W14</f>
+        <v>0</v>
       </c>
       <c r="F15" s="11">
-        <f>+$B15*[23]Allocation!AH14</f>
-        <v>414.56047605593045</v>
+        <f>+$B15*[28]Allocation!AH14</f>
+        <v>0</v>
       </c>
       <c r="G15" s="11">
-        <f>+$B15*[23]Allocation!AI14</f>
-        <v>456.61519432768495</v>
+        <f>+$B15*[28]Allocation!AI14</f>
+        <v>0</v>
       </c>
       <c r="H15" s="11">
-        <f>+$B15*[23]Allocation!AB14</f>
+        <f>+$B15*[28]Allocation!AB14</f>
         <v>0</v>
       </c>
       <c r="I15" s="11">
-        <f>+$B15*[23]Allocation!AC14</f>
-        <v>4.7799802580836652E-2</v>
+        <f>+$B15*[28]Allocation!AC14</f>
+        <v>0</v>
       </c>
       <c r="J15" s="11">
-        <f>+$B15*[23]Allocation!AD14</f>
-        <v>8.9402434937645321</v>
+        <f>+$B15*[28]Allocation!AD14</f>
+        <v>0</v>
       </c>
       <c r="K15" s="11">
-        <f>+$B15*[23]Allocation!AE14</f>
+        <f>+$B15*[28]Allocation!AE14</f>
         <v>0</v>
       </c>
       <c r="L15" s="11">
-        <f>+$B15*[23]Allocation!AF14</f>
+        <f>+$B15*[28]Allocation!AF14</f>
         <v>0</v>
       </c>
       <c r="M15" s="11">
-        <f>+$B15*[23]Allocation!AG14</f>
+        <f>+$B15*[28]Allocation!AG14</f>
         <v>0</v>
       </c>
       <c r="N15" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1447.2988825003267</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
-        <f>+[22]Summary!A19</f>
-        <v>45383</v>
+        <f>+[27]Summary!A19</f>
+        <v>45444</v>
       </c>
       <c r="B16" s="10">
-        <f>+[22]Summary!H19</f>
-        <v>1828.9400653282064</v>
+        <f>+[27]Summary!H19</f>
+        <v>1289.919267286954</v>
       </c>
       <c r="C16" s="11">
-        <f>+$B16*[23]Allocation!U15</f>
+        <f>+$B16*[28]Allocation!U15</f>
         <v>0</v>
       </c>
       <c r="D16" s="11">
-        <f>+$B16*[23]Allocation!V15</f>
+        <f>+$B16*[28]Allocation!V15</f>
         <v>0</v>
       </c>
       <c r="E16" s="11">
-        <f>+$B16*[23]Allocation!W15</f>
+        <f>+$B16*[28]Allocation!W15</f>
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <f>+$B16*[23]Allocation!AH15</f>
-        <v>574.78537881759928</v>
+        <f>+$B16*[28]Allocation!AH15</f>
+        <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f>+$B16*[23]Allocation!AI15</f>
-        <v>1239.7469959802313</v>
+        <f>+$B16*[28]Allocation!AI15</f>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
-        <f>+$B16*[23]Allocation!AB15</f>
+        <f>+$B16*[28]Allocation!AB15</f>
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <f>+$B16*[23]Allocation!AC15</f>
-        <v>9.488392423701264E-2</v>
+        <f>+$B16*[28]Allocation!AC15</f>
+        <v>0</v>
       </c>
       <c r="J16" s="11">
-        <f>+$B16*[23]Allocation!AD15</f>
-        <v>14.312806606138649</v>
+        <f>+$B16*[28]Allocation!AD15</f>
+        <v>0</v>
       </c>
       <c r="K16" s="11">
-        <f>+$B16*[23]Allocation!AE15</f>
+        <f>+$B16*[28]Allocation!AE15</f>
         <v>0</v>
       </c>
       <c r="L16" s="11">
-        <f>+$B16*[23]Allocation!AF15</f>
+        <f>+$B16*[28]Allocation!AF15</f>
         <v>0</v>
       </c>
       <c r="M16" s="11">
-        <f>+$B16*[23]Allocation!AG15</f>
+        <f>+$B16*[28]Allocation!AG15</f>
         <v>0</v>
       </c>
       <c r="N16" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1289.919267286954</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
-        <f>+[22]Summary!A20</f>
-        <v>45413</v>
+        <f>+[27]Summary!A20</f>
+        <v>45474</v>
       </c>
       <c r="B17" s="10">
-        <f>+[22]Summary!H20</f>
-        <v>3124.8082136861049</v>
+        <f>+[27]Summary!H20</f>
+        <v>1694.9328809941944</v>
       </c>
       <c r="C17" s="11">
-        <f>+$B17*[23]Allocation!U16</f>
+        <f>+$B17*[28]Allocation!U16</f>
         <v>0</v>
       </c>
       <c r="D17" s="11">
-        <f>+$B17*[23]Allocation!V16</f>
+        <f>+$B17*[28]Allocation!V16</f>
         <v>0</v>
       </c>
       <c r="E17" s="11">
-        <f>+$B17*[23]Allocation!W16</f>
-        <v>-1.3701624430948345</v>
+        <f>+$B17*[28]Allocation!W16</f>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
-        <f>+$B17*[23]Allocation!AH16</f>
-        <v>770.93122610204239</v>
+        <f>+$B17*[28]Allocation!AH16</f>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
-        <f>+$B17*[23]Allocation!AI16</f>
-        <v>2337.6075924050751</v>
+        <f>+$B17*[28]Allocation!AI16</f>
+        <v>0</v>
       </c>
       <c r="H17" s="11">
-        <f>+$B17*[23]Allocation!AB16</f>
+        <f>+$B17*[28]Allocation!AB16</f>
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <f>+$B17*[23]Allocation!AC16</f>
-        <v>0.16894364065430784</v>
+        <f>+$B17*[28]Allocation!AC16</f>
+        <v>0</v>
       </c>
       <c r="J17" s="11">
-        <f>+$B17*[23]Allocation!AD16</f>
-        <v>17.470613981428073</v>
+        <f>+$B17*[28]Allocation!AD16</f>
+        <v>0</v>
       </c>
       <c r="K17" s="11">
-        <f>+$B17*[23]Allocation!AE16</f>
+        <f>+$B17*[28]Allocation!AE16</f>
         <v>0</v>
       </c>
       <c r="L17" s="11">
-        <f>+$B17*[23]Allocation!AF16</f>
+        <f>+$B17*[28]Allocation!AF16</f>
         <v>0</v>
       </c>
       <c r="M17" s="11">
-        <f>+$B17*[23]Allocation!AG16</f>
+        <f>+$B17*[28]Allocation!AG16</f>
         <v>0</v>
       </c>
       <c r="N17" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1694.9328809941944</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <f>+[22]Summary!A21</f>
-        <v>45444</v>
+        <f>+[27]Summary!A21</f>
+        <v>45505</v>
       </c>
       <c r="B18" s="10">
-        <f>+[22]Summary!H21</f>
-        <v>3244.6645041573502</v>
+        <f>+[27]Summary!H21</f>
+        <v>2847.643824507948</v>
       </c>
       <c r="C18" s="11">
-        <f>+$B18*[23]Allocation!U17</f>
+        <f>+$B18*[28]Allocation!U17</f>
         <v>0</v>
       </c>
       <c r="D18" s="11">
-        <f>+$B18*[23]Allocation!V17</f>
+        <f>+$B18*[28]Allocation!V17</f>
         <v>0</v>
       </c>
       <c r="E18" s="11">
-        <f>+$B18*[23]Allocation!W17</f>
+        <f>+$B18*[28]Allocation!W17</f>
         <v>0</v>
       </c>
       <c r="F18" s="11">
-        <f>+$B18*[23]Allocation!AH17</f>
-        <v>637.97094070612138</v>
+        <f>+$B18*[28]Allocation!AH17</f>
+        <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f>+$B18*[23]Allocation!AI17</f>
-        <v>2596.1363048588896</v>
+        <f>+$B18*[28]Allocation!AI17</f>
+        <v>0</v>
       </c>
       <c r="H18" s="11">
-        <f>+$B18*[23]Allocation!AB17</f>
+        <f>+$B18*[28]Allocation!AB17</f>
         <v>0</v>
       </c>
       <c r="I18" s="11">
-        <f>+$B18*[23]Allocation!AC17</f>
-        <v>0.17115104007171414</v>
+        <f>+$B18*[28]Allocation!AC17</f>
+        <v>0</v>
       </c>
       <c r="J18" s="11">
-        <f>+$B18*[23]Allocation!AD17</f>
-        <v>10.386107552267864</v>
+        <f>+$B18*[28]Allocation!AD17</f>
+        <v>0</v>
       </c>
       <c r="K18" s="11">
-        <f>+$B18*[23]Allocation!AE17</f>
+        <f>+$B18*[28]Allocation!AE17</f>
         <v>0</v>
       </c>
       <c r="L18" s="11">
-        <f>+$B18*[23]Allocation!AF17</f>
+        <f>+$B18*[28]Allocation!AF17</f>
         <v>0</v>
       </c>
       <c r="M18" s="11">
-        <f>+$B18*[23]Allocation!AG17</f>
+        <f>+$B18*[28]Allocation!AG17</f>
         <v>0</v>
       </c>
       <c r="N18" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2847.643824507948</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <f>+[22]Summary!A22</f>
-        <v>45474</v>
+        <f>+[27]Summary!A22</f>
+        <v>45536</v>
       </c>
       <c r="B19" s="10">
-        <f>+[22]Summary!H22</f>
-        <v>4000.2785609582206</v>
+        <f>+[27]Summary!H22</f>
+        <v>2440.8600483703922</v>
       </c>
       <c r="C19" s="11">
-        <f>+$B19*[23]Allocation!U18</f>
+        <f>+$B19*[28]Allocation!U18</f>
         <v>0</v>
       </c>
       <c r="D19" s="11">
-        <f>+$B19*[23]Allocation!V18</f>
+        <f>+$B19*[28]Allocation!V18</f>
         <v>0</v>
       </c>
       <c r="E19" s="11">
-        <f>+$B19*[23]Allocation!W18</f>
-        <v>-0.37335075157064551</v>
+        <f>+$B19*[28]Allocation!W18</f>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <f>+$B19*[23]Allocation!AH18</f>
-        <v>595.1656803186886</v>
+        <f>+$B19*[28]Allocation!AH18</f>
+        <v>0</v>
       </c>
       <c r="G19" s="11">
-        <f>+$B19*[23]Allocation!AI18</f>
-        <v>3398.97194457041</v>
+        <f>+$B19*[28]Allocation!AI18</f>
+        <v>0</v>
       </c>
       <c r="H19" s="11">
-        <f>+$B19*[23]Allocation!AB18</f>
+        <f>+$B19*[28]Allocation!AB18</f>
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <f>+$B19*[23]Allocation!AC18</f>
-        <v>0.21643844213431726</v>
+        <f>+$B19*[28]Allocation!AC18</f>
+        <v>0</v>
       </c>
       <c r="J19" s="11">
-        <f>+$B19*[23]Allocation!AD18</f>
-        <v>6.2978483785585242</v>
+        <f>+$B19*[28]Allocation!AD18</f>
+        <v>0</v>
       </c>
       <c r="K19" s="11">
-        <f>+$B19*[23]Allocation!AE18</f>
+        <f>+$B19*[28]Allocation!AE18</f>
         <v>0</v>
       </c>
       <c r="L19" s="11">
-        <f>+$B19*[23]Allocation!AF18</f>
+        <f>+$B19*[28]Allocation!AF18</f>
         <v>0</v>
       </c>
       <c r="M19" s="11">
-        <f>+$B19*[23]Allocation!AG18</f>
+        <f>+$B19*[28]Allocation!AG18</f>
         <v>0</v>
       </c>
       <c r="N19" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2440.8600483703922</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <f>+[22]Summary!A23</f>
-        <v>45505</v>
+        <f>+[27]Summary!A23</f>
+        <v>45566</v>
       </c>
       <c r="B20" s="10">
-        <f>+[22]Summary!H23</f>
-        <v>7044.7817021331866</v>
+        <f>+[27]Summary!H23</f>
+        <v>4107.8313481451769</v>
       </c>
       <c r="C20" s="11">
-        <f>+$B20*[23]Allocation!U19</f>
+        <f>+$B20*[28]Allocation!U19</f>
         <v>0</v>
       </c>
       <c r="D20" s="11">
-        <f>+$B20*[23]Allocation!V19</f>
+        <f>+$B20*[28]Allocation!V19</f>
         <v>0</v>
       </c>
       <c r="E20" s="11">
-        <f>+$B20*[23]Allocation!W19</f>
+        <f>+$B20*[28]Allocation!W19</f>
         <v>0</v>
       </c>
       <c r="F20" s="11">
-        <f>+$B20*[23]Allocation!AH19</f>
-        <v>888.34573238945814</v>
+        <f>+$B20*[28]Allocation!AH19</f>
+        <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f>+$B20*[23]Allocation!AI19</f>
-        <v>6153.0136611702728</v>
+        <f>+$B20*[28]Allocation!AI19</f>
+        <v>0</v>
       </c>
       <c r="H20" s="11">
-        <f>+$B20*[23]Allocation!AB19</f>
+        <f>+$B20*[28]Allocation!AB19</f>
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <f>+$B20*[23]Allocation!AC19</f>
-        <v>0.43271386048446819</v>
+        <f>+$B20*[28]Allocation!AC19</f>
+        <v>0</v>
       </c>
       <c r="J20" s="11">
-        <f>+$B20*[23]Allocation!AD19</f>
-        <v>2.9895947129710065</v>
+        <f>+$B20*[28]Allocation!AD19</f>
+        <v>0</v>
       </c>
       <c r="K20" s="11">
-        <f>+$B20*[23]Allocation!AE19</f>
+        <f>+$B20*[28]Allocation!AE19</f>
         <v>0</v>
       </c>
       <c r="L20" s="11">
-        <f>+$B20*[23]Allocation!AF19</f>
+        <f>+$B20*[28]Allocation!AF19</f>
         <v>0</v>
       </c>
       <c r="M20" s="11">
-        <f>+$B20*[23]Allocation!AG19</f>
+        <f>+$B20*[28]Allocation!AG19</f>
         <v>0</v>
       </c>
       <c r="N20" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4107.8313481451769</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <f>+[22]Summary!A24</f>
-        <v>45536</v>
+        <f>+[27]Summary!A24</f>
+        <v>45597</v>
       </c>
       <c r="B21" s="10">
-        <f>+[22]Summary!H24</f>
-        <v>6569.9906270338834</v>
+        <f>+[27]Summary!H24</f>
+        <v>3571.855623320429</v>
       </c>
       <c r="C21" s="11">
-        <f>+$B21*[23]Allocation!U20</f>
+        <f>+$B21*[28]Allocation!U20</f>
         <v>0</v>
       </c>
       <c r="D21" s="11">
-        <f>+$B21*[23]Allocation!V20</f>
+        <f>+$B21*[28]Allocation!V20</f>
         <v>0</v>
       </c>
       <c r="E21" s="11">
-        <f>+$B21*[23]Allocation!W20</f>
+        <f>+$B21*[28]Allocation!W20</f>
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <f>+$B21*[23]Allocation!AH20</f>
-        <v>675.02278582641236</v>
+        <f>+$B21*[28]Allocation!AH20</f>
+        <v>0</v>
       </c>
       <c r="G21" s="11">
-        <f>+$B21*[23]Allocation!AI20</f>
-        <v>5894.5286776212524</v>
+        <f>+$B21*[28]Allocation!AI20</f>
+        <v>0</v>
       </c>
       <c r="H21" s="11">
-        <f>+$B21*[23]Allocation!AB20</f>
+        <f>+$B21*[28]Allocation!AB20</f>
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <f>+$B21*[23]Allocation!AC20</f>
-        <v>0.43916358621800516</v>
+        <f>+$B21*[28]Allocation!AC20</f>
+        <v>0</v>
       </c>
       <c r="J21" s="11">
-        <f>+$B21*[23]Allocation!AD20</f>
+        <f>+$B21*[28]Allocation!AD20</f>
         <v>0</v>
       </c>
       <c r="K21" s="11">
-        <f>+$B21*[23]Allocation!AE20</f>
+        <f>+$B21*[28]Allocation!AE20</f>
         <v>0</v>
       </c>
       <c r="L21" s="11">
-        <f>+$B21*[23]Allocation!AF20</f>
+        <f>+$B21*[28]Allocation!AF20</f>
         <v>0</v>
       </c>
       <c r="M21" s="11">
-        <f>+$B21*[23]Allocation!AG20</f>
+        <f>+$B21*[28]Allocation!AG20</f>
         <v>0</v>
       </c>
       <c r="N21" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3571.855623320429</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <f>+[22]Summary!A25</f>
-        <v>45566</v>
+        <f>+[27]Summary!A25</f>
+        <v>45627</v>
       </c>
       <c r="B22" s="10">
-        <f>+[22]Summary!H25</f>
-        <v>10089.44521042108</v>
+        <f>+[27]Summary!H25</f>
+        <v>4246.6725183626259</v>
       </c>
       <c r="C22" s="11">
-        <f>+$B22*[23]Allocation!U21</f>
+        <f>+$B22*[28]Allocation!U21</f>
         <v>0</v>
       </c>
       <c r="D22" s="11">
-        <f>+$B22*[23]Allocation!V21</f>
+        <f>+$B22*[28]Allocation!V21</f>
         <v>0</v>
       </c>
       <c r="E22" s="11">
-        <f>+$B22*[23]Allocation!W21</f>
+        <f>+$B22*[28]Allocation!W21</f>
         <v>0</v>
       </c>
       <c r="F22" s="11">
-        <f>+$B22*[23]Allocation!AH21</f>
-        <v>721.080786082994</v>
+        <f>+$B22*[28]Allocation!AH21</f>
+        <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f>+$B22*[23]Allocation!AI21</f>
-        <v>9367.6262715109333</v>
+        <f>+$B22*[28]Allocation!AI21</f>
+        <v>0</v>
       </c>
       <c r="H22" s="11">
-        <f>+$B22*[23]Allocation!AB21</f>
+        <f>+$B22*[28]Allocation!AB21</f>
         <v>0</v>
       </c>
       <c r="I22" s="11">
-        <f>+$B22*[23]Allocation!AC21</f>
-        <v>0.73815282715300456</v>
+        <f>+$B22*[28]Allocation!AC21</f>
+        <v>0</v>
       </c>
       <c r="J22" s="11">
-        <f>+$B22*[23]Allocation!AD21</f>
+        <f>+$B22*[28]Allocation!AD21</f>
         <v>0</v>
       </c>
       <c r="K22" s="11">
-        <f>+$B22*[23]Allocation!AE21</f>
+        <f>+$B22*[28]Allocation!AE21</f>
         <v>0</v>
       </c>
       <c r="L22" s="11">
-        <f>+$B22*[23]Allocation!AF21</f>
+        <f>+$B22*[28]Allocation!AF21</f>
         <v>0</v>
       </c>
       <c r="M22" s="11">
-        <f>+$B22*[23]Allocation!AG21</f>
+        <f>+$B22*[28]Allocation!AG21</f>
         <v>0</v>
       </c>
       <c r="N22" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4246.6725183626259</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <f>+[22]Summary!A26</f>
-        <v>45597</v>
+        <f>+[27]Summary!A26</f>
+        <v>45658</v>
       </c>
       <c r="B23" s="10">
-        <f>+[22]Summary!H26</f>
-        <v>9346.6062436414068</v>
+        <f>+[27]Summary!H26</f>
+        <v>5097.2929434053076</v>
       </c>
       <c r="C23" s="11">
-        <f>+$B23*[23]Allocation!U22</f>
+        <f>+$B23*[28]Allocation!U22</f>
         <v>0</v>
       </c>
       <c r="D23" s="11">
-        <f>+$B23*[23]Allocation!V22</f>
+        <f>+$B23*[28]Allocation!V22</f>
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <f>+$B23*[23]Allocation!W22</f>
+        <f>+$B23*[28]Allocation!W22</f>
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <f>+$B23*[23]Allocation!AH22</f>
-        <v>333.8424558680548</v>
+        <f>+$B23*[28]Allocation!AH22</f>
+        <v>0</v>
       </c>
       <c r="G23" s="11">
-        <f>+$B23*[23]Allocation!AI22</f>
-        <v>9012.0138720170035</v>
+        <f>+$B23*[28]Allocation!AI22</f>
+        <v>0</v>
       </c>
       <c r="H23" s="11">
-        <f>+$B23*[23]Allocation!AB22</f>
+        <f>+$B23*[28]Allocation!AB22</f>
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <f>+$B23*[23]Allocation!AC22</f>
-        <v>0.7499157563497505</v>
+        <f>+$B23*[28]Allocation!AC22</f>
+        <v>0</v>
       </c>
       <c r="J23" s="11">
-        <f>+$B23*[23]Allocation!AD22</f>
+        <f>+$B23*[28]Allocation!AD22</f>
         <v>0</v>
       </c>
       <c r="K23" s="11">
-        <f>+$B23*[23]Allocation!AE22</f>
+        <f>+$B23*[28]Allocation!AE22</f>
         <v>0</v>
       </c>
       <c r="L23" s="11">
-        <f>+$B23*[23]Allocation!AF22</f>
+        <f>+$B23*[28]Allocation!AF22</f>
         <v>0</v>
       </c>
       <c r="M23" s="11">
-        <f>+$B23*[23]Allocation!AG22</f>
+        <f>+$B23*[28]Allocation!AG22</f>
         <v>0</v>
       </c>
       <c r="N23" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5097.2929434053076</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
-        <f>+[22]Summary!A27</f>
-        <v>45627</v>
+        <f>+[27]Summary!A27</f>
+        <v>45689</v>
       </c>
       <c r="B24" s="10">
-        <f>+[22]Summary!H27</f>
-        <v>16293.447032806085</v>
+        <f>+[27]Summary!H27</f>
+        <v>9386.2545881313708</v>
       </c>
       <c r="C24" s="11">
-        <f>+$B24*[23]Allocation!U23</f>
+        <f>+$B24*[28]Allocation!U23</f>
         <v>0</v>
       </c>
       <c r="D24" s="11">
-        <f>+$B24*[23]Allocation!V23</f>
+        <f>+$B24*[28]Allocation!V23</f>
         <v>0</v>
       </c>
       <c r="E24" s="11">
-        <f>+$B24*[23]Allocation!W23</f>
+        <f>+$B24*[28]Allocation!W23</f>
         <v>0</v>
       </c>
       <c r="F24" s="11">
-        <f>+$B24*[23]Allocation!AH23</f>
-        <v>-14.087360858568873</v>
+        <f>+$B24*[28]Allocation!AH23</f>
+        <v>0</v>
       </c>
       <c r="G24" s="11">
-        <f>+$B24*[23]Allocation!AI23</f>
-        <v>16217.095383949638</v>
+        <f>+$B24*[28]Allocation!AI23</f>
+        <v>0</v>
       </c>
       <c r="H24" s="11">
-        <f>+$B24*[23]Allocation!AB23</f>
-        <v>88.99437299620773</v>
+        <f>+$B24*[28]Allocation!AB23</f>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
-        <f>+$B24*[23]Allocation!AC23</f>
-        <v>1.4446367188073095</v>
+        <f>+$B24*[28]Allocation!AC23</f>
+        <v>0</v>
       </c>
       <c r="J24" s="11">
-        <f>+$B24*[23]Allocation!AD23</f>
+        <f>+$B24*[28]Allocation!AD23</f>
         <v>0</v>
       </c>
       <c r="K24" s="11">
-        <f>+$B24*[23]Allocation!AE23</f>
+        <f>+$B24*[28]Allocation!AE23</f>
         <v>0</v>
       </c>
       <c r="L24" s="11">
-        <f>+$B24*[23]Allocation!AF23</f>
+        <f>+$B24*[28]Allocation!AF23</f>
         <v>0</v>
       </c>
       <c r="M24" s="11">
-        <f>+$B24*[23]Allocation!AG23</f>
+        <f>+$B24*[28]Allocation!AG23</f>
         <v>0</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9386.2545881313708</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
-        <f>+[22]Summary!A28</f>
-        <v>45658</v>
+        <f>+[27]Summary!A28</f>
+        <v>45717</v>
       </c>
       <c r="B25" s="10">
-        <f>+[22]Summary!H28</f>
-        <v>25448.703938125851</v>
+        <f>+[27]Summary!H28</f>
+        <v>16167.193776677741</v>
       </c>
       <c r="C25" s="11">
-        <f>+$B25*[23]Allocation!U24</f>
+        <f>+$B25*[28]Allocation!U24</f>
         <v>0</v>
       </c>
       <c r="D25" s="11">
-        <f>+$B25*[23]Allocation!V24</f>
+        <f>+$B25*[28]Allocation!V24</f>
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <f>+$B25*[23]Allocation!W24</f>
+        <f>+$B25*[28]Allocation!W24</f>
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <f>+$B25*[23]Allocation!AH24</f>
-        <v>-4.2279527696349328</v>
+        <f>+$B25*[28]Allocation!AH24</f>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
-        <f>+$B25*[23]Allocation!AI24</f>
-        <v>23701.932894653048</v>
+        <f>+$B25*[28]Allocation!AI24</f>
+        <v>0</v>
       </c>
       <c r="H25" s="11">
-        <f>+$B25*[23]Allocation!AB24</f>
-        <v>1748.5526367961659</v>
+        <f>+$B25*[28]Allocation!AB24</f>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
-        <f>+$B25*[23]Allocation!AC24</f>
-        <v>2.4463594462742559</v>
+        <f>+$B25*[28]Allocation!AC24</f>
+        <v>0</v>
       </c>
       <c r="J25" s="11">
-        <f>+$B25*[23]Allocation!AD24</f>
+        <f>+$B25*[28]Allocation!AD24</f>
         <v>0</v>
       </c>
       <c r="K25" s="11">
-        <f>+$B25*[23]Allocation!AE24</f>
+        <f>+$B25*[28]Allocation!AE24</f>
         <v>0</v>
       </c>
       <c r="L25" s="11">
-        <f>+$B25*[23]Allocation!AF24</f>
+        <f>+$B25*[28]Allocation!AF24</f>
         <v>0</v>
       </c>
       <c r="M25" s="11">
-        <f>+$B25*[23]Allocation!AG24</f>
+        <f>+$B25*[28]Allocation!AG24</f>
         <v>0</v>
       </c>
       <c r="N25" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16167.193776677741</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <f>+[22]Summary!A29</f>
-        <v>45689</v>
+        <f>+[27]Summary!A29</f>
+        <v>45748</v>
       </c>
       <c r="B26" s="10">
-        <f>+[22]Summary!H29</f>
-        <v>27864.690000000002</v>
+        <f>+[27]Summary!H29</f>
+        <v>-20842.32</v>
       </c>
       <c r="C26" s="11">
-        <f>+$B26*[23]Allocation!U25</f>
+        <f>+$B26*[28]Allocation!U25</f>
         <v>0</v>
       </c>
       <c r="D26" s="11">
-        <f>+$B26*[23]Allocation!V25</f>
+        <f>+$B26*[28]Allocation!V25</f>
         <v>0</v>
       </c>
       <c r="E26" s="11">
-        <f>+$B26*[23]Allocation!W25</f>
+        <f>+$B26*[28]Allocation!W25</f>
         <v>0</v>
       </c>
       <c r="F26" s="11">
-        <f>+$B26*[23]Allocation!AH25</f>
-        <v>-17.607967530234436</v>
+        <f>+$B26*[28]Allocation!AH25</f>
+        <v>0</v>
       </c>
       <c r="G26" s="11">
-        <f>+$B26*[23]Allocation!AI25</f>
-        <v>23206.4910148419</v>
+        <f>+$B26*[28]Allocation!AI25</f>
+        <v>0</v>
       </c>
       <c r="H26" s="11">
-        <f>+$B26*[23]Allocation!AB25</f>
-        <v>4672.8522492517113</v>
+        <f>+$B26*[28]Allocation!AB25</f>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
-        <f>+$B26*[23]Allocation!AC25</f>
-        <v>2.9547034366235692</v>
+        <f>+$B26*[28]Allocation!AC25</f>
+        <v>0</v>
       </c>
       <c r="J26" s="11">
-        <f>+$B26*[23]Allocation!AD25</f>
+        <f>+$B26*[28]Allocation!AD25</f>
         <v>0</v>
       </c>
       <c r="K26" s="11">
-        <f>+$B26*[23]Allocation!AE25</f>
+        <f>+$B26*[28]Allocation!AE25</f>
         <v>0</v>
       </c>
       <c r="L26" s="11">
-        <f>+$B26*[23]Allocation!AF25</f>
+        <f>+$B26*[28]Allocation!AF25</f>
         <v>0</v>
       </c>
       <c r="M26" s="11">
-        <f>+$B26*[23]Allocation!AG25</f>
+        <f>+$B26*[28]Allocation!AG25</f>
         <v>0</v>
       </c>
       <c r="N26" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-20842.32</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
-        <f>+[22]Summary!A30</f>
-        <v>45717</v>
+        <f>+[27]Summary!A30</f>
+        <v>45778</v>
       </c>
       <c r="B27" s="10">
-        <f>+[22]Summary!H30</f>
-        <v>9786.2199999999866</v>
+        <f>+[27]Summary!H30</f>
+        <v>-1003.4200000000001</v>
       </c>
       <c r="C27" s="11">
-        <f>+$B27*[23]Allocation!U26</f>
+        <f>+$B27*[28]Allocation!U26</f>
         <v>0</v>
       </c>
       <c r="D27" s="11">
-        <f>+$B27*[23]Allocation!V26</f>
+        <f>+$B27*[28]Allocation!V26</f>
         <v>0</v>
       </c>
       <c r="E27" s="11">
-        <f>+$B27*[23]Allocation!W26</f>
+        <f>+$B27*[28]Allocation!W26</f>
         <v>0</v>
       </c>
       <c r="F27" s="11">
-        <f>+$B27*[23]Allocation!AH26</f>
+        <f>+$B27*[28]Allocation!AH26</f>
         <v>0</v>
       </c>
       <c r="G27" s="11">
-        <f>+$B27*[23]Allocation!AI26</f>
-        <v>6474.9336262137549</v>
+        <f>+$B27*[28]Allocation!AI26</f>
+        <v>0</v>
       </c>
       <c r="H27" s="11">
-        <f>+$B27*[23]Allocation!AB26</f>
-        <v>3310.1495108395306</v>
+        <f>+$B27*[28]Allocation!AB26</f>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
-        <f>+$B27*[23]Allocation!AC26</f>
-        <v>1.1368629466996354</v>
+        <f>+$B27*[28]Allocation!AC26</f>
+        <v>0</v>
       </c>
       <c r="J27" s="11">
-        <f>+$B27*[23]Allocation!AD26</f>
+        <f>+$B27*[28]Allocation!AD26</f>
         <v>0</v>
       </c>
       <c r="K27" s="11">
-        <f>+$B27*[23]Allocation!AE26</f>
+        <f>+$B27*[28]Allocation!AE26</f>
         <v>0</v>
       </c>
       <c r="L27" s="11">
-        <f>+$B27*[23]Allocation!AF26</f>
+        <f>+$B27*[28]Allocation!AF26</f>
         <v>0</v>
       </c>
       <c r="M27" s="11">
-        <f>+$B27*[23]Allocation!AG26</f>
+        <f>+$B27*[28]Allocation!AG26</f>
         <v>0</v>
       </c>
       <c r="N27" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1003.4200000000001</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <f>+[22]Summary!A31</f>
-        <v>45748</v>
+        <f>+[27]Summary!A31</f>
+        <v>45809</v>
       </c>
       <c r="B28" s="10">
-        <f>+[22]Summary!H31</f>
-        <v>-9825</v>
+        <f>+[27]Summary!H31</f>
+        <v>0</v>
       </c>
       <c r="C28" s="11">
-        <f>+$B28*[23]Allocation!U27</f>
+        <f>+$B28*[28]Allocation!U27</f>
         <v>0</v>
       </c>
       <c r="D28" s="11">
-        <f>+$B28*[23]Allocation!V27</f>
+        <f>+$B28*[28]Allocation!V27</f>
         <v>0</v>
       </c>
       <c r="E28" s="11">
-        <f>+$B28*[23]Allocation!W27</f>
+        <f>+$B28*[28]Allocation!W27</f>
         <v>0</v>
       </c>
       <c r="F28" s="11">
-        <f>+$B28*[23]Allocation!AH27</f>
-        <v>13.584895920188819</v>
+        <f>+$B28*[28]Allocation!AH27</f>
+        <v>0</v>
       </c>
       <c r="G28" s="11">
-        <f>+$B28*[23]Allocation!AI27</f>
-        <v>-4790.0018143965917</v>
+        <f>+$B28*[28]Allocation!AI27</f>
+        <v>0</v>
       </c>
       <c r="H28" s="11">
-        <f>+$B28*[23]Allocation!AB27</f>
-        <v>-5047.239122709304</v>
+        <f>+$B28*[28]Allocation!AB27</f>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
-        <f>+$B28*[23]Allocation!AC27</f>
-        <v>-1.343958814293936</v>
+        <f>+$B28*[28]Allocation!AC27</f>
+        <v>0</v>
       </c>
       <c r="J28" s="11">
-        <f>+$B28*[23]Allocation!AD27</f>
+        <f>+$B28*[28]Allocation!AD27</f>
         <v>0</v>
       </c>
       <c r="K28" s="11">
-        <f>+$B28*[23]Allocation!AE27</f>
+        <f>+$B28*[28]Allocation!AE27</f>
         <v>0</v>
       </c>
       <c r="L28" s="11">
-        <f>+$B28*[23]Allocation!AF27</f>
+        <f>+$B28*[28]Allocation!AF27</f>
         <v>0</v>
       </c>
       <c r="M28" s="11">
-        <f>+$B28*[23]Allocation!AG27</f>
+        <f>+$B28*[28]Allocation!AG27</f>
         <v>0</v>
       </c>
       <c r="N28" s="12">
